--- a/URUVS/Datasheets/URUV/05.2024/May_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/05.2024/May_RecordingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\05.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E3D420-7957-4519-83E3-99C54C17BDD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DE9C60-2A1D-4C9E-AB19-C4BE8C78DB29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="191">
   <si>
     <t>DATE</t>
   </si>
@@ -591,6 +591,21 @@
   </si>
   <si>
     <t>B19</t>
+  </si>
+  <si>
+    <t>01_06_2024_0725_C12_D1_LTPE6</t>
+  </si>
+  <si>
+    <t>01_06_2024_0728_C11_D2_LTPE4</t>
+  </si>
+  <si>
+    <t>01_06_2024_0742_CNEW_D3_LTPE5</t>
+  </si>
+  <si>
+    <t>BN2</t>
+  </si>
+  <si>
+    <t>B21</t>
   </si>
 </sst>
 </file>
@@ -831,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -951,6 +966,7 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1234,20 +1250,16 @@
   <dimension ref="A1:CV22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="6" max="9" width="8.7265625" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="12" max="21" width="8.7265625" customWidth="1"/>
+    <col min="2" max="21" width="8.7265625" customWidth="1"/>
     <col min="22" max="28" width="8.7265625" style="1" customWidth="1"/>
     <col min="29" max="35" width="8.7265625" customWidth="1"/>
     <col min="36" max="36" width="14.90625" bestFit="1" customWidth="1"/>
@@ -4794,38 +4806,70 @@
       <c r="CV16" s="35"/>
     </row>
     <row r="17" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="93">
+        <v>45297</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="5">
+        <v>6</v>
+      </c>
       <c r="E17" s="76" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7" t="e">
+        <v>E6</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="J17" s="7">
         <f>VLOOKUP(E17,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K17" s="7" t="e">
+        <v>-5.463902</v>
+      </c>
+      <c r="K17" s="7">
         <f>VLOOKUP(E17,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+        <v>119.28802</v>
+      </c>
+      <c r="L17" s="5">
+        <v>43</v>
+      </c>
+      <c r="M17" s="5">
+        <v>42</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O17" s="5">
+        <v>3</v>
+      </c>
       <c r="P17" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+        <v>7.3611111111111127E-2</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="U17" s="8"/>
       <c r="V17" s="19"/>
       <c r="W17" s="20"/>
@@ -4977,38 +5021,70 @@
       <c r="CV17" s="35"/>
     </row>
     <row r="18" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="93">
+        <v>45297</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4</v>
+      </c>
       <c r="E18" s="76" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7" t="e">
+        <v>E4</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>11</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="J18" s="7">
         <f>VLOOKUP(E18,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K18" s="7" t="e">
+        <v>-5.4639509999999998</v>
+      </c>
+      <c r="K18" s="7">
         <f>VLOOKUP(E18,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+        <v>119.287291</v>
+      </c>
+      <c r="L18" s="5">
+        <v>70</v>
+      </c>
+      <c r="M18" s="5">
+        <v>70</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O18" s="5">
+        <v>4</v>
+      </c>
       <c r="P18" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
+        <v>7.0138888888888917E-2</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="U18" s="8"/>
       <c r="V18" s="19"/>
       <c r="W18" s="20"/>
@@ -5160,38 +5236,70 @@
       <c r="CV18" s="35"/>
     </row>
     <row r="19" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="93">
+        <v>45297</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5</v>
+      </c>
       <c r="E19" s="76" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7" t="e">
+        <v>E5</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="J19" s="7">
         <f>VLOOKUP(E19,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K19" s="7" t="e">
+        <v>-5.4620889999999997</v>
+      </c>
+      <c r="K19" s="7">
         <f>VLOOKUP(E19,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+        <v>119.286874</v>
+      </c>
+      <c r="L19" s="5">
+        <v>58</v>
+      </c>
+      <c r="M19" s="5">
+        <v>52</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" s="5">
+        <v>4</v>
+      </c>
       <c r="P19" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="U19" s="8"/>
       <c r="V19" s="19"/>
       <c r="W19" s="20"/>

--- a/URUVS/Datasheets/URUV/05.2024/May_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/05.2024/May_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\05.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DE9C60-2A1D-4C9E-AB19-C4BE8C78DB29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738780B7-9E44-4C6A-BC50-8E8785EB6A5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11350" yWindow="3230" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="199">
   <si>
     <t>DATE</t>
   </si>
@@ -606,6 +606,30 @@
   </si>
   <si>
     <t>B21</t>
+  </si>
+  <si>
+    <t>MAXN_GARONGGONG</t>
+  </si>
+  <si>
+    <t>TIME_1STGARONGGONG</t>
+  </si>
+  <si>
+    <t>T1_GARONGGONG</t>
+  </si>
+  <si>
+    <t>MAXN_SANDFISH</t>
+  </si>
+  <si>
+    <t>TIME_1STSANDFISH</t>
+  </si>
+  <si>
+    <t>T1_SANDFISH</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>REAL DATE 01/06/2024. CHANGED FOR ANALYSIS</t>
   </si>
 </sst>
 </file>
@@ -1247,19 +1271,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:CV22"/>
+  <dimension ref="A1:DB22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="BE2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="BJ20" sqref="BJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="8.7265625" customWidth="1"/>
+    <col min="2" max="4" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="5" max="21" width="8.7265625" customWidth="1"/>
     <col min="22" max="28" width="8.7265625" style="1" customWidth="1"/>
     <col min="29" max="35" width="8.7265625" customWidth="1"/>
     <col min="36" max="36" width="14.90625" bestFit="1" customWidth="1"/>
@@ -1275,10 +1300,12 @@
     <col min="84" max="84" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1559,28 +1586,46 @@
         <v>66</v>
       </c>
       <c r="CP1" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="CQ1" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="CR1" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS1" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="CQ1" s="27" t="s">
+      <c r="CT1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="CR1" s="60" t="s">
+      <c r="CU1" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="CS1" s="83" t="s">
+      <c r="CV1" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="CW1" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="CX1" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="CY1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="CT1" s="27" t="s">
+      <c r="CZ1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="CU1" s="60" t="s">
+      <c r="DA1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="CV1" s="28" t="s">
+      <c r="DB1" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>147</v>
       </c>
@@ -1646,38 +1691,62 @@
         <v>153</v>
       </c>
       <c r="U2" s="8"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
+      <c r="V2" s="19">
+        <v>1.8668981481481481E-2</v>
+      </c>
+      <c r="W2" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="X2" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>3.1134259259259257E-3</v>
+      </c>
       <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
       <c r="AB2" s="20">
         <f>SUM(V2:AA2)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
+        <v>5.7499999999999996E-2</v>
+      </c>
+      <c r="AC2" s="20">
+        <v>3.8078703703703707E-3</v>
+      </c>
+      <c r="AD2" s="20">
+        <v>1.005787037037037E-2</v>
+      </c>
       <c r="AE2" s="20">
         <f t="shared" ref="AE2:AE13" si="0">AB2-AC2-AD2</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
+        <v>4.3634259259259255E-2</v>
+      </c>
+      <c r="AF2" s="21">
+        <v>80</v>
+      </c>
+      <c r="AG2" s="21">
+        <v>90</v>
+      </c>
       <c r="AH2" s="22"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="30"/>
+      <c r="AI2" s="29">
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="30">
+        <v>6</v>
+      </c>
       <c r="AK2" s="31"/>
       <c r="AL2" s="34"/>
       <c r="AM2" s="33" t="str">
         <f t="shared" ref="AM2:AM13" si="1">IF(AK2=0,"NA",AL2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="33" t="str">
+      <c r="AN2" s="59">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="72">
+        <v>3.9467592592592596E-2</v>
+      </c>
+      <c r="AP2" s="33">
         <f t="shared" ref="AP2:AP13" si="2">IF(AN2=0,"NA",AO2-$AC2)</f>
-        <v>NA</v>
+        <v>3.5659722222222225E-2</v>
       </c>
       <c r="AQ2" s="59"/>
       <c r="AR2" s="58"/>
@@ -1698,7 +1767,7 @@
         <v>NA</v>
       </c>
       <c r="AZ2" s="59"/>
-      <c r="BA2" s="58"/>
+      <c r="BA2" s="72"/>
       <c r="BB2" s="33" t="str">
         <f t="shared" ref="BB2:BB13" si="6">IF(AZ2=0,"NA",BA2-$AC2)</f>
         <v>NA</v>
@@ -1715,11 +1784,15 @@
         <f t="shared" ref="BH2:BH13" si="8">IF(BF2=0,"NA",BG2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="BI2" s="59"/>
-      <c r="BJ2" s="58"/>
-      <c r="BK2" s="33" t="str">
+      <c r="BI2" s="59">
+        <v>2</v>
+      </c>
+      <c r="BJ2" s="72">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="BK2" s="33">
         <f t="shared" ref="BK2:BK13" si="9">IF(BI2=0,"NA",BJ2-$AC2)</f>
-        <v>NA</v>
+        <v>5.2199074074074075E-3</v>
       </c>
       <c r="BL2" s="59"/>
       <c r="BM2" s="58"/>
@@ -1733,11 +1806,15 @@
         <f t="shared" ref="BQ2:BQ13" si="11">IF(BO2=0,"NA",BP2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="BR2" s="59"/>
-      <c r="BS2" s="74"/>
-      <c r="BT2" s="33" t="str">
+      <c r="BR2" s="59">
+        <v>3</v>
+      </c>
+      <c r="BS2" s="74">
+        <v>1.8032407407407407E-2</v>
+      </c>
+      <c r="BT2" s="33">
         <f t="shared" ref="BT2:BT13" si="12">IF(BR2=0,"NA",BS2-$AC2)</f>
-        <v>NA</v>
+        <v>1.4224537037037036E-2</v>
       </c>
       <c r="BU2" s="59"/>
       <c r="BV2" s="58"/>
@@ -1751,17 +1828,25 @@
         <f t="shared" ref="BZ2:BZ22" si="14">IF(BX2=0,"NA",BY2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="CA2" s="59"/>
-      <c r="CB2" s="72"/>
-      <c r="CC2" s="33" t="str">
+      <c r="CA2" s="59">
+        <v>3</v>
+      </c>
+      <c r="CB2" s="72">
+        <v>3.8425925925925923E-3</v>
+      </c>
+      <c r="CC2" s="33">
         <f t="shared" ref="CC2:CC22" si="15">IF(CA2=0,"NA",CB2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CD2" s="59"/>
-      <c r="CE2" s="72"/>
-      <c r="CF2" s="33" t="str">
+        <v>3.4722222222221578E-5</v>
+      </c>
+      <c r="CD2" s="59">
+        <v>1</v>
+      </c>
+      <c r="CE2" s="72">
+        <v>3.2615740740740744E-2</v>
+      </c>
+      <c r="CF2" s="33">
         <f t="shared" ref="CF2:CF22" si="16">IF(CD2=0,"NA",CE2-$AC2)</f>
-        <v>NA</v>
+        <v>2.8807870370370373E-2</v>
       </c>
       <c r="CG2" s="59"/>
       <c r="CH2" s="72"/>
@@ -1781,21 +1866,37 @@
         <f t="shared" ref="CO2:CO22" si="19">IF(CM2=0,"NA",CN2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="CP2" s="59"/>
-      <c r="CQ2" s="72"/>
-      <c r="CR2" s="33" t="str">
+      <c r="CP2" s="59">
+        <v>1</v>
+      </c>
+      <c r="CQ2" s="72">
+        <v>6.4814814814814813E-3</v>
+      </c>
+      <c r="CR2" s="33">
         <f t="shared" ref="CR2:CR22" si="20">IF(CP2=0,"NA",CQ2-$AC2)</f>
-        <v>NA</v>
+        <v>2.6736111111111105E-3</v>
       </c>
       <c r="CS2" s="59"/>
       <c r="CT2" s="72"/>
       <c r="CU2" s="33" t="str">
-        <f t="shared" ref="CU2:CU13" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CV2" s="35"/>
+        <f t="shared" ref="CU2:CU22" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CV2" s="59"/>
+      <c r="CW2" s="72"/>
+      <c r="CX2" s="33" t="str">
+        <f t="shared" ref="CX2:CX22" si="22">IF(CV2=0,"NA",CW2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CY2" s="59"/>
+      <c r="CZ2" s="72"/>
+      <c r="DA2" s="33" t="str">
+        <f t="shared" ref="DA2:DA13" si="23">IF(CY2=0,"NA",CZ2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="DB2" s="35"/>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>147</v>
       </c>
@@ -1809,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="76" t="str">
-        <f t="shared" ref="E3:E22" si="22">C3&amp;""&amp;D3</f>
+        <f t="shared" ref="E3:E22" si="24">C3&amp;""&amp;D3</f>
         <v>E1</v>
       </c>
       <c r="F3" s="5">
@@ -1845,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" ref="P3:P22" si="23">I3-H3</f>
+        <f t="shared" ref="P3:P22" si="25">I3-H3</f>
         <v>7.3611111111111183E-2</v>
       </c>
       <c r="Q3" s="6" t="s">
@@ -1861,32 +1962,52 @@
         <v>153</v>
       </c>
       <c r="U3" s="8"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
+      <c r="V3" s="19">
+        <v>1.8553240740740742E-2</v>
+      </c>
+      <c r="W3" s="20">
+        <v>1.9386574074074073E-2</v>
+      </c>
+      <c r="X3" s="20">
+        <v>7.8819444444444432E-3</v>
+      </c>
       <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
       <c r="AB3" s="20">
-        <f t="shared" ref="AB3:AB22" si="24">SUM(V3:AA3)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="20"/>
+        <f t="shared" ref="AB3:AB22" si="26">SUM(V3:AA3)</f>
+        <v>4.5821759259259257E-2</v>
+      </c>
+      <c r="AC3" s="20">
+        <v>4.4791666666666669E-3</v>
+      </c>
       <c r="AD3" s="20"/>
       <c r="AE3" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
+        <v>4.1342592592592591E-2</v>
+      </c>
+      <c r="AF3" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG3" s="21">
+        <v>45</v>
+      </c>
       <c r="AH3" s="22"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="33" t="str">
+      <c r="AI3" s="29">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="30">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="31">
+        <v>44</v>
+      </c>
+      <c r="AL3" s="34">
+        <v>6.5046296296296302E-3</v>
+      </c>
+      <c r="AM3" s="33">
         <f t="shared" si="1"/>
-        <v>NA</v>
+        <v>2.0254629629629633E-3</v>
       </c>
       <c r="AN3" s="31"/>
       <c r="AO3" s="32"/>
@@ -1894,11 +2015,15 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="33" t="str">
+      <c r="AQ3" s="31">
+        <v>4</v>
+      </c>
+      <c r="AR3" s="34">
+        <v>9.3981481481481485E-3</v>
+      </c>
+      <c r="AS3" s="33">
         <f t="shared" si="3"/>
-        <v>NA</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="AT3" s="31"/>
       <c r="AU3" s="32"/>
@@ -1930,11 +2055,15 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI3" s="31"/>
-      <c r="BJ3" s="32"/>
-      <c r="BK3" s="33" t="str">
+      <c r="BI3" s="31">
+        <v>18</v>
+      </c>
+      <c r="BJ3" s="34">
+        <v>4.4212962962962956E-3</v>
+      </c>
+      <c r="BK3" s="33">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>-5.7870370370371321E-5</v>
       </c>
       <c r="BL3" s="31"/>
       <c r="BM3" s="32"/>
@@ -2008,9 +2137,25 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV3" s="35"/>
+      <c r="CV3" s="31"/>
+      <c r="CW3" s="34"/>
+      <c r="CX3" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY3" s="31">
+        <v>1</v>
+      </c>
+      <c r="CZ3" s="34">
+        <v>1.1481481481481483E-2</v>
+      </c>
+      <c r="DA3" s="33">
+        <f t="shared" si="23"/>
+        <v>7.0023148148148162E-3</v>
+      </c>
+      <c r="DB3" s="35"/>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>147</v>
       </c>
@@ -2024,7 +2169,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>E2</v>
       </c>
       <c r="F4" s="5">
@@ -2060,7 +2205,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.9861111111111049E-2</v>
       </c>
       <c r="Q4" s="6" t="s">
@@ -2076,38 +2221,58 @@
         <v>153</v>
       </c>
       <c r="U4" s="8"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
+      <c r="V4" s="19">
+        <v>1.7847222222222223E-2</v>
+      </c>
+      <c r="W4" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="X4" s="20">
+        <v>8.7499999999999991E-3</v>
+      </c>
       <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
       <c r="AB4" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="20"/>
+        <f t="shared" si="26"/>
+        <v>4.445601851851852E-2</v>
+      </c>
+      <c r="AC4" s="20">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="AD4" s="20"/>
       <c r="AE4" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
+        <v>3.9456018518518522E-2</v>
+      </c>
+      <c r="AF4" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG4" s="21">
+        <v>100</v>
+      </c>
       <c r="AH4" s="22"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="30"/>
+      <c r="AI4" s="29">
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="30">
+        <v>4</v>
+      </c>
       <c r="AK4" s="31"/>
       <c r="AL4" s="34"/>
       <c r="AM4" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="33" t="str">
+      <c r="AN4" s="31">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="34">
+        <v>2.9814814814814811E-2</v>
+      </c>
+      <c r="AP4" s="33">
         <f t="shared" si="2"/>
-        <v>NA</v>
+        <v>2.481481481481481E-2</v>
       </c>
       <c r="AQ4" s="31"/>
       <c r="AR4" s="32"/>
@@ -2145,11 +2310,15 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="34"/>
-      <c r="BK4" s="33" t="str">
+      <c r="BI4" s="31">
+        <v>53</v>
+      </c>
+      <c r="BJ4" s="34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BK4" s="33">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>0</v>
       </c>
       <c r="BL4" s="31"/>
       <c r="BM4" s="32"/>
@@ -2163,11 +2332,15 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="33" t="str">
+      <c r="BR4" s="31">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="34">
+        <v>1.5000000000000001E-2</v>
+      </c>
+      <c r="BT4" s="33">
         <f t="shared" si="12"/>
-        <v>NA</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="BU4" s="31"/>
       <c r="BV4" s="32"/>
@@ -2175,11 +2348,15 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="57"/>
-      <c r="BZ4" s="33" t="str">
+      <c r="BX4" s="41">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="57">
+        <v>1.1342592592592592E-2</v>
+      </c>
+      <c r="BZ4" s="33">
         <f t="shared" si="14"/>
-        <v>NA</v>
+        <v>6.3425925925925915E-3</v>
       </c>
       <c r="CA4" s="31"/>
       <c r="CB4" s="34"/>
@@ -2223,9 +2400,21 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV4" s="35"/>
+      <c r="CV4" s="31"/>
+      <c r="CW4" s="34"/>
+      <c r="CX4" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY4" s="31"/>
+      <c r="CZ4" s="34"/>
+      <c r="DA4" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB4" s="35"/>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>147</v>
       </c>
@@ -2239,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>D3</v>
       </c>
       <c r="F5" s="5">
@@ -2275,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.1388888888888928E-2</v>
       </c>
       <c r="Q5" s="6" t="s">
@@ -2291,27 +2480,47 @@
         <v>153</v>
       </c>
       <c r="U5" s="8"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
+      <c r="V5" s="19">
+        <v>1.5648148148148151E-2</v>
+      </c>
+      <c r="W5" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="X5" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
       <c r="AB5" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
+        <f t="shared" si="26"/>
+        <v>6.0231481481481476E-2</v>
+      </c>
+      <c r="AC5" s="20">
+        <v>3.8888888888888883E-3</v>
+      </c>
+      <c r="AD5" s="20">
+        <v>1.1388888888888888E-2</v>
+      </c>
       <c r="AE5" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
+        <v>4.4953703703703704E-2</v>
+      </c>
+      <c r="AF5" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG5" s="21">
+        <v>90</v>
+      </c>
       <c r="AH5" s="22"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="30"/>
+      <c r="AI5" s="29">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="30">
+        <v>2</v>
+      </c>
       <c r="AK5" s="31"/>
       <c r="AL5" s="34"/>
       <c r="AM5" s="33" t="str">
@@ -2360,11 +2569,15 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI5" s="31"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="33" t="str">
+      <c r="BI5" s="31">
+        <v>3</v>
+      </c>
+      <c r="BJ5" s="34">
+        <v>6.4467592592592597E-3</v>
+      </c>
+      <c r="BK5" s="33">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>2.5578703703703714E-3</v>
       </c>
       <c r="BL5" s="31"/>
       <c r="BM5" s="32"/>
@@ -2378,11 +2591,15 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR5" s="31"/>
-      <c r="BS5" s="32"/>
-      <c r="BT5" s="33" t="str">
+      <c r="BR5" s="31">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="34">
+        <v>1.5891203703703703E-2</v>
+      </c>
+      <c r="BT5" s="33">
         <f t="shared" si="12"/>
-        <v>NA</v>
+        <v>1.2002314814814815E-2</v>
       </c>
       <c r="BU5" s="31"/>
       <c r="BV5" s="32"/>
@@ -2438,9 +2655,21 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV5" s="35"/>
+      <c r="CV5" s="31"/>
+      <c r="CW5" s="32"/>
+      <c r="CX5" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY5" s="31"/>
+      <c r="CZ5" s="32"/>
+      <c r="DA5" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB5" s="35"/>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>162</v>
       </c>
@@ -2454,7 +2683,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>E3</v>
       </c>
       <c r="F6" s="5">
@@ -2490,7 +2719,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.10833333333333328</v>
       </c>
       <c r="Q6" s="6" t="s">
@@ -2506,32 +2735,52 @@
         <v>153</v>
       </c>
       <c r="U6" s="8"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
+      <c r="V6" s="19">
+        <v>1.8726851851851852E-2</v>
+      </c>
+      <c r="W6" s="20">
+        <v>1.6423611111111111E-2</v>
+      </c>
+      <c r="X6" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="20"/>
+        <f t="shared" si="26"/>
+        <v>5.0011574074074076E-2</v>
+      </c>
+      <c r="AC6" s="20">
+        <v>4.5949074074074078E-3</v>
+      </c>
       <c r="AD6" s="20"/>
       <c r="AE6" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
+        <v>4.5416666666666668E-2</v>
+      </c>
+      <c r="AF6" s="21">
+        <v>90</v>
+      </c>
+      <c r="AG6" s="21">
+        <v>100</v>
+      </c>
       <c r="AH6" s="22"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="33" t="str">
+      <c r="AI6" s="29">
+        <v>8</v>
+      </c>
+      <c r="AJ6" s="30">
+        <v>8</v>
+      </c>
+      <c r="AK6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="34">
+        <v>1.5196759259259259E-2</v>
+      </c>
+      <c r="AM6" s="33">
         <f t="shared" si="1"/>
-        <v>NA</v>
+        <v>1.0601851851851852E-2</v>
       </c>
       <c r="AN6" s="31"/>
       <c r="AO6" s="32"/>
@@ -2575,11 +2824,15 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI6" s="31"/>
-      <c r="BJ6" s="32"/>
-      <c r="BK6" s="33" t="str">
+      <c r="BI6" s="31">
+        <v>4</v>
+      </c>
+      <c r="BJ6" s="34">
+        <v>7.2916666666666659E-3</v>
+      </c>
+      <c r="BK6" s="33">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>2.6967592592592581E-3</v>
       </c>
       <c r="BL6" s="31"/>
       <c r="BM6" s="32"/>
@@ -2593,23 +2846,35 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR6" s="31"/>
-      <c r="BS6" s="32"/>
-      <c r="BT6" s="33" t="str">
+      <c r="BR6" s="31">
+        <v>2</v>
+      </c>
+      <c r="BS6" s="34">
+        <v>1.005787037037037E-2</v>
+      </c>
+      <c r="BT6" s="33">
         <f t="shared" si="12"/>
-        <v>NA</v>
-      </c>
-      <c r="BU6" s="31"/>
-      <c r="BV6" s="32"/>
-      <c r="BW6" s="33" t="str">
+        <v>5.462962962962962E-3</v>
+      </c>
+      <c r="BU6" s="31">
+        <v>2</v>
+      </c>
+      <c r="BV6" s="34">
+        <v>3.1469907407407412E-2</v>
+      </c>
+      <c r="BW6" s="33">
         <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BX6" s="41"/>
-      <c r="BY6" s="57"/>
-      <c r="BZ6" s="33" t="str">
+        <v>2.6875000000000003E-2</v>
+      </c>
+      <c r="BX6" s="41">
+        <v>2</v>
+      </c>
+      <c r="BY6" s="57">
+        <v>3.0254629629629631E-2</v>
+      </c>
+      <c r="BZ6" s="33">
         <f t="shared" si="14"/>
-        <v>NA</v>
+        <v>2.5659722222222223E-2</v>
       </c>
       <c r="CA6" s="31"/>
       <c r="CB6" s="32"/>
@@ -2617,11 +2882,15 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD6" s="31"/>
-      <c r="CE6" s="32"/>
-      <c r="CF6" s="33" t="str">
+      <c r="CD6" s="31">
+        <v>1</v>
+      </c>
+      <c r="CE6" s="34">
+        <v>1.5219907407407409E-2</v>
+      </c>
+      <c r="CF6" s="33">
         <f t="shared" si="16"/>
-        <v>NA</v>
+        <v>1.0625000000000002E-2</v>
       </c>
       <c r="CG6" s="31"/>
       <c r="CH6" s="32"/>
@@ -2653,9 +2922,25 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV6" s="35"/>
+      <c r="CV6" s="31"/>
+      <c r="CW6" s="34"/>
+      <c r="CX6" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY6" s="31">
+        <v>3</v>
+      </c>
+      <c r="CZ6" s="34">
+        <v>1.3344907407407408E-2</v>
+      </c>
+      <c r="DA6" s="33">
+        <f t="shared" si="23"/>
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="DB6" s="35"/>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>162</v>
       </c>
@@ -2669,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>L1</v>
       </c>
       <c r="F7" s="5">
@@ -2705,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="Q7" s="6" t="s">
@@ -2721,27 +3006,45 @@
         <v>153</v>
       </c>
       <c r="U7" s="8"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
+      <c r="V7" s="19">
+        <v>3.0185185185185186E-2</v>
+      </c>
+      <c r="W7" s="20">
+        <v>2.3842592592592596E-2</v>
+      </c>
+      <c r="X7" s="20">
+        <v>1.9791666666666668E-3</v>
+      </c>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
+        <f t="shared" si="26"/>
+        <v>5.6006944444444449E-2</v>
+      </c>
+      <c r="AC7" s="20">
+        <v>4.386574074074074E-3</v>
+      </c>
+      <c r="AD7" s="20">
+        <v>1.5405092592592593E-2</v>
+      </c>
       <c r="AE7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
+        <v>3.6215277777777777E-2</v>
+      </c>
+      <c r="AF7" s="21">
+        <v>50</v>
+      </c>
+      <c r="AG7" s="21">
+        <v>100</v>
+      </c>
       <c r="AH7" s="22"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="30"/>
+      <c r="AI7" s="29">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="30">
+        <v>5</v>
+      </c>
       <c r="AK7" s="31"/>
       <c r="AL7" s="34"/>
       <c r="AM7" s="33" t="str">
@@ -2790,11 +3093,15 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI7" s="31"/>
-      <c r="BJ7" s="32"/>
-      <c r="BK7" s="33" t="str">
+      <c r="BI7" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="34">
+        <v>9.2129629629629627E-3</v>
+      </c>
+      <c r="BK7" s="33">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>4.8263888888888887E-3</v>
       </c>
       <c r="BL7" s="31"/>
       <c r="BM7" s="32"/>
@@ -2826,11 +3133,15 @@
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA7" s="31"/>
-      <c r="CB7" s="32"/>
-      <c r="CC7" s="33" t="str">
+      <c r="CA7" s="31">
+        <v>1</v>
+      </c>
+      <c r="CB7" s="34">
+        <v>1.9791666666666666E-2</v>
+      </c>
+      <c r="CC7" s="33">
         <f t="shared" si="15"/>
-        <v>NA</v>
+        <v>1.5405092592592592E-2</v>
       </c>
       <c r="CD7" s="31"/>
       <c r="CE7" s="32"/>
@@ -2844,11 +3155,15 @@
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ7" s="31"/>
-      <c r="CK7" s="32"/>
-      <c r="CL7" s="33" t="str">
+      <c r="CJ7" s="31">
+        <v>1</v>
+      </c>
+      <c r="CK7" s="34">
+        <v>2.1666666666666667E-2</v>
+      </c>
+      <c r="CL7" s="33">
         <f t="shared" si="18"/>
-        <v>NA</v>
+        <v>1.7280092592592593E-2</v>
       </c>
       <c r="CM7" s="31"/>
       <c r="CN7" s="32"/>
@@ -2856,11 +3171,15 @@
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP7" s="31"/>
-      <c r="CQ7" s="32"/>
-      <c r="CR7" s="33" t="str">
+      <c r="CP7" s="31">
+        <v>1</v>
+      </c>
+      <c r="CQ7" s="34">
+        <v>1.6180555555555556E-2</v>
+      </c>
+      <c r="CR7" s="33">
         <f t="shared" si="20"/>
-        <v>NA</v>
+        <v>1.1793981481481482E-2</v>
       </c>
       <c r="CS7" s="31"/>
       <c r="CT7" s="32"/>
@@ -2868,9 +3187,25 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV7" s="35"/>
+      <c r="CV7" s="31"/>
+      <c r="CW7" s="34"/>
+      <c r="CX7" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY7" s="31">
+        <v>4</v>
+      </c>
+      <c r="CZ7" s="34">
+        <v>4.6064814814814814E-3</v>
+      </c>
+      <c r="DA7" s="33">
+        <f t="shared" si="23"/>
+        <v>2.1990740740740738E-4</v>
+      </c>
+      <c r="DB7" s="35"/>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>162</v>
       </c>
@@ -2884,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>L2</v>
       </c>
       <c r="F8" s="5">
@@ -2920,7 +3255,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.4305555555555514E-2</v>
       </c>
       <c r="Q8" s="6" t="s">
@@ -2936,44 +3271,74 @@
         <v>153</v>
       </c>
       <c r="U8" s="8"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
+      <c r="V8" s="19">
+        <v>2.5185185185185185E-2</v>
+      </c>
+      <c r="W8" s="20">
+        <v>2.2673611111111113E-2</v>
+      </c>
+      <c r="X8" s="20">
+        <v>2.8506944444444442E-2</v>
+      </c>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
+        <f t="shared" si="26"/>
+        <v>7.6365740740740748E-2</v>
+      </c>
+      <c r="AC8" s="20">
+        <v>4.5717592592592589E-3</v>
+      </c>
+      <c r="AD8" s="20">
+        <v>2.8506944444444442E-2</v>
+      </c>
       <c r="AE8" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
+        <v>4.3287037037037041E-2</v>
+      </c>
+      <c r="AF8" s="21">
+        <v>60</v>
+      </c>
+      <c r="AG8" s="21">
+        <v>30</v>
+      </c>
       <c r="AH8" s="22"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="33" t="str">
+      <c r="AI8" s="29">
+        <v>7</v>
+      </c>
+      <c r="AJ8" s="30">
+        <v>6</v>
+      </c>
+      <c r="AK8" s="31">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="34">
+        <v>1.3657407407407408E-2</v>
+      </c>
+      <c r="AM8" s="33">
         <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="33" t="str">
+        <v>9.0856481481481483E-3</v>
+      </c>
+      <c r="AN8" s="31">
+        <v>3</v>
+      </c>
+      <c r="AO8" s="71">
+        <v>8.2407407407407412E-3</v>
+      </c>
+      <c r="AP8" s="33">
         <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ8" s="31"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="33" t="str">
+        <v>3.6689814814814823E-3</v>
+      </c>
+      <c r="AQ8" s="31">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="34">
+        <v>1.4444444444444446E-2</v>
+      </c>
+      <c r="AS8" s="33">
         <f t="shared" si="3"/>
-        <v>NA</v>
+        <v>9.8726851851851857E-3</v>
       </c>
       <c r="AT8" s="31"/>
       <c r="AU8" s="32"/>
@@ -2999,17 +3364,25 @@
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF8" s="31"/>
-      <c r="BG8" s="32"/>
-      <c r="BH8" s="33" t="str">
+      <c r="BF8" s="31">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="34">
+        <v>1.4444444444444446E-2</v>
+      </c>
+      <c r="BH8" s="33">
         <f t="shared" si="8"/>
-        <v>NA</v>
-      </c>
-      <c r="BI8" s="31"/>
-      <c r="BJ8" s="32"/>
-      <c r="BK8" s="33" t="str">
+        <v>9.8726851851851857E-3</v>
+      </c>
+      <c r="BI8" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="34">
+        <v>1.5520833333333333E-2</v>
+      </c>
+      <c r="BK8" s="33">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>1.0949074074074073E-2</v>
       </c>
       <c r="BL8" s="31"/>
       <c r="BM8" s="32"/>
@@ -3035,11 +3408,15 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX8" s="41"/>
-      <c r="BY8" s="57"/>
-      <c r="BZ8" s="33" t="str">
+      <c r="BX8" s="41">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="57">
+        <v>1.4444444444444446E-2</v>
+      </c>
+      <c r="BZ8" s="33">
         <f t="shared" si="14"/>
-        <v>NA</v>
+        <v>9.8726851851851857E-3</v>
       </c>
       <c r="CA8" s="31"/>
       <c r="CB8" s="32"/>
@@ -3083,9 +3460,25 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV8" s="35"/>
+      <c r="CV8" s="31"/>
+      <c r="CW8" s="71"/>
+      <c r="CX8" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY8" s="31">
+        <v>2</v>
+      </c>
+      <c r="CZ8" s="71">
+        <v>5.9837962962962961E-3</v>
+      </c>
+      <c r="DA8" s="33">
+        <f t="shared" si="23"/>
+        <v>1.4120370370370372E-3</v>
+      </c>
+      <c r="DB8" s="35"/>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>162</v>
       </c>
@@ -3099,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>D1</v>
       </c>
       <c r="F9" s="5">
@@ -3135,7 +3528,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.9722222222222232E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
@@ -3151,38 +3544,58 @@
         <v>153</v>
       </c>
       <c r="U9" s="8"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
+      <c r="V9" s="19">
+        <v>2.2870370370370371E-2</v>
+      </c>
+      <c r="W9" s="20">
+        <v>2.1863425925925925E-2</v>
+      </c>
+      <c r="X9" s="20">
+        <v>1.5740740740740741E-3</v>
+      </c>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="20"/>
+        <f t="shared" si="26"/>
+        <v>4.6307870370370374E-2</v>
+      </c>
+      <c r="AC9" s="20">
+        <v>4.0277777777777777E-3</v>
+      </c>
       <c r="AD9" s="20"/>
       <c r="AE9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
+        <v>4.2280092592592598E-2</v>
+      </c>
+      <c r="AF9" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG9" s="21">
+        <v>30</v>
+      </c>
       <c r="AH9" s="22"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="30"/>
+      <c r="AI9" s="29">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="30">
+        <v>4</v>
+      </c>
       <c r="AK9" s="31"/>
       <c r="AL9" s="34"/>
       <c r="AM9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="33" t="str">
+      <c r="AN9" s="31">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="34">
+        <v>1.5196759259259259E-2</v>
+      </c>
+      <c r="AP9" s="33">
         <f t="shared" si="2"/>
-        <v>NA</v>
+        <v>1.1168981481481481E-2</v>
       </c>
       <c r="AQ9" s="31"/>
       <c r="AR9" s="32"/>
@@ -3220,11 +3633,15 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI9" s="31"/>
-      <c r="BJ9" s="34"/>
-      <c r="BK9" s="33" t="str">
+      <c r="BI9" s="31">
+        <v>3</v>
+      </c>
+      <c r="BJ9" s="34">
+        <v>4.0277777777777777E-3</v>
+      </c>
+      <c r="BK9" s="33">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="31"/>
       <c r="BM9" s="32"/>
@@ -3262,11 +3679,15 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD9" s="31"/>
-      <c r="CE9" s="32"/>
-      <c r="CF9" s="33" t="str">
+      <c r="CD9" s="31">
+        <v>1</v>
+      </c>
+      <c r="CE9" s="34">
+        <v>3.2314814814814817E-2</v>
+      </c>
+      <c r="CF9" s="33">
         <f t="shared" si="16"/>
-        <v>NA</v>
+        <v>2.8287037037037041E-2</v>
       </c>
       <c r="CG9" s="31"/>
       <c r="CH9" s="32"/>
@@ -3298,9 +3719,21 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV9" s="35"/>
+      <c r="CV9" s="31"/>
+      <c r="CW9" s="57"/>
+      <c r="CX9" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY9" s="31"/>
+      <c r="CZ9" s="57"/>
+      <c r="DA9" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB9" s="35"/>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>162</v>
       </c>
@@ -3314,7 +3747,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>L3</v>
       </c>
       <c r="F10" s="5">
@@ -3350,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.4861111111111027E-2</v>
       </c>
       <c r="Q10" s="6" t="s">
@@ -3366,38 +3799,56 @@
         <v>153</v>
       </c>
       <c r="U10" s="8"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="20"/>
+      <c r="V10" s="19">
+        <v>2.3958333333333331E-2</v>
+      </c>
+      <c r="W10" s="20">
+        <v>2.3622685185185188E-2</v>
+      </c>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="20"/>
+        <f t="shared" si="26"/>
+        <v>4.7581018518518522E-2</v>
+      </c>
+      <c r="AC10" s="20">
+        <v>4.1203703703703706E-3</v>
+      </c>
       <c r="AD10" s="20"/>
       <c r="AE10" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
+        <v>4.3460648148148151E-2</v>
+      </c>
+      <c r="AF10" s="21">
+        <v>60</v>
+      </c>
+      <c r="AG10" s="21">
+        <v>100</v>
+      </c>
       <c r="AH10" s="22"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="30"/>
+      <c r="AI10" s="29">
+        <v>5</v>
+      </c>
+      <c r="AJ10" s="30">
+        <v>5</v>
+      </c>
       <c r="AK10" s="31"/>
       <c r="AL10" s="34"/>
       <c r="AM10" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="33" t="str">
+      <c r="AN10" s="31">
+        <v>25</v>
+      </c>
+      <c r="AO10" s="34">
+        <v>6.1921296296296299E-3</v>
+      </c>
+      <c r="AP10" s="33">
         <f t="shared" si="2"/>
-        <v>NA</v>
+        <v>2.0717592592592593E-3</v>
       </c>
       <c r="AQ10" s="31"/>
       <c r="AR10" s="32"/>
@@ -3417,11 +3868,15 @@
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ10" s="31"/>
-      <c r="BA10" s="32"/>
-      <c r="BB10" s="33" t="str">
+      <c r="AZ10" s="31">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="34">
+        <v>4.71875E-2</v>
+      </c>
+      <c r="BB10" s="33">
         <f t="shared" si="6"/>
-        <v>NA</v>
+        <v>4.3067129629629629E-2</v>
       </c>
       <c r="BC10" s="31"/>
       <c r="BD10" s="32"/>
@@ -3435,11 +3890,15 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI10" s="31"/>
-      <c r="BJ10" s="32"/>
-      <c r="BK10" s="33" t="str">
+      <c r="BI10" s="31">
+        <v>2</v>
+      </c>
+      <c r="BJ10" s="34">
+        <v>1.0381944444444444E-2</v>
+      </c>
+      <c r="BK10" s="33">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>6.261574074074073E-3</v>
       </c>
       <c r="BL10" s="31"/>
       <c r="BM10" s="32"/>
@@ -3513,9 +3972,29 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV10" s="35"/>
+      <c r="CV10" s="31">
+        <v>1</v>
+      </c>
+      <c r="CW10" s="34">
+        <v>2.0914351851851851E-2</v>
+      </c>
+      <c r="CX10" s="33">
+        <f t="shared" si="22"/>
+        <v>1.6793981481481479E-2</v>
+      </c>
+      <c r="CY10" s="31">
+        <v>1</v>
+      </c>
+      <c r="CZ10" s="34">
+        <v>4.4212962962962956E-3</v>
+      </c>
+      <c r="DA10" s="33">
+        <f t="shared" si="23"/>
+        <v>3.0092592592592497E-4</v>
+      </c>
+      <c r="DB10" s="35"/>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>175</v>
       </c>
@@ -3529,7 +4008,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>L6</v>
       </c>
       <c r="F11" s="5">
@@ -3565,7 +4044,7 @@
         <v>3</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.6111111111111138E-2</v>
       </c>
       <c r="Q11" s="6" t="s">
@@ -3581,27 +4060,45 @@
         <v>153</v>
       </c>
       <c r="U11" s="8"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
+      <c r="V11" s="19">
+        <v>3.0636574074074076E-2</v>
+      </c>
+      <c r="W11" s="20">
+        <v>2.884259259259259E-2</v>
+      </c>
+      <c r="X11" s="20">
+        <v>1.695601851851852E-2</v>
+      </c>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
+        <f t="shared" si="26"/>
+        <v>7.6435185185185189E-2</v>
+      </c>
+      <c r="AC11" s="20">
+        <v>7.4421296296296293E-3</v>
+      </c>
+      <c r="AD11" s="20">
+        <v>2.4305555555555556E-2</v>
+      </c>
       <c r="AE11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
+        <v>4.4687500000000005E-2</v>
+      </c>
+      <c r="AF11" s="21">
+        <v>70</v>
+      </c>
+      <c r="AG11" s="21">
+        <v>90</v>
+      </c>
       <c r="AH11" s="22"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="30"/>
+      <c r="AI11" s="29">
+        <v>2</v>
+      </c>
+      <c r="AJ11" s="30">
+        <v>2</v>
+      </c>
       <c r="AK11" s="31"/>
       <c r="AL11" s="34"/>
       <c r="AM11" s="33" t="str">
@@ -3638,11 +4135,15 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC11" s="31"/>
-      <c r="BD11" s="32"/>
-      <c r="BE11" s="33" t="str">
+      <c r="BC11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="34">
+        <v>9.8726851851851857E-3</v>
+      </c>
+      <c r="BE11" s="33">
         <f t="shared" si="7"/>
-        <v>NA</v>
+        <v>2.4305555555555565E-3</v>
       </c>
       <c r="BF11" s="31"/>
       <c r="BG11" s="34"/>
@@ -3650,11 +4151,15 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI11" s="31"/>
-      <c r="BJ11" s="32"/>
-      <c r="BK11" s="33" t="str">
+      <c r="BI11" s="31">
+        <v>17</v>
+      </c>
+      <c r="BJ11" s="34">
+        <v>1.6423611111111111E-2</v>
+      </c>
+      <c r="BK11" s="33">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>8.9814814814814826E-3</v>
       </c>
       <c r="BL11" s="31"/>
       <c r="BM11" s="34"/>
@@ -3728,9 +4233,21 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV11" s="35"/>
+      <c r="CV11" s="31"/>
+      <c r="CW11" s="34"/>
+      <c r="CX11" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY11" s="31"/>
+      <c r="CZ11" s="34"/>
+      <c r="DA11" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB11" s="35"/>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>175</v>
       </c>
@@ -3744,7 +4261,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>D4</v>
       </c>
       <c r="F12" s="5">
@@ -3780,7 +4297,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="Q12" s="6" t="s">
@@ -3796,27 +4313,45 @@
         <v>153</v>
       </c>
       <c r="U12" s="8"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
+      <c r="V12" s="19">
+        <v>1.8206018518518517E-2</v>
+      </c>
+      <c r="W12" s="20">
+        <v>2.479166666666667E-2</v>
+      </c>
+      <c r="X12" s="20">
+        <v>7.5810185185185182E-3</v>
+      </c>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
+        <f t="shared" si="26"/>
+        <v>5.0578703703703709E-2</v>
+      </c>
+      <c r="AC12" s="20">
+        <v>3.7268518518518514E-3</v>
+      </c>
+      <c r="AD12" s="20">
+        <v>4.108796296296297E-3</v>
+      </c>
       <c r="AE12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
+        <v>4.2743055555555562E-2</v>
+      </c>
+      <c r="AF12" s="21">
+        <v>90</v>
+      </c>
+      <c r="AG12" s="21">
+        <v>60</v>
+      </c>
       <c r="AH12" s="22"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="30"/>
+      <c r="AI12" s="29">
+        <v>3</v>
+      </c>
+      <c r="AJ12" s="30">
+        <v>1</v>
+      </c>
       <c r="AK12" s="31"/>
       <c r="AL12" s="34"/>
       <c r="AM12" s="33" t="str">
@@ -3865,11 +4400,15 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI12" s="31"/>
-      <c r="BJ12" s="32"/>
-      <c r="BK12" s="33" t="str">
+      <c r="BI12" s="31">
+        <v>2</v>
+      </c>
+      <c r="BJ12" s="34">
+        <v>4.8495370370370368E-3</v>
+      </c>
+      <c r="BK12" s="33">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>1.1226851851851853E-3</v>
       </c>
       <c r="BL12" s="31"/>
       <c r="BM12" s="32"/>
@@ -3943,9 +4482,21 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV12" s="35"/>
+      <c r="CV12" s="31"/>
+      <c r="CW12" s="71"/>
+      <c r="CX12" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY12" s="31"/>
+      <c r="CZ12" s="71"/>
+      <c r="DA12" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB12" s="35"/>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>175</v>
       </c>
@@ -3959,7 +4510,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>D5</v>
       </c>
       <c r="F13" s="5">
@@ -3995,7 +4546,7 @@
         <v>3</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.3611111111111072E-2</v>
       </c>
       <c r="Q13" s="6" t="s">
@@ -4011,27 +4562,45 @@
         <v>153</v>
       </c>
       <c r="U13" s="8"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
+      <c r="V13" s="19">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="W13" s="20">
+        <v>1.8703703703703705E-2</v>
+      </c>
+      <c r="X13" s="20">
+        <v>1.8379629629629628E-2</v>
+      </c>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
+        <f t="shared" si="26"/>
+        <v>5.4942129629629625E-2</v>
+      </c>
+      <c r="AC13" s="20">
+        <v>4.8263888888888887E-3</v>
+      </c>
+      <c r="AD13" s="20">
+        <v>1.1446759259259261E-2</v>
+      </c>
       <c r="AE13" s="20">
         <f t="shared" si="0"/>
+        <v>3.8668981481481478E-2</v>
+      </c>
+      <c r="AF13" s="21">
+        <v>80</v>
+      </c>
+      <c r="AG13" s="21">
+        <v>60</v>
+      </c>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="29">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="30">
         <v>0</v>
       </c>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="30"/>
       <c r="AK13" s="31"/>
       <c r="AL13" s="34"/>
       <c r="AM13" s="33" t="str">
@@ -4158,9 +4727,21 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV13" s="35"/>
+      <c r="CV13" s="31"/>
+      <c r="CW13" s="32"/>
+      <c r="CX13" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY13" s="31"/>
+      <c r="CZ13" s="32"/>
+      <c r="DA13" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB13" s="35"/>
     </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>175</v>
       </c>
@@ -4174,7 +4755,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>L5</v>
       </c>
       <c r="F14" s="5">
@@ -4210,7 +4791,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.2222222222222077E-2</v>
       </c>
       <c r="Q14" s="6" t="s">
@@ -4226,49 +4807,71 @@
         <v>153</v>
       </c>
       <c r="U14" s="8"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
+      <c r="V14" s="19">
+        <v>2.6469907407407411E-2</v>
+      </c>
+      <c r="W14" s="20">
+        <v>2.7800925925925923E-2</v>
+      </c>
+      <c r="X14" s="20">
+        <v>1.9907407407407408E-3</v>
+      </c>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
+        <f t="shared" si="26"/>
+        <v>5.6261574074074075E-2</v>
+      </c>
+      <c r="AC14" s="20">
+        <v>4.3518518518518515E-3</v>
+      </c>
+      <c r="AD14" s="20">
+        <v>8.9351851851851866E-3</v>
+      </c>
       <c r="AE14" s="20">
-        <f t="shared" ref="AE14:AE22" si="25">AB14-AC14-AD14</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
+        <f t="shared" ref="AE14:AE22" si="27">AB14-AC14-AD14</f>
+        <v>4.297453703703704E-2</v>
+      </c>
+      <c r="AF14" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG14" s="21">
+        <v>30</v>
+      </c>
       <c r="AH14" s="22"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="30"/>
+      <c r="AI14" s="29">
+        <v>4</v>
+      </c>
+      <c r="AJ14" s="30">
+        <v>2</v>
+      </c>
       <c r="AK14" s="31"/>
       <c r="AL14" s="32"/>
       <c r="AM14" s="33" t="str">
-        <f t="shared" ref="AM14:AM22" si="26">IF(AK14=0,"NA",AL14-$AC14)</f>
+        <f t="shared" ref="AM14:AM22" si="28">IF(AK14=0,"NA",AL14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AN14" s="31"/>
       <c r="AO14" s="32"/>
       <c r="AP14" s="33" t="str">
-        <f t="shared" ref="AP14:AP22" si="27">IF(AN14=0,"NA",AO14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="33" t="str">
-        <f t="shared" ref="AS14:AS22" si="28">IF(AQ14=0,"NA",AR14-$AC14)</f>
-        <v>NA</v>
+        <f t="shared" ref="AP14:AP22" si="29">IF(AN14=0,"NA",AO14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AQ14" s="31">
+        <v>4</v>
+      </c>
+      <c r="AR14" s="34">
+        <v>1.1643518518518518E-2</v>
+      </c>
+      <c r="AS14" s="33">
+        <f t="shared" ref="AS14:AS22" si="30">IF(AQ14=0,"NA",AR14-$AC14)</f>
+        <v>7.2916666666666668E-3</v>
       </c>
       <c r="AT14" s="31"/>
       <c r="AU14" s="32"/>
       <c r="AV14" s="33" t="str">
-        <f t="shared" ref="AV14:AV22" si="29">IF(AT14=0,"NA",AU14-$AC14)</f>
+        <f t="shared" ref="AV14:AV22" si="31">IF(AT14=0,"NA",AU14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AW14" s="31"/>
@@ -4280,43 +4883,43 @@
       <c r="AZ14" s="31"/>
       <c r="BA14" s="34"/>
       <c r="BB14" s="33" t="str">
-        <f t="shared" ref="BB14:BB22" si="30">IF(AZ14=0,"NA",BA14-$AC14)</f>
+        <f t="shared" ref="BB14:BB22" si="32">IF(AZ14=0,"NA",BA14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BC14" s="31"/>
       <c r="BD14" s="32"/>
       <c r="BE14" s="33" t="str">
-        <f t="shared" ref="BE14:BE22" si="31">IF(BC14=0,"NA",BD14-$AC14)</f>
+        <f t="shared" ref="BE14:BE22" si="33">IF(BC14=0,"NA",BD14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BF14" s="31"/>
       <c r="BG14" s="34"/>
       <c r="BH14" s="33" t="str">
-        <f t="shared" ref="BH14:BH22" si="32">IF(BF14=0,"NA",BG14-$AC14)</f>
+        <f t="shared" ref="BH14:BH22" si="34">IF(BF14=0,"NA",BG14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BI14" s="31"/>
       <c r="BJ14" s="34"/>
       <c r="BK14" s="33" t="str">
-        <f t="shared" ref="BK14:BK22" si="33">IF(BI14=0,"NA",BJ14-$AC14)</f>
+        <f t="shared" ref="BK14:BK22" si="35">IF(BI14=0,"NA",BJ14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BL14" s="31"/>
       <c r="BM14" s="32"/>
       <c r="BN14" s="33" t="str">
-        <f t="shared" ref="BN14:BN22" si="34">IF(BL14=0,"NA",BM14-$AC14)</f>
+        <f t="shared" ref="BN14:BN22" si="36">IF(BL14=0,"NA",BM14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BO14" s="31"/>
       <c r="BP14" s="32"/>
       <c r="BQ14" s="33" t="str">
-        <f t="shared" ref="BQ14:BQ22" si="35">IF(BO14=0,"NA",BP14-$AC14)</f>
+        <f t="shared" ref="BQ14:BQ22" si="37">IF(BO14=0,"NA",BP14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BR14" s="31"/>
       <c r="BS14" s="34"/>
       <c r="BT14" s="33" t="str">
-        <f t="shared" ref="BT14:BT22" si="36">IF(BR14=0,"NA",BS14-$AC14)</f>
+        <f t="shared" ref="BT14:BT22" si="38">IF(BR14=0,"NA",BS14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BU14" s="31"/>
@@ -4370,12 +4973,28 @@
       <c r="CS14" s="31"/>
       <c r="CT14" s="32"/>
       <c r="CU14" s="33" t="str">
-        <f t="shared" ref="CU14:CU22" si="37">IF(CS14=0,"NA",CT14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="CV14" s="35"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV14" s="31"/>
+      <c r="CW14" s="32"/>
+      <c r="CX14" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY14" s="31">
+        <v>4</v>
+      </c>
+      <c r="CZ14" s="34">
+        <v>4.4212962962962956E-3</v>
+      </c>
+      <c r="DA14" s="33">
+        <f t="shared" ref="DA14:DA22" si="39">IF(CY14=0,"NA",CZ14-$AC14)</f>
+        <v>6.9444444444444024E-5</v>
+      </c>
+      <c r="DB14" s="35"/>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>175</v>
       </c>
@@ -4389,7 +5008,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>L4</v>
       </c>
       <c r="F15" s="5">
@@ -4425,7 +5044,7 @@
         <v>3</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.8333333333333459E-2</v>
       </c>
       <c r="Q15" s="6" t="s">
@@ -4441,49 +5060,75 @@
         <v>153</v>
       </c>
       <c r="U15" s="8"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
+      <c r="V15" s="19">
+        <v>2.1747685185185186E-2</v>
+      </c>
+      <c r="W15" s="20">
+        <v>2.4386574074074074E-2</v>
+      </c>
+      <c r="X15" s="20">
+        <v>1.2719907407407407E-2</v>
+      </c>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
+        <f t="shared" si="26"/>
+        <v>5.8854166666666673E-2</v>
+      </c>
+      <c r="AC15" s="20">
+        <v>4.0393518518518521E-3</v>
+      </c>
+      <c r="AD15" s="20">
+        <v>1.2719907407407407E-2</v>
+      </c>
       <c r="AE15" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
+        <f t="shared" si="27"/>
+        <v>4.2094907407407414E-2</v>
+      </c>
+      <c r="AF15" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG15" s="21">
+        <v>100</v>
+      </c>
       <c r="AH15" s="22"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="30"/>
+      <c r="AI15" s="29">
+        <v>5</v>
+      </c>
+      <c r="AJ15" s="30">
+        <v>4</v>
+      </c>
       <c r="AK15" s="31"/>
       <c r="AL15" s="34"/>
       <c r="AM15" s="33" t="str">
-        <f t="shared" si="26"/>
-        <v>NA</v>
-      </c>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="33" t="str">
-        <f t="shared" si="27"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="33" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
+      </c>
+      <c r="AN15" s="31">
+        <v>2</v>
+      </c>
+      <c r="AO15" s="34">
+        <v>1.9988425925925927E-2</v>
+      </c>
+      <c r="AP15" s="33">
+        <f t="shared" si="29"/>
+        <v>1.5949074074074074E-2</v>
+      </c>
+      <c r="AQ15" s="31">
+        <v>2</v>
+      </c>
+      <c r="AR15" s="34">
+        <v>4.0381944444444443E-2</v>
+      </c>
+      <c r="AS15" s="33">
+        <f t="shared" si="30"/>
+        <v>3.6342592592592593E-2</v>
       </c>
       <c r="AT15" s="31"/>
       <c r="AU15" s="32"/>
       <c r="AV15" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AW15" s="31"/>
@@ -4495,43 +5140,47 @@
       <c r="AZ15" s="31"/>
       <c r="BA15" s="32"/>
       <c r="BB15" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BC15" s="31"/>
       <c r="BD15" s="32"/>
       <c r="BE15" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BF15" s="31"/>
       <c r="BG15" s="34"/>
       <c r="BH15" s="33" t="str">
-        <f t="shared" si="32"/>
-        <v>NA</v>
-      </c>
-      <c r="BI15" s="31"/>
-      <c r="BJ15" s="32"/>
-      <c r="BK15" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
+        <f t="shared" si="34"/>
+        <v>NA</v>
+      </c>
+      <c r="BI15" s="31">
+        <v>2</v>
+      </c>
+      <c r="BJ15" s="34">
+        <v>4.3749999999999995E-3</v>
+      </c>
+      <c r="BK15" s="33">
+        <f t="shared" si="35"/>
+        <v>3.3564814814814742E-4</v>
       </c>
       <c r="BL15" s="31"/>
       <c r="BM15" s="32"/>
       <c r="BN15" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BO15" s="31"/>
       <c r="BP15" s="32"/>
       <c r="BQ15" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BR15" s="31"/>
       <c r="BS15" s="34"/>
       <c r="BT15" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BU15" s="31"/>
@@ -4585,12 +5234,28 @@
       <c r="CS15" s="31"/>
       <c r="CT15" s="32"/>
       <c r="CU15" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CV15" s="35"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV15" s="31"/>
+      <c r="CW15" s="32"/>
+      <c r="CX15" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY15" s="31">
+        <v>2</v>
+      </c>
+      <c r="CZ15" s="34">
+        <v>4.8726851851851856E-3</v>
+      </c>
+      <c r="DA15" s="33">
+        <f t="shared" si="39"/>
+        <v>8.333333333333335E-4</v>
+      </c>
+      <c r="DB15" s="35"/>
     </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>175</v>
       </c>
@@ -4604,7 +5269,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>D6</v>
       </c>
       <c r="F16" s="5">
@@ -4640,7 +5305,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.6250000000000022E-2</v>
       </c>
       <c r="Q16" s="6" t="s">
@@ -4656,49 +5321,69 @@
         <v>153</v>
       </c>
       <c r="U16" s="8"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
+      <c r="V16" s="19">
+        <v>1.6863425925925928E-2</v>
+      </c>
+      <c r="W16" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="X16" s="20">
+        <v>1.7164351851851851E-2</v>
+      </c>
+      <c r="Y16" s="20">
+        <v>2.0254629629629629E-2</v>
+      </c>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
+        <v>6.9143518518518521E-2</v>
+      </c>
+      <c r="AC16" s="20">
+        <v>3.8078703703703707E-3</v>
+      </c>
+      <c r="AD16" s="20">
+        <v>2.0254629629629629E-2</v>
+      </c>
+      <c r="AE16" s="20">
+        <f t="shared" si="27"/>
+        <v>4.5081018518518527E-2</v>
+      </c>
+      <c r="AF16" s="21">
+        <v>90</v>
+      </c>
+      <c r="AG16" s="21">
+        <v>70</v>
+      </c>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="29">
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="30">
         <v>0</v>
       </c>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="30"/>
       <c r="AK16" s="31"/>
       <c r="AL16" s="34"/>
       <c r="AM16" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AN16" s="31"/>
       <c r="AO16" s="34"/>
       <c r="AP16" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AQ16" s="31"/>
       <c r="AR16" s="34"/>
       <c r="AS16" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AT16" s="31"/>
       <c r="AU16" s="34"/>
       <c r="AV16" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AW16" s="31"/>
@@ -4710,43 +5395,43 @@
       <c r="AZ16" s="31"/>
       <c r="BA16" s="34"/>
       <c r="BB16" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BC16" s="31"/>
       <c r="BD16" s="34"/>
       <c r="BE16" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BF16" s="31"/>
       <c r="BG16" s="34"/>
       <c r="BH16" s="57" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BI16" s="41"/>
       <c r="BJ16" s="34"/>
       <c r="BK16" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BL16" s="31"/>
       <c r="BM16" s="32"/>
       <c r="BN16" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BO16" s="31"/>
       <c r="BP16" s="32"/>
       <c r="BQ16" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BR16" s="31"/>
       <c r="BS16" s="57"/>
       <c r="BT16" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BU16" s="31"/>
@@ -4800,14 +5485,26 @@
       <c r="CS16" s="31"/>
       <c r="CT16" s="34"/>
       <c r="CU16" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CV16" s="35"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV16" s="31"/>
+      <c r="CW16" s="34"/>
+      <c r="CX16" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY16" s="31"/>
+      <c r="CZ16" s="34"/>
+      <c r="DA16" s="33" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB16" s="35"/>
     </row>
-    <row r="17" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A17" s="93">
-        <v>45297</v>
+    <row r="17" spans="1:106" x14ac:dyDescent="0.35">
+      <c r="A17" s="93" t="s">
+        <v>197</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>176</v>
@@ -4819,7 +5516,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>E6</v>
       </c>
       <c r="F17" s="5">
@@ -4855,7 +5552,7 @@
         <v>3</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.3611111111111127E-2</v>
       </c>
       <c r="Q17" s="6" t="s">
@@ -4870,50 +5567,68 @@
       <c r="T17" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="U17" s="8"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
+      <c r="U17" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="V17" s="19">
+        <v>1.8043981481481484E-2</v>
+      </c>
+      <c r="W17" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="X17" s="20">
+        <v>8.2870370370370372E-3</v>
+      </c>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="20"/>
+        <f t="shared" si="26"/>
+        <v>4.4189814814814821E-2</v>
+      </c>
+      <c r="AC17" s="20">
+        <v>3.8310185185185183E-3</v>
+      </c>
       <c r="AD17" s="20"/>
       <c r="AE17" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
+        <f t="shared" si="27"/>
+        <v>4.0358796296296302E-2</v>
+      </c>
+      <c r="AF17" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG17" s="21">
+        <v>100</v>
+      </c>
       <c r="AH17" s="22"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="30"/>
+      <c r="AI17" s="29">
+        <v>4</v>
+      </c>
+      <c r="AJ17" s="30">
+        <v>3</v>
+      </c>
       <c r="AK17" s="31"/>
       <c r="AL17" s="34"/>
       <c r="AM17" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AN17" s="31"/>
       <c r="AO17" s="34"/>
       <c r="AP17" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AQ17" s="31"/>
       <c r="AR17" s="34"/>
       <c r="AS17" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AT17" s="31"/>
       <c r="AU17" s="34"/>
       <c r="AV17" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AW17" s="31"/>
@@ -4925,44 +5640,52 @@
       <c r="AZ17" s="31"/>
       <c r="BA17" s="34"/>
       <c r="BB17" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BC17" s="31"/>
       <c r="BD17" s="34"/>
       <c r="BE17" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BF17" s="31"/>
       <c r="BG17" s="34"/>
       <c r="BH17" s="33" t="str">
-        <f t="shared" si="32"/>
-        <v>NA</v>
-      </c>
-      <c r="BI17" s="41"/>
-      <c r="BJ17" s="34"/>
-      <c r="BK17" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
+        <f t="shared" si="34"/>
+        <v>NA</v>
+      </c>
+      <c r="BI17" s="41">
+        <v>3</v>
+      </c>
+      <c r="BJ17" s="34">
+        <v>3.8541666666666668E-3</v>
+      </c>
+      <c r="BK17" s="33">
+        <f t="shared" si="35"/>
+        <v>2.3148148148148442E-5</v>
       </c>
       <c r="BL17" s="41"/>
       <c r="BM17" s="34"/>
       <c r="BN17" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BO17" s="41"/>
       <c r="BP17" s="34"/>
       <c r="BQ17" s="33" t="str">
-        <f t="shared" si="35"/>
-        <v>NA</v>
-      </c>
-      <c r="BR17" s="31"/>
-      <c r="BS17" s="32"/>
-      <c r="BT17" s="33" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
+        <f t="shared" si="37"/>
+        <v>NA</v>
+      </c>
+      <c r="BR17" s="31">
+        <v>2</v>
+      </c>
+      <c r="BS17" s="34">
+        <v>2.4965277777777781E-2</v>
+      </c>
+      <c r="BT17" s="33">
+        <f t="shared" si="38"/>
+        <v>2.1134259259259262E-2</v>
       </c>
       <c r="BU17" s="31"/>
       <c r="BV17" s="32"/>
@@ -4982,11 +5705,15 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD17" s="31"/>
-      <c r="CE17" s="34"/>
-      <c r="CF17" s="33" t="str">
+      <c r="CD17" s="31">
+        <v>2</v>
+      </c>
+      <c r="CE17" s="34">
+        <v>6.1805555555555563E-3</v>
+      </c>
+      <c r="CF17" s="33">
         <f t="shared" si="16"/>
-        <v>NA</v>
+        <v>2.349537037037038E-3</v>
       </c>
       <c r="CG17" s="31"/>
       <c r="CH17" s="34"/>
@@ -5015,14 +5742,26 @@
       <c r="CS17" s="31"/>
       <c r="CT17" s="34"/>
       <c r="CU17" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CV17" s="35"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV17" s="31"/>
+      <c r="CW17" s="34"/>
+      <c r="CX17" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY17" s="31"/>
+      <c r="CZ17" s="34"/>
+      <c r="DA17" s="33" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB17" s="35"/>
     </row>
-    <row r="18" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A18" s="93">
-        <v>45297</v>
+    <row r="18" spans="1:106" x14ac:dyDescent="0.35">
+      <c r="A18" s="93" t="s">
+        <v>197</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>176</v>
@@ -5034,7 +5773,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>E4</v>
       </c>
       <c r="F18" s="5">
@@ -5070,7 +5809,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.0138888888888917E-2</v>
       </c>
       <c r="Q18" s="6" t="s">
@@ -5085,50 +5824,72 @@
       <c r="T18" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="U18" s="8"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
+      <c r="U18" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="V18" s="19">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="W18" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="X18" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="Y18" s="20">
+        <v>6.7592592592592591E-3</v>
+      </c>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
+        <f t="shared" si="26"/>
+        <v>6.0335648148148145E-2</v>
+      </c>
+      <c r="AC18" s="20">
+        <v>3.8194444444444443E-3</v>
+      </c>
+      <c r="AD18" s="20">
+        <v>1.4201388888888888E-2</v>
+      </c>
       <c r="AE18" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
+        <f t="shared" si="27"/>
+        <v>4.2314814814814812E-2</v>
+      </c>
+      <c r="AF18" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG18" s="21">
+        <v>100</v>
+      </c>
       <c r="AH18" s="22"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="30"/>
+      <c r="AI18" s="29">
+        <v>3</v>
+      </c>
+      <c r="AJ18" s="30">
+        <v>2</v>
+      </c>
       <c r="AK18" s="31"/>
       <c r="AL18" s="34"/>
       <c r="AM18" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AN18" s="31"/>
       <c r="AO18" s="34"/>
       <c r="AP18" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AQ18" s="31"/>
       <c r="AR18" s="34"/>
       <c r="AS18" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AT18" s="31"/>
       <c r="AU18" s="34"/>
       <c r="AV18" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AW18" s="31"/>
@@ -5140,44 +5901,52 @@
       <c r="AZ18" s="31"/>
       <c r="BA18" s="34"/>
       <c r="BB18" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BC18" s="31"/>
       <c r="BD18" s="34"/>
       <c r="BE18" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BF18" s="31"/>
       <c r="BG18" s="34"/>
       <c r="BH18" s="33" t="str">
-        <f t="shared" si="32"/>
-        <v>NA</v>
-      </c>
-      <c r="BI18" s="31"/>
-      <c r="BJ18" s="34"/>
-      <c r="BK18" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
+        <f t="shared" si="34"/>
+        <v>NA</v>
+      </c>
+      <c r="BI18" s="31">
+        <v>7</v>
+      </c>
+      <c r="BJ18" s="34">
+        <v>1.7048611111111112E-2</v>
+      </c>
+      <c r="BK18" s="33">
+        <f t="shared" si="35"/>
+        <v>1.3229166666666667E-2</v>
       </c>
       <c r="BL18" s="31"/>
       <c r="BM18" s="34"/>
       <c r="BN18" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BO18" s="31"/>
       <c r="BP18" s="34"/>
       <c r="BQ18" s="33" t="str">
-        <f t="shared" si="35"/>
-        <v>NA</v>
-      </c>
-      <c r="BR18" s="31"/>
-      <c r="BS18" s="32"/>
-      <c r="BT18" s="33" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
+        <f t="shared" si="37"/>
+        <v>NA</v>
+      </c>
+      <c r="BR18" s="31">
+        <v>2</v>
+      </c>
+      <c r="BS18" s="34">
+        <v>2.3391203703703702E-2</v>
+      </c>
+      <c r="BT18" s="33">
+        <f t="shared" si="38"/>
+        <v>1.9571759259259257E-2</v>
       </c>
       <c r="BU18" s="31"/>
       <c r="BV18" s="32"/>
@@ -5230,14 +5999,26 @@
       <c r="CS18" s="31"/>
       <c r="CT18" s="34"/>
       <c r="CU18" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CV18" s="35"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV18" s="31"/>
+      <c r="CW18" s="34"/>
+      <c r="CX18" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY18" s="31"/>
+      <c r="CZ18" s="34"/>
+      <c r="DA18" s="33" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB18" s="35"/>
     </row>
-    <row r="19" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A19" s="93">
-        <v>45297</v>
+    <row r="19" spans="1:106" x14ac:dyDescent="0.35">
+      <c r="A19" s="93" t="s">
+        <v>197</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>176</v>
@@ -5249,7 +6030,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>E5</v>
       </c>
       <c r="F19" s="5">
@@ -5285,7 +6066,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="Q19" s="6" t="s">
@@ -5300,50 +6081,72 @@
       <c r="T19" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="U19" s="8"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
+      <c r="U19" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="V19" s="19">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="W19" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="X19" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="Y19" s="20">
+        <v>1.1770833333333333E-2</v>
+      </c>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
+        <f t="shared" si="26"/>
+        <v>5.6354166666666664E-2</v>
+      </c>
+      <c r="AC19" s="20">
+        <v>3.9351851851851857E-3</v>
+      </c>
+      <c r="AD19" s="20">
+        <v>1.1076388888888887E-2</v>
+      </c>
       <c r="AE19" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
+        <f t="shared" si="27"/>
+        <v>4.1342592592592591E-2</v>
+      </c>
+      <c r="AF19" s="21">
+        <v>70</v>
+      </c>
+      <c r="AG19" s="21">
+        <v>100</v>
+      </c>
       <c r="AH19" s="22"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="30"/>
+      <c r="AI19" s="29">
+        <v>3</v>
+      </c>
+      <c r="AJ19" s="30">
+        <v>1</v>
+      </c>
       <c r="AK19" s="31"/>
       <c r="AL19" s="34"/>
       <c r="AM19" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AN19" s="31"/>
       <c r="AO19" s="34"/>
       <c r="AP19" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AQ19" s="31"/>
       <c r="AR19" s="34"/>
       <c r="AS19" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AT19" s="31"/>
       <c r="AU19" s="34"/>
       <c r="AV19" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AW19" s="31"/>
@@ -5355,43 +6158,47 @@
       <c r="AZ19" s="31"/>
       <c r="BA19" s="34"/>
       <c r="BB19" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BC19" s="31"/>
       <c r="BD19" s="34"/>
       <c r="BE19" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BF19" s="31"/>
       <c r="BG19" s="34"/>
       <c r="BH19" s="33" t="str">
-        <f t="shared" si="32"/>
-        <v>NA</v>
-      </c>
-      <c r="BI19" s="31"/>
-      <c r="BJ19" s="34"/>
-      <c r="BK19" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
+        <f t="shared" si="34"/>
+        <v>NA</v>
+      </c>
+      <c r="BI19" s="31">
+        <v>27</v>
+      </c>
+      <c r="BJ19" s="34">
+        <v>4.2476851851851851E-3</v>
+      </c>
+      <c r="BK19" s="33">
+        <f t="shared" si="35"/>
+        <v>3.1249999999999941E-4</v>
       </c>
       <c r="BL19" s="31"/>
       <c r="BM19" s="34"/>
       <c r="BN19" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BO19" s="31"/>
       <c r="BP19" s="34"/>
       <c r="BQ19" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BR19" s="31"/>
       <c r="BS19" s="32"/>
       <c r="BT19" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BU19" s="31"/>
@@ -5445,18 +6252,30 @@
       <c r="CS19" s="31"/>
       <c r="CT19" s="34"/>
       <c r="CU19" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CV19" s="35"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV19" s="31"/>
+      <c r="CW19" s="34"/>
+      <c r="CX19" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY19" s="31"/>
+      <c r="CZ19" s="34"/>
+      <c r="DA19" s="33" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB19" s="35"/>
     </row>
-    <row r="20" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F20" s="5"/>
@@ -5476,7 +6295,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q20" s="6"/>
@@ -5491,13 +6310,13 @@
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC20" s="20"/>
       <c r="AD20" s="20"/>
       <c r="AE20" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AF20" s="21"/>
@@ -5508,25 +6327,25 @@
       <c r="AK20" s="31"/>
       <c r="AL20" s="34"/>
       <c r="AM20" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AN20" s="31"/>
       <c r="AO20" s="34"/>
       <c r="AP20" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AQ20" s="31"/>
       <c r="AR20" s="34"/>
       <c r="AS20" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AT20" s="31"/>
       <c r="AU20" s="34"/>
       <c r="AV20" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AW20" s="31"/>
@@ -5538,43 +6357,43 @@
       <c r="AZ20" s="31"/>
       <c r="BA20" s="34"/>
       <c r="BB20" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BC20" s="31"/>
       <c r="BD20" s="34"/>
       <c r="BE20" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BF20" s="31"/>
       <c r="BG20" s="34"/>
       <c r="BH20" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BI20" s="31"/>
       <c r="BJ20" s="34"/>
       <c r="BK20" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BL20" s="31"/>
       <c r="BM20" s="34"/>
       <c r="BN20" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BO20" s="31"/>
       <c r="BP20" s="34"/>
       <c r="BQ20" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BR20" s="31"/>
       <c r="BS20" s="34"/>
       <c r="BT20" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BU20" s="31"/>
@@ -5628,18 +6447,30 @@
       <c r="CS20" s="31"/>
       <c r="CT20" s="34"/>
       <c r="CU20" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CV20" s="35"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV20" s="31"/>
+      <c r="CW20" s="34"/>
+      <c r="CX20" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY20" s="31"/>
+      <c r="CZ20" s="34"/>
+      <c r="DA20" s="33" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB20" s="35"/>
     </row>
-    <row r="21" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F21" s="5"/>
@@ -5659,7 +6490,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q21" s="5"/>
@@ -5674,13 +6505,13 @@
       <c r="Z21" s="79"/>
       <c r="AA21" s="79"/>
       <c r="AB21" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC21" s="80"/>
       <c r="AD21" s="80"/>
       <c r="AE21" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AF21" s="21"/>
@@ -5691,25 +6522,25 @@
       <c r="AK21" s="31"/>
       <c r="AL21" s="32"/>
       <c r="AM21" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AN21" s="31"/>
       <c r="AO21" s="32"/>
       <c r="AP21" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AQ21" s="31"/>
       <c r="AR21" s="32"/>
       <c r="AS21" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AT21" s="31"/>
       <c r="AU21" s="32"/>
       <c r="AV21" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AW21" s="31"/>
@@ -5721,43 +6552,43 @@
       <c r="AZ21" s="31"/>
       <c r="BA21" s="34"/>
       <c r="BB21" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BC21" s="31"/>
       <c r="BD21" s="32"/>
       <c r="BE21" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BF21" s="31"/>
       <c r="BG21" s="32"/>
       <c r="BH21" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BI21" s="31"/>
       <c r="BJ21" s="57"/>
       <c r="BK21" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BL21" s="31"/>
       <c r="BM21" s="32"/>
       <c r="BN21" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BO21" s="31"/>
       <c r="BP21" s="32"/>
       <c r="BQ21" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BR21" s="31"/>
       <c r="BS21" s="32"/>
       <c r="BT21" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BU21" s="31"/>
@@ -5809,20 +6640,32 @@
         <v>NA</v>
       </c>
       <c r="CS21" s="31"/>
-      <c r="CT21" s="57"/>
+      <c r="CT21" s="32"/>
       <c r="CU21" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CV21" s="35"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV21" s="31"/>
+      <c r="CW21" s="57"/>
+      <c r="CX21" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY21" s="31"/>
+      <c r="CZ21" s="57"/>
+      <c r="DA21" s="33" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB21" s="35"/>
     </row>
-    <row r="22" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="77" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F22" s="11"/>
@@ -5842,7 +6685,7 @@
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q22" s="11"/>
@@ -5857,13 +6700,13 @@
       <c r="Z22" s="70"/>
       <c r="AA22" s="70"/>
       <c r="AB22" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC22" s="82"/>
       <c r="AD22" s="82"/>
       <c r="AE22" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AF22" s="24"/>
@@ -5874,25 +6717,25 @@
       <c r="AK22" s="38"/>
       <c r="AL22" s="40"/>
       <c r="AM22" s="42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AN22" s="38"/>
       <c r="AO22" s="40"/>
       <c r="AP22" s="42" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AQ22" s="38"/>
       <c r="AR22" s="85"/>
       <c r="AS22" s="42" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AT22" s="38"/>
       <c r="AU22" s="85"/>
       <c r="AV22" s="42" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AW22" s="38"/>
@@ -5904,43 +6747,43 @@
       <c r="AZ22" s="38"/>
       <c r="BA22" s="40"/>
       <c r="BB22" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BC22" s="38"/>
       <c r="BD22" s="85"/>
       <c r="BE22" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BF22" s="38"/>
       <c r="BG22" s="85"/>
       <c r="BH22" s="42" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BI22" s="38"/>
       <c r="BJ22" s="40"/>
       <c r="BK22" s="42" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BL22" s="38"/>
       <c r="BM22" s="85"/>
       <c r="BN22" s="42" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BO22" s="38"/>
       <c r="BP22" s="85"/>
       <c r="BQ22" s="42" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BR22" s="38"/>
       <c r="BS22" s="85"/>
       <c r="BT22" s="42" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BU22" s="38"/>
@@ -5994,10 +6837,22 @@
       <c r="CS22" s="38"/>
       <c r="CT22" s="40"/>
       <c r="CU22" s="42" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CV22" s="39"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV22" s="38"/>
+      <c r="CW22" s="40"/>
+      <c r="CX22" s="42" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY22" s="38"/>
+      <c r="CZ22" s="40"/>
+      <c r="DA22" s="42" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB22" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/URUVS/Datasheets/URUV/05.2024/May_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/05.2024/May_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\05.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738780B7-9E44-4C6A-BC50-8E8785EB6A5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0928DF42-48B8-4B4C-A1DD-114E39A37A7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11350" yWindow="3230" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -479,9 +479,6 @@
     <t>28/05/2024</t>
   </si>
   <si>
-    <t>TMP</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -563,9 +560,6 @@
     <t>30/05/2024</t>
   </si>
   <si>
-    <t>LTP</t>
-  </si>
-  <si>
     <t>30_05_2024_1553_C11_D1_LTPL6</t>
   </si>
   <si>
@@ -630,6 +624,12 @@
   </si>
   <si>
     <t>REAL DATE 01/06/2024. CHANGED FOR ANALYSIS</t>
+  </si>
+  <si>
+    <t>TOMPOTANA</t>
+  </si>
+  <si>
+    <t>LANTANGPEO</t>
   </si>
 </sst>
 </file>
@@ -1274,17 +1274,16 @@
   <dimension ref="A1:DB22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="BE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BJ20" sqref="BJ20"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="5" max="21" width="8.7265625" customWidth="1"/>
+    <col min="2" max="21" width="8.7265625" customWidth="1"/>
     <col min="22" max="28" width="8.7265625" style="1" customWidth="1"/>
     <col min="29" max="35" width="8.7265625" customWidth="1"/>
     <col min="36" max="36" width="14.90625" bestFit="1" customWidth="1"/>
@@ -1586,13 +1585,13 @@
         <v>66</v>
       </c>
       <c r="CP1" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="CQ1" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="CR1" s="60" t="s">
         <v>191</v>
-      </c>
-      <c r="CQ1" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="CR1" s="60" t="s">
-        <v>193</v>
       </c>
       <c r="CS1" s="83" t="s">
         <v>141</v>
@@ -1604,13 +1603,13 @@
         <v>143</v>
       </c>
       <c r="CV1" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="CW1" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX1" s="60" t="s">
         <v>194</v>
-      </c>
-      <c r="CW1" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="CX1" s="60" t="s">
-        <v>196</v>
       </c>
       <c r="CY1" s="83" t="s">
         <v>12</v>
@@ -1630,10 +1629,10 @@
         <v>147</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="D2" s="5">
         <v>2</v>
@@ -1669,7 +1668,7 @@
         <v>49</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O2" s="5">
         <v>4</v>
@@ -1679,16 +1678,16 @@
         <v>9.5833333333333437E-2</v>
       </c>
       <c r="Q2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="S2" s="5">
         <v>0.52</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="19">
@@ -1901,10 +1900,10 @@
         <v>147</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -1940,7 +1939,7 @@
         <v>80</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O3" s="5">
         <v>3</v>
@@ -1950,16 +1949,16 @@
         <v>7.3611111111111183E-2</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S3" s="5">
         <v>0.52</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U3" s="8"/>
       <c r="V3" s="19">
@@ -2160,10 +2159,10 @@
         <v>147</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
@@ -2199,7 +2198,7 @@
         <v>74</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O4" s="5">
         <v>3</v>
@@ -2209,16 +2208,16 @@
         <v>7.9861111111111049E-2</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S4" s="5">
         <v>0.61</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U4" s="8"/>
       <c r="V4" s="19">
@@ -2419,10 +2418,10 @@
         <v>147</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
@@ -2435,7 +2434,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H5" s="6">
         <v>0.56527777777777777</v>
@@ -2458,7 +2457,7 @@
         <v>55</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O5" s="5">
         <v>4</v>
@@ -2468,16 +2467,16 @@
         <v>5.1388888888888928E-2</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S5" s="5">
         <v>0.61</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U5" s="8"/>
       <c r="V5" s="19">
@@ -2671,13 +2670,13 @@
     </row>
     <row r="6" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
@@ -2690,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H6" s="6">
         <v>0.51944444444444449</v>
@@ -2713,7 +2712,7 @@
         <v>57</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O6" s="5">
         <v>3</v>
@@ -2723,16 +2722,16 @@
         <v>0.10833333333333328</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S6" s="5">
         <v>0.17</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U6" s="8"/>
       <c r="V6" s="19">
@@ -2942,13 +2941,13 @@
     </row>
     <row r="7" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -2984,7 +2983,7 @@
         <v>60</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O7" s="5">
         <v>3</v>
@@ -2994,16 +2993,16 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S7" s="5">
         <v>0.27</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U7" s="8"/>
       <c r="V7" s="19">
@@ -3207,13 +3206,13 @@
     </row>
     <row r="8" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -3249,7 +3248,7 @@
         <v>63</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O8" s="5">
         <v>3</v>
@@ -3259,16 +3258,16 @@
         <v>7.4305555555555514E-2</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S8" s="5">
         <v>0.27</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U8" s="8"/>
       <c r="V8" s="19">
@@ -3480,13 +3479,13 @@
     </row>
     <row r="9" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -3522,7 +3521,7 @@
         <v>70</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O9" s="5">
         <v>3</v>
@@ -3532,16 +3531,16 @@
         <v>5.9722222222222232E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S9" s="5">
         <v>0.27</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U9" s="8"/>
       <c r="V9" s="19">
@@ -3735,13 +3734,13 @@
     </row>
     <row r="10" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
@@ -3777,7 +3776,7 @@
         <v>58</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O10" s="5">
         <v>2</v>
@@ -3787,16 +3786,16 @@
         <v>5.4861111111111027E-2</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S10" s="5">
         <v>0.27</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U10" s="8"/>
       <c r="V10" s="19">
@@ -3996,13 +3995,13 @@
     </row>
     <row r="11" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="5">
         <v>6</v>
@@ -4038,7 +4037,7 @@
         <v>35</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O11" s="5">
         <v>3</v>
@@ -4048,16 +4047,16 @@
         <v>8.6111111111111138E-2</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S11" s="5">
         <v>0.48</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U11" s="8"/>
       <c r="V11" s="19">
@@ -4249,13 +4248,13 @@
     </row>
     <row r="12" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="5">
         <v>4</v>
@@ -4291,7 +4290,7 @@
         <v>38</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O12" s="5">
         <v>3</v>
@@ -4301,16 +4300,16 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S12" s="5">
         <v>0.48</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U12" s="8"/>
       <c r="V12" s="19">
@@ -4498,13 +4497,13 @@
     </row>
     <row r="13" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="5">
         <v>5</v>
@@ -4540,7 +4539,7 @@
         <v>25</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O13" s="5">
         <v>3</v>
@@ -4550,16 +4549,16 @@
         <v>7.3611111111111072E-2</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S13" s="5">
         <v>0.48</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U13" s="8"/>
       <c r="V13" s="19">
@@ -4743,13 +4742,13 @@
     </row>
     <row r="14" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="5">
         <v>5</v>
@@ -4785,7 +4784,7 @@
         <v>20</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O14" s="5">
         <v>3</v>
@@ -4795,16 +4794,16 @@
         <v>7.2222222222222077E-2</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S14" s="5">
         <v>0.48</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U14" s="8"/>
       <c r="V14" s="19">
@@ -4996,13 +4995,13 @@
     </row>
     <row r="15" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="5">
         <v>4</v>
@@ -5038,7 +5037,7 @@
         <v>35</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O15" s="5">
         <v>3</v>
@@ -5048,16 +5047,16 @@
         <v>5.8333333333333459E-2</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S15" s="5">
         <v>0.53</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U15" s="8"/>
       <c r="V15" s="19">
@@ -5257,13 +5256,13 @@
     </row>
     <row r="16" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="5">
         <v>6</v>
@@ -5276,7 +5275,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H16" s="6">
         <v>0.68472222222222223</v>
@@ -5299,7 +5298,7 @@
         <v>28</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O16" s="5">
         <v>4</v>
@@ -5309,16 +5308,16 @@
         <v>5.6250000000000022E-2</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S16" s="5">
         <v>0.53</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U16" s="8"/>
       <c r="V16" s="19">
@@ -5504,13 +5503,13 @@
     </row>
     <row r="17" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A17" s="93" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D17" s="5">
         <v>6</v>
@@ -5546,7 +5545,7 @@
         <v>42</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O17" s="5">
         <v>3</v>
@@ -5556,19 +5555,19 @@
         <v>7.3611111111111127E-2</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S17" s="5">
         <v>0.6</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U17" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V17" s="19">
         <v>1.8043981481481484E-2</v>
@@ -5761,13 +5760,13 @@
     </row>
     <row r="18" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A18" s="93" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D18" s="5">
         <v>4</v>
@@ -5803,7 +5802,7 @@
         <v>70</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O18" s="5">
         <v>4</v>
@@ -5813,19 +5812,19 @@
         <v>7.0138888888888917E-2</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S18" s="5">
         <v>0.6</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V18" s="19">
         <v>1.7858796296296296E-2</v>
@@ -6018,13 +6017,13 @@
     </row>
     <row r="19" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A19" s="93" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D19" s="5">
         <v>5</v>
@@ -6037,7 +6036,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H19" s="6">
         <v>0.32083333333333336</v>
@@ -6060,7 +6059,7 @@
         <v>52</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O19" s="5">
         <v>4</v>
@@ -6070,19 +6069,19 @@
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S19" s="5">
         <v>0.6</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V19" s="19">
         <v>1.486111111111111E-2</v>
@@ -6915,8 +6914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F89D226-4FD3-43E7-AD2C-117D056F41E4}">
   <dimension ref="A1:CW22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/URUVS/Datasheets/URUV/05.2024/May_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/05.2024/May_RecordingData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\05.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0928DF42-48B8-4B4C-A1DD-114E39A37A7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AEC393-A946-42F0-A71E-38C21154E389}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="RecordingData_05.2024" sheetId="2" r:id="rId1"/>
     <sheet name="HOBO" sheetId="4" r:id="rId2"/>
     <sheet name="Metadata" sheetId="6" r:id="rId3"/>
     <sheet name="LATLON" sheetId="5" r:id="rId4"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="202">
   <si>
     <t>DATE</t>
   </si>
@@ -630,6 +630,15 @@
   </si>
   <si>
     <t>LANTANGPEO</t>
+  </si>
+  <si>
+    <t>MAXN_FISHO</t>
+  </si>
+  <si>
+    <t>TIME_1STFISHO</t>
+  </si>
+  <si>
+    <t>T1_FISHO</t>
   </si>
 </sst>
 </file>
@@ -1271,13 +1280,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:DB22"/>
+  <dimension ref="A1:DE22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11:B19"/>
+      <selection pane="bottomRight" activeCell="BB13" sqref="BB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1297,14 +1306,15 @@
     <col min="76" max="76" width="8.7265625" style="73"/>
     <col min="78" max="78" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:109" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1549,82 +1559,91 @@
         <v>140</v>
       </c>
       <c r="CD1" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE1" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF1" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="CG1" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="CE1" s="27" t="s">
+      <c r="CH1" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="CF1" s="60" t="s">
+      <c r="CI1" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="CG1" s="83" t="s">
+      <c r="CJ1" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="CH1" s="27" t="s">
+      <c r="CK1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="CI1" s="60" t="s">
+      <c r="CL1" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="CJ1" s="83" t="s">
+      <c r="CM1" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="CK1" s="27" t="s">
+      <c r="CN1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="CL1" s="60" t="s">
+      <c r="CO1" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="CM1" s="83" t="s">
+      <c r="CP1" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="CN1" s="27" t="s">
+      <c r="CQ1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="CO1" s="60" t="s">
+      <c r="CR1" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="CP1" s="83" t="s">
+      <c r="CS1" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="CQ1" s="27" t="s">
+      <c r="CT1" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="CR1" s="60" t="s">
+      <c r="CU1" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="CS1" s="83" t="s">
+      <c r="CV1" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="CT1" s="27" t="s">
+      <c r="CW1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="CU1" s="60" t="s">
+      <c r="CX1" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="CV1" s="83" t="s">
+      <c r="CY1" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="CW1" s="27" t="s">
+      <c r="CZ1" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="CX1" s="60" t="s">
+      <c r="DA1" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="CY1" s="83" t="s">
+      <c r="DB1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="CZ1" s="27" t="s">
+      <c r="DC1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="DA1" s="60" t="s">
+      <c r="DD1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="DB1" s="28" t="s">
+      <c r="DE1" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>147</v>
       </c>
@@ -1841,17 +1860,21 @@
         <v>1</v>
       </c>
       <c r="CE2" s="72">
-        <v>3.2615740740740744E-2</v>
+        <v>3.7222222222222219E-2</v>
       </c>
       <c r="CF2" s="33">
         <f t="shared" ref="CF2:CF22" si="16">IF(CD2=0,"NA",CE2-$AC2)</f>
+        <v>3.3414351851851848E-2</v>
+      </c>
+      <c r="CG2" s="59">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="72">
+        <v>3.2615740740740744E-2</v>
+      </c>
+      <c r="CI2" s="33">
+        <f t="shared" ref="CI2:CI22" si="17">IF(CG2=0,"NA",CH2-$AC2)</f>
         <v>2.8807870370370373E-2</v>
-      </c>
-      <c r="CG2" s="59"/>
-      <c r="CH2" s="72"/>
-      <c r="CI2" s="33" t="str">
-        <f t="shared" ref="CI2:CI22" si="17">IF(CG2=0,"NA",CH2-$AC2)</f>
-        <v>NA</v>
       </c>
       <c r="CJ2" s="59"/>
       <c r="CK2" s="72"/>
@@ -1865,21 +1888,21 @@
         <f t="shared" ref="CO2:CO22" si="19">IF(CM2=0,"NA",CN2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="CP2" s="59">
+      <c r="CP2" s="59"/>
+      <c r="CQ2" s="72"/>
+      <c r="CR2" s="33" t="str">
+        <f t="shared" ref="CR2:CR22" si="20">IF(CP2=0,"NA",CQ2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CS2" s="59">
         <v>1</v>
       </c>
-      <c r="CQ2" s="72">
+      <c r="CT2" s="72">
         <v>6.4814814814814813E-3</v>
       </c>
-      <c r="CR2" s="33">
-        <f t="shared" ref="CR2:CR22" si="20">IF(CP2=0,"NA",CQ2-$AC2)</f>
+      <c r="CU2" s="33">
+        <f t="shared" ref="CU2:CU22" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
         <v>2.6736111111111105E-3</v>
-      </c>
-      <c r="CS2" s="59"/>
-      <c r="CT2" s="72"/>
-      <c r="CU2" s="33" t="str">
-        <f t="shared" ref="CU2:CU22" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
-        <v>NA</v>
       </c>
       <c r="CV2" s="59"/>
       <c r="CW2" s="72"/>
@@ -1890,12 +1913,18 @@
       <c r="CY2" s="59"/>
       <c r="CZ2" s="72"/>
       <c r="DA2" s="33" t="str">
-        <f t="shared" ref="DA2:DA13" si="23">IF(CY2=0,"NA",CZ2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="DB2" s="35"/>
+        <f t="shared" ref="DA2:DA22" si="23">IF(CY2=0,"NA",CZ2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="DB2" s="59"/>
+      <c r="DC2" s="72"/>
+      <c r="DD2" s="33" t="str">
+        <f t="shared" ref="DD2:DD13" si="24">IF(DB2=0,"NA",DC2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="DE2" s="35"/>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>147</v>
       </c>
@@ -1909,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="76" t="str">
-        <f t="shared" ref="E3:E22" si="24">C3&amp;""&amp;D3</f>
+        <f t="shared" ref="E3:E22" si="25">C3&amp;""&amp;D3</f>
         <v>E1</v>
       </c>
       <c r="F3" s="5">
@@ -1945,7 +1974,7 @@
         <v>3</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" ref="P3:P22" si="25">I3-H3</f>
+        <f t="shared" ref="P3:P22" si="26">I3-H3</f>
         <v>7.3611111111111183E-2</v>
       </c>
       <c r="Q3" s="6" t="s">
@@ -1974,7 +2003,7 @@
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
       <c r="AB3" s="20">
-        <f t="shared" ref="AB3:AB22" si="26">SUM(V3:AA3)</f>
+        <f t="shared" ref="AB3:AB22" si="27">SUM(V3:AA3)</f>
         <v>4.5821759259259257E-2</v>
       </c>
       <c r="AC3" s="20">
@@ -2015,14 +2044,14 @@
         <v>NA</v>
       </c>
       <c r="AQ3" s="31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AR3" s="34">
-        <v>9.3981481481481485E-3</v>
+        <v>5.9722222222222225E-3</v>
       </c>
       <c r="AS3" s="33">
         <f t="shared" si="3"/>
-        <v>4.9189814814814816E-3</v>
+        <v>1.4930555555555556E-3</v>
       </c>
       <c r="AT3" s="31"/>
       <c r="AU3" s="32"/>
@@ -2137,24 +2166,30 @@
         <v>NA</v>
       </c>
       <c r="CV3" s="31"/>
-      <c r="CW3" s="34"/>
+      <c r="CW3" s="32"/>
       <c r="CX3" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY3" s="31">
+      <c r="CY3" s="31"/>
+      <c r="CZ3" s="34"/>
+      <c r="DA3" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB3" s="31">
         <v>1</v>
       </c>
-      <c r="CZ3" s="34">
+      <c r="DC3" s="34">
         <v>1.1481481481481483E-2</v>
       </c>
-      <c r="DA3" s="33">
-        <f t="shared" si="23"/>
+      <c r="DD3" s="33">
+        <f t="shared" si="24"/>
         <v>7.0023148148148162E-3</v>
       </c>
-      <c r="DB3" s="35"/>
+      <c r="DE3" s="35"/>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>147</v>
       </c>
@@ -2168,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>E2</v>
       </c>
       <c r="F4" s="5">
@@ -2204,7 +2239,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.9861111111111049E-2</v>
       </c>
       <c r="Q4" s="6" t="s">
@@ -2233,7 +2268,7 @@
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
       <c r="AB4" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.445601851851852E-2</v>
       </c>
       <c r="AC4" s="20">
@@ -2411,9 +2446,15 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB4" s="35"/>
+      <c r="DB4" s="31"/>
+      <c r="DC4" s="34"/>
+      <c r="DD4" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE4" s="35"/>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>147</v>
       </c>
@@ -2427,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>D3</v>
       </c>
       <c r="F5" s="5">
@@ -2463,7 +2504,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.1388888888888928E-2</v>
       </c>
       <c r="Q5" s="6" t="s">
@@ -2494,7 +2535,7 @@
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
       <c r="AB5" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.0231481481481476E-2</v>
       </c>
       <c r="AC5" s="20">
@@ -2666,9 +2707,15 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB5" s="35"/>
+      <c r="DB5" s="31"/>
+      <c r="DC5" s="32"/>
+      <c r="DD5" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE5" s="35"/>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>161</v>
       </c>
@@ -2682,7 +2729,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>E3</v>
       </c>
       <c r="F6" s="5">
@@ -2718,7 +2765,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.10833333333333328</v>
       </c>
       <c r="Q6" s="6" t="s">
@@ -2747,7 +2794,7 @@
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.0011574074074076E-2</v>
       </c>
       <c r="AC6" s="20">
@@ -2881,21 +2928,21 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD6" s="31">
+      <c r="CD6" s="31"/>
+      <c r="CE6" s="34"/>
+      <c r="CF6" s="33" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG6" s="31">
         <v>1</v>
       </c>
-      <c r="CE6" s="34">
+      <c r="CH6" s="34">
         <v>1.5219907407407409E-2</v>
       </c>
-      <c r="CF6" s="33">
-        <f t="shared" si="16"/>
+      <c r="CI6" s="33">
+        <f t="shared" si="17"/>
         <v>1.0625000000000002E-2</v>
-      </c>
-      <c r="CG6" s="31"/>
-      <c r="CH6" s="32"/>
-      <c r="CI6" s="33" t="str">
-        <f t="shared" si="17"/>
-        <v>NA</v>
       </c>
       <c r="CJ6" s="31"/>
       <c r="CK6" s="32"/>
@@ -2922,24 +2969,30 @@
         <v>NA</v>
       </c>
       <c r="CV6" s="31"/>
-      <c r="CW6" s="34"/>
+      <c r="CW6" s="32"/>
       <c r="CX6" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY6" s="31">
+      <c r="CY6" s="31"/>
+      <c r="CZ6" s="34"/>
+      <c r="DA6" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB6" s="31">
         <v>3</v>
       </c>
-      <c r="CZ6" s="34">
+      <c r="DC6" s="34">
         <v>1.3344907407407408E-2</v>
       </c>
-      <c r="DA6" s="33">
-        <f t="shared" si="23"/>
+      <c r="DD6" s="33">
+        <f t="shared" si="24"/>
         <v>8.7500000000000008E-3</v>
       </c>
-      <c r="DB6" s="35"/>
+      <c r="DE6" s="35"/>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>161</v>
       </c>
@@ -2953,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>L1</v>
       </c>
       <c r="F7" s="5">
@@ -2989,7 +3042,7 @@
         <v>3</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="Q7" s="6" t="s">
@@ -3018,7 +3071,7 @@
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.6006944444444449E-2</v>
       </c>
       <c r="AC7" s="20">
@@ -3154,18 +3207,14 @@
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ7" s="31">
-        <v>1</v>
-      </c>
-      <c r="CK7" s="34">
-        <v>2.1666666666666667E-2</v>
-      </c>
-      <c r="CL7" s="33">
+      <c r="CJ7" s="31"/>
+      <c r="CK7" s="32"/>
+      <c r="CL7" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>1.7280092592592593E-2</v>
+        <v>NA</v>
       </c>
       <c r="CM7" s="31"/>
-      <c r="CN7" s="32"/>
+      <c r="CN7" s="34"/>
       <c r="CO7" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
@@ -3174,37 +3223,47 @@
         <v>1</v>
       </c>
       <c r="CQ7" s="34">
-        <v>1.6180555555555556E-2</v>
+        <v>2.1666666666666667E-2</v>
       </c>
       <c r="CR7" s="33">
         <f t="shared" si="20"/>
+        <v>1.7280092592592593E-2</v>
+      </c>
+      <c r="CS7" s="31">
+        <v>1</v>
+      </c>
+      <c r="CT7" s="34">
+        <v>1.6180555555555556E-2</v>
+      </c>
+      <c r="CU7" s="33">
+        <f t="shared" si="21"/>
         <v>1.1793981481481482E-2</v>
       </c>
-      <c r="CS7" s="31"/>
-      <c r="CT7" s="32"/>
-      <c r="CU7" s="33" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
       <c r="CV7" s="31"/>
-      <c r="CW7" s="34"/>
+      <c r="CW7" s="32"/>
       <c r="CX7" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY7" s="31">
+      <c r="CY7" s="31"/>
+      <c r="CZ7" s="34"/>
+      <c r="DA7" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB7" s="31">
         <v>4</v>
       </c>
-      <c r="CZ7" s="34">
+      <c r="DC7" s="34">
         <v>4.6064814814814814E-3</v>
       </c>
-      <c r="DA7" s="33">
-        <f t="shared" si="23"/>
+      <c r="DD7" s="33">
+        <f t="shared" si="24"/>
         <v>2.1990740740740738E-4</v>
       </c>
-      <c r="DB7" s="35"/>
+      <c r="DE7" s="35"/>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>161</v>
       </c>
@@ -3218,7 +3277,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>L2</v>
       </c>
       <c r="F8" s="5">
@@ -3254,7 +3313,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.4305555555555514E-2</v>
       </c>
       <c r="Q8" s="6" t="s">
@@ -3283,7 +3342,7 @@
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.6365740740740748E-2</v>
       </c>
       <c r="AC8" s="20">
@@ -3374,14 +3433,14 @@
         <v>9.8726851851851857E-3</v>
       </c>
       <c r="BI8" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ8" s="34">
-        <v>1.5520833333333333E-2</v>
+        <v>1.3252314814814814E-2</v>
       </c>
       <c r="BK8" s="33">
         <f t="shared" si="9"/>
-        <v>1.0949074074074073E-2</v>
+        <v>8.6805555555555559E-3</v>
       </c>
       <c r="BL8" s="31"/>
       <c r="BM8" s="32"/>
@@ -3448,7 +3507,7 @@
         <v>NA</v>
       </c>
       <c r="CP8" s="31"/>
-      <c r="CQ8" s="71"/>
+      <c r="CQ8" s="32"/>
       <c r="CR8" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
@@ -3465,19 +3524,25 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY8" s="31">
+      <c r="CY8" s="31"/>
+      <c r="CZ8" s="71"/>
+      <c r="DA8" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB8" s="31">
         <v>2</v>
       </c>
-      <c r="CZ8" s="71">
+      <c r="DC8" s="71">
         <v>5.9837962962962961E-3</v>
       </c>
-      <c r="DA8" s="33">
-        <f t="shared" si="23"/>
+      <c r="DD8" s="33">
+        <f t="shared" si="24"/>
         <v>1.4120370370370372E-3</v>
       </c>
-      <c r="DB8" s="35"/>
+      <c r="DE8" s="35"/>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>161</v>
       </c>
@@ -3491,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>D1</v>
       </c>
       <c r="F9" s="5">
@@ -3527,7 +3592,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.9722222222222232E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
@@ -3556,7 +3621,7 @@
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.6307870370370374E-2</v>
       </c>
       <c r="AC9" s="20">
@@ -3678,21 +3743,21 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD9" s="31">
+      <c r="CD9" s="31"/>
+      <c r="CE9" s="34"/>
+      <c r="CF9" s="33" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG9" s="31">
         <v>1</v>
       </c>
-      <c r="CE9" s="34">
+      <c r="CH9" s="34">
         <v>3.2314814814814817E-2</v>
       </c>
-      <c r="CF9" s="33">
-        <f t="shared" si="16"/>
+      <c r="CI9" s="33">
+        <f t="shared" si="17"/>
         <v>2.8287037037037041E-2</v>
-      </c>
-      <c r="CG9" s="31"/>
-      <c r="CH9" s="32"/>
-      <c r="CI9" s="33" t="str">
-        <f t="shared" si="17"/>
-        <v>NA</v>
       </c>
       <c r="CJ9" s="31"/>
       <c r="CK9" s="32"/>
@@ -3707,7 +3772,7 @@
         <v>NA</v>
       </c>
       <c r="CP9" s="31"/>
-      <c r="CQ9" s="57"/>
+      <c r="CQ9" s="32"/>
       <c r="CR9" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
@@ -3730,9 +3795,15 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB9" s="35"/>
+      <c r="DB9" s="31"/>
+      <c r="DC9" s="57"/>
+      <c r="DD9" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE9" s="35"/>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>161</v>
       </c>
@@ -3746,7 +3817,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>L3</v>
       </c>
       <c r="F10" s="5">
@@ -3782,7 +3853,7 @@
         <v>2</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.4861111111111027E-2</v>
       </c>
       <c r="Q10" s="6" t="s">
@@ -3809,7 +3880,7 @@
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.7581018518518522E-2</v>
       </c>
       <c r="AC10" s="20">
@@ -3971,29 +4042,35 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV10" s="31">
-        <v>1</v>
-      </c>
-      <c r="CW10" s="34">
-        <v>2.0914351851851851E-2</v>
-      </c>
-      <c r="CX10" s="33">
+      <c r="CV10" s="31"/>
+      <c r="CW10" s="34"/>
+      <c r="CX10" s="33" t="str">
         <f t="shared" si="22"/>
-        <v>1.6793981481481479E-2</v>
+        <v>NA</v>
       </c>
       <c r="CY10" s="31">
         <v>1</v>
       </c>
       <c r="CZ10" s="34">
-        <v>4.4212962962962956E-3</v>
+        <v>2.0914351851851851E-2</v>
       </c>
       <c r="DA10" s="33">
         <f t="shared" si="23"/>
+        <v>1.6793981481481479E-2</v>
+      </c>
+      <c r="DB10" s="31">
+        <v>1</v>
+      </c>
+      <c r="DC10" s="34">
+        <v>4.4212962962962956E-3</v>
+      </c>
+      <c r="DD10" s="33">
+        <f t="shared" si="24"/>
         <v>3.0092592592592497E-4</v>
       </c>
-      <c r="DB10" s="35"/>
+      <c r="DE10" s="35"/>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>174</v>
       </c>
@@ -4007,7 +4084,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>L6</v>
       </c>
       <c r="F11" s="5">
@@ -4043,7 +4120,7 @@
         <v>3</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.6111111111111138E-2</v>
       </c>
       <c r="Q11" s="6" t="s">
@@ -4072,7 +4149,7 @@
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.6435185185185189E-2</v>
       </c>
       <c r="AC11" s="20">
@@ -4244,9 +4321,15 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB11" s="35"/>
+      <c r="DB11" s="31"/>
+      <c r="DC11" s="34"/>
+      <c r="DD11" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE11" s="35"/>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>174</v>
       </c>
@@ -4260,7 +4343,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>D4</v>
       </c>
       <c r="F12" s="5">
@@ -4296,7 +4379,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="Q12" s="6" t="s">
@@ -4325,7 +4408,7 @@
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.0578703703703709E-2</v>
       </c>
       <c r="AC12" s="20">
@@ -4493,9 +4576,15 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB12" s="35"/>
+      <c r="DB12" s="31"/>
+      <c r="DC12" s="71"/>
+      <c r="DD12" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE12" s="35"/>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>174</v>
       </c>
@@ -4509,7 +4598,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>D5</v>
       </c>
       <c r="F13" s="5">
@@ -4545,7 +4634,7 @@
         <v>3</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.3611111111111072E-2</v>
       </c>
       <c r="Q13" s="6" t="s">
@@ -4574,7 +4663,7 @@
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.4942129629629625E-2</v>
       </c>
       <c r="AC13" s="20">
@@ -4703,7 +4792,7 @@
         <v>NA</v>
       </c>
       <c r="CJ13" s="31"/>
-      <c r="CK13" s="34"/>
+      <c r="CK13" s="32"/>
       <c r="CL13" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
@@ -4715,7 +4804,7 @@
         <v>NA</v>
       </c>
       <c r="CP13" s="31"/>
-      <c r="CQ13" s="32"/>
+      <c r="CQ13" s="34"/>
       <c r="CR13" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
@@ -4738,9 +4827,15 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB13" s="35"/>
+      <c r="DB13" s="31"/>
+      <c r="DC13" s="32"/>
+      <c r="DD13" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE13" s="35"/>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>174</v>
       </c>
@@ -4754,7 +4849,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>L5</v>
       </c>
       <c r="F14" s="5">
@@ -4790,7 +4885,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.2222222222222077E-2</v>
       </c>
       <c r="Q14" s="6" t="s">
@@ -4819,7 +4914,7 @@
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.6261574074074075E-2</v>
       </c>
       <c r="AC14" s="20">
@@ -4829,7 +4924,7 @@
         <v>8.9351851851851866E-3</v>
       </c>
       <c r="AE14" s="20">
-        <f t="shared" ref="AE14:AE22" si="27">AB14-AC14-AD14</f>
+        <f t="shared" ref="AE14:AE22" si="28">AB14-AC14-AD14</f>
         <v>4.297453703703704E-2</v>
       </c>
       <c r="AF14" s="21">
@@ -4848,13 +4943,13 @@
       <c r="AK14" s="31"/>
       <c r="AL14" s="32"/>
       <c r="AM14" s="33" t="str">
-        <f t="shared" ref="AM14:AM22" si="28">IF(AK14=0,"NA",AL14-$AC14)</f>
+        <f t="shared" ref="AM14:AM22" si="29">IF(AK14=0,"NA",AL14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AN14" s="31"/>
       <c r="AO14" s="32"/>
       <c r="AP14" s="33" t="str">
-        <f t="shared" ref="AP14:AP22" si="29">IF(AN14=0,"NA",AO14-$AC14)</f>
+        <f t="shared" ref="AP14:AP22" si="30">IF(AN14=0,"NA",AO14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AQ14" s="31">
@@ -4864,13 +4959,13 @@
         <v>1.1643518518518518E-2</v>
       </c>
       <c r="AS14" s="33">
-        <f t="shared" ref="AS14:AS22" si="30">IF(AQ14=0,"NA",AR14-$AC14)</f>
+        <f t="shared" ref="AS14:AS22" si="31">IF(AQ14=0,"NA",AR14-$AC14)</f>
         <v>7.2916666666666668E-3</v>
       </c>
       <c r="AT14" s="31"/>
       <c r="AU14" s="32"/>
       <c r="AV14" s="33" t="str">
-        <f t="shared" ref="AV14:AV22" si="31">IF(AT14=0,"NA",AU14-$AC14)</f>
+        <f t="shared" ref="AV14:AV22" si="32">IF(AT14=0,"NA",AU14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AW14" s="31"/>
@@ -4882,43 +4977,43 @@
       <c r="AZ14" s="31"/>
       <c r="BA14" s="34"/>
       <c r="BB14" s="33" t="str">
-        <f t="shared" ref="BB14:BB22" si="32">IF(AZ14=0,"NA",BA14-$AC14)</f>
+        <f t="shared" ref="BB14:BB22" si="33">IF(AZ14=0,"NA",BA14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BC14" s="31"/>
       <c r="BD14" s="32"/>
       <c r="BE14" s="33" t="str">
-        <f t="shared" ref="BE14:BE22" si="33">IF(BC14=0,"NA",BD14-$AC14)</f>
+        <f t="shared" ref="BE14:BE22" si="34">IF(BC14=0,"NA",BD14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BF14" s="31"/>
       <c r="BG14" s="34"/>
       <c r="BH14" s="33" t="str">
-        <f t="shared" ref="BH14:BH22" si="34">IF(BF14=0,"NA",BG14-$AC14)</f>
+        <f t="shared" ref="BH14:BH22" si="35">IF(BF14=0,"NA",BG14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BI14" s="31"/>
       <c r="BJ14" s="34"/>
       <c r="BK14" s="33" t="str">
-        <f t="shared" ref="BK14:BK22" si="35">IF(BI14=0,"NA",BJ14-$AC14)</f>
+        <f t="shared" ref="BK14:BK22" si="36">IF(BI14=0,"NA",BJ14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BL14" s="31"/>
       <c r="BM14" s="32"/>
       <c r="BN14" s="33" t="str">
-        <f t="shared" ref="BN14:BN22" si="36">IF(BL14=0,"NA",BM14-$AC14)</f>
+        <f t="shared" ref="BN14:BN22" si="37">IF(BL14=0,"NA",BM14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BO14" s="31"/>
       <c r="BP14" s="32"/>
       <c r="BQ14" s="33" t="str">
-        <f t="shared" ref="BQ14:BQ22" si="37">IF(BO14=0,"NA",BP14-$AC14)</f>
+        <f t="shared" ref="BQ14:BQ22" si="38">IF(BO14=0,"NA",BP14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BR14" s="31"/>
       <c r="BS14" s="34"/>
       <c r="BT14" s="33" t="str">
-        <f t="shared" ref="BT14:BT22" si="38">IF(BR14=0,"NA",BS14-$AC14)</f>
+        <f t="shared" ref="BT14:BT22" si="39">IF(BR14=0,"NA",BS14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BU14" s="31"/>
@@ -4981,19 +5076,25 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY14" s="31">
+      <c r="CY14" s="31"/>
+      <c r="CZ14" s="32"/>
+      <c r="DA14" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB14" s="31">
         <v>4</v>
       </c>
-      <c r="CZ14" s="34">
+      <c r="DC14" s="34">
         <v>4.4212962962962956E-3</v>
       </c>
-      <c r="DA14" s="33">
-        <f t="shared" ref="DA14:DA22" si="39">IF(CY14=0,"NA",CZ14-$AC14)</f>
+      <c r="DD14" s="33">
+        <f t="shared" ref="DD14:DD22" si="40">IF(DB14=0,"NA",DC14-$AC14)</f>
         <v>6.9444444444444024E-5</v>
       </c>
-      <c r="DB14" s="35"/>
+      <c r="DE14" s="35"/>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>174</v>
       </c>
@@ -5007,7 +5108,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>L4</v>
       </c>
       <c r="F15" s="5">
@@ -5043,7 +5144,7 @@
         <v>3</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.8333333333333459E-2</v>
       </c>
       <c r="Q15" s="6" t="s">
@@ -5072,7 +5173,7 @@
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.8854166666666673E-2</v>
       </c>
       <c r="AC15" s="20">
@@ -5082,7 +5183,7 @@
         <v>1.2719907407407407E-2</v>
       </c>
       <c r="AE15" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.2094907407407414E-2</v>
       </c>
       <c r="AF15" s="21">
@@ -5101,7 +5202,7 @@
       <c r="AK15" s="31"/>
       <c r="AL15" s="34"/>
       <c r="AM15" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AN15" s="31">
@@ -5111,7 +5212,7 @@
         <v>1.9988425925925927E-2</v>
       </c>
       <c r="AP15" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.5949074074074074E-2</v>
       </c>
       <c r="AQ15" s="31">
@@ -5121,13 +5222,13 @@
         <v>4.0381944444444443E-2</v>
       </c>
       <c r="AS15" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3.6342592592592593E-2</v>
       </c>
       <c r="AT15" s="31"/>
       <c r="AU15" s="32"/>
       <c r="AV15" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AW15" s="31"/>
@@ -5139,19 +5240,19 @@
       <c r="AZ15" s="31"/>
       <c r="BA15" s="32"/>
       <c r="BB15" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BC15" s="31"/>
       <c r="BD15" s="32"/>
       <c r="BE15" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF15" s="31"/>
       <c r="BG15" s="34"/>
       <c r="BH15" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BI15" s="31">
@@ -5161,25 +5262,25 @@
         <v>4.3749999999999995E-3</v>
       </c>
       <c r="BK15" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.3564814814814742E-4</v>
       </c>
       <c r="BL15" s="31"/>
       <c r="BM15" s="32"/>
       <c r="BN15" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BO15" s="31"/>
       <c r="BP15" s="32"/>
       <c r="BQ15" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BR15" s="31"/>
       <c r="BS15" s="34"/>
       <c r="BT15" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BU15" s="31"/>
@@ -5207,7 +5308,7 @@
         <v>NA</v>
       </c>
       <c r="CG15" s="31"/>
-      <c r="CH15" s="32"/>
+      <c r="CH15" s="71"/>
       <c r="CI15" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
@@ -5242,19 +5343,25 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY15" s="31">
+      <c r="CY15" s="31"/>
+      <c r="CZ15" s="32"/>
+      <c r="DA15" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB15" s="31">
         <v>2</v>
       </c>
-      <c r="CZ15" s="34">
+      <c r="DC15" s="34">
         <v>4.8726851851851856E-3</v>
       </c>
-      <c r="DA15" s="33">
-        <f t="shared" si="39"/>
+      <c r="DD15" s="33">
+        <f t="shared" si="40"/>
         <v>8.333333333333335E-4</v>
       </c>
-      <c r="DB15" s="35"/>
+      <c r="DE15" s="35"/>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>174</v>
       </c>
@@ -5268,7 +5375,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>D6</v>
       </c>
       <c r="F16" s="5">
@@ -5304,7 +5411,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.6250000000000022E-2</v>
       </c>
       <c r="Q16" s="6" t="s">
@@ -5335,7 +5442,7 @@
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9143518518518521E-2</v>
       </c>
       <c r="AC16" s="20">
@@ -5345,7 +5452,7 @@
         <v>2.0254629629629629E-2</v>
       </c>
       <c r="AE16" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.5081018518518527E-2</v>
       </c>
       <c r="AF16" s="21">
@@ -5364,25 +5471,25 @@
       <c r="AK16" s="31"/>
       <c r="AL16" s="34"/>
       <c r="AM16" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AN16" s="31"/>
       <c r="AO16" s="34"/>
       <c r="AP16" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AQ16" s="31"/>
       <c r="AR16" s="34"/>
       <c r="AS16" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AT16" s="31"/>
       <c r="AU16" s="34"/>
       <c r="AV16" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AW16" s="31"/>
@@ -5394,43 +5501,43 @@
       <c r="AZ16" s="31"/>
       <c r="BA16" s="34"/>
       <c r="BB16" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BC16" s="31"/>
       <c r="BD16" s="34"/>
       <c r="BE16" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF16" s="31"/>
       <c r="BG16" s="34"/>
       <c r="BH16" s="57" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BI16" s="41"/>
       <c r="BJ16" s="34"/>
       <c r="BK16" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BL16" s="31"/>
       <c r="BM16" s="32"/>
       <c r="BN16" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BO16" s="31"/>
       <c r="BP16" s="32"/>
       <c r="BQ16" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BR16" s="31"/>
       <c r="BS16" s="57"/>
       <c r="BT16" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BU16" s="31"/>
@@ -5496,12 +5603,18 @@
       <c r="CY16" s="31"/>
       <c r="CZ16" s="34"/>
       <c r="DA16" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB16" s="35"/>
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB16" s="31"/>
+      <c r="DC16" s="34"/>
+      <c r="DD16" s="33" t="str">
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="DE16" s="35"/>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A17" s="93" t="s">
         <v>195</v>
       </c>
@@ -5515,7 +5628,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>E6</v>
       </c>
       <c r="F17" s="5">
@@ -5551,7 +5664,7 @@
         <v>3</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.3611111111111127E-2</v>
       </c>
       <c r="Q17" s="6" t="s">
@@ -5582,7 +5695,7 @@
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.4189814814814821E-2</v>
       </c>
       <c r="AC17" s="20">
@@ -5590,7 +5703,7 @@
       </c>
       <c r="AD17" s="20"/>
       <c r="AE17" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.0358796296296302E-2</v>
       </c>
       <c r="AF17" s="21">
@@ -5609,25 +5722,25 @@
       <c r="AK17" s="31"/>
       <c r="AL17" s="34"/>
       <c r="AM17" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AN17" s="31"/>
       <c r="AO17" s="34"/>
       <c r="AP17" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AQ17" s="31"/>
       <c r="AR17" s="34"/>
       <c r="AS17" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AT17" s="31"/>
       <c r="AU17" s="34"/>
       <c r="AV17" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AW17" s="31"/>
@@ -5639,19 +5752,19 @@
       <c r="AZ17" s="31"/>
       <c r="BA17" s="34"/>
       <c r="BB17" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BC17" s="31"/>
       <c r="BD17" s="34"/>
       <c r="BE17" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF17" s="31"/>
       <c r="BG17" s="34"/>
       <c r="BH17" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BI17" s="41">
@@ -5661,19 +5774,19 @@
         <v>3.8541666666666668E-3</v>
       </c>
       <c r="BK17" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2.3148148148148442E-5</v>
       </c>
       <c r="BL17" s="41"/>
       <c r="BM17" s="34"/>
       <c r="BN17" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BO17" s="41"/>
       <c r="BP17" s="34"/>
       <c r="BQ17" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BR17" s="31">
@@ -5683,7 +5796,7 @@
         <v>2.4965277777777781E-2</v>
       </c>
       <c r="BT17" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2.1134259259259262E-2</v>
       </c>
       <c r="BU17" s="31"/>
@@ -5704,21 +5817,21 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD17" s="31">
+      <c r="CD17" s="31"/>
+      <c r="CE17" s="34"/>
+      <c r="CF17" s="33" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG17" s="31">
         <v>2</v>
       </c>
-      <c r="CE17" s="34">
+      <c r="CH17" s="34">
         <v>6.1805555555555563E-3</v>
       </c>
-      <c r="CF17" s="33">
-        <f t="shared" si="16"/>
+      <c r="CI17" s="33">
+        <f t="shared" si="17"/>
         <v>2.349537037037038E-3</v>
-      </c>
-      <c r="CG17" s="31"/>
-      <c r="CH17" s="34"/>
-      <c r="CI17" s="33" t="str">
-        <f t="shared" si="17"/>
-        <v>NA</v>
       </c>
       <c r="CJ17" s="31"/>
       <c r="CK17" s="34"/>
@@ -5753,12 +5866,18 @@
       <c r="CY17" s="31"/>
       <c r="CZ17" s="34"/>
       <c r="DA17" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB17" s="35"/>
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB17" s="31"/>
+      <c r="DC17" s="34"/>
+      <c r="DD17" s="33" t="str">
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="DE17" s="35"/>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A18" s="93" t="s">
         <v>195</v>
       </c>
@@ -5772,7 +5891,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>E4</v>
       </c>
       <c r="F18" s="5">
@@ -5808,7 +5927,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.0138888888888917E-2</v>
       </c>
       <c r="Q18" s="6" t="s">
@@ -5841,7 +5960,7 @@
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.0335648148148145E-2</v>
       </c>
       <c r="AC18" s="20">
@@ -5851,7 +5970,7 @@
         <v>1.4201388888888888E-2</v>
       </c>
       <c r="AE18" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.2314814814814812E-2</v>
       </c>
       <c r="AF18" s="21">
@@ -5870,25 +5989,25 @@
       <c r="AK18" s="31"/>
       <c r="AL18" s="34"/>
       <c r="AM18" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AN18" s="31"/>
       <c r="AO18" s="34"/>
       <c r="AP18" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AQ18" s="31"/>
       <c r="AR18" s="34"/>
       <c r="AS18" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AT18" s="31"/>
       <c r="AU18" s="34"/>
       <c r="AV18" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AW18" s="31"/>
@@ -5900,19 +6019,19 @@
       <c r="AZ18" s="31"/>
       <c r="BA18" s="34"/>
       <c r="BB18" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BC18" s="31"/>
       <c r="BD18" s="34"/>
       <c r="BE18" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF18" s="31"/>
       <c r="BG18" s="34"/>
       <c r="BH18" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BI18" s="31">
@@ -5922,19 +6041,19 @@
         <v>1.7048611111111112E-2</v>
       </c>
       <c r="BK18" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.3229166666666667E-2</v>
       </c>
       <c r="BL18" s="31"/>
       <c r="BM18" s="34"/>
       <c r="BN18" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BO18" s="31"/>
       <c r="BP18" s="34"/>
       <c r="BQ18" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BR18" s="31">
@@ -5944,7 +6063,7 @@
         <v>2.3391203703703702E-2</v>
       </c>
       <c r="BT18" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.9571759259259257E-2</v>
       </c>
       <c r="BU18" s="31"/>
@@ -6010,12 +6129,18 @@
       <c r="CY18" s="31"/>
       <c r="CZ18" s="34"/>
       <c r="DA18" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB18" s="35"/>
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB18" s="31"/>
+      <c r="DC18" s="34"/>
+      <c r="DD18" s="33" t="str">
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="DE18" s="35"/>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A19" s="93" t="s">
         <v>195</v>
       </c>
@@ -6029,7 +6154,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>E5</v>
       </c>
       <c r="F19" s="5">
@@ -6065,7 +6190,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="Q19" s="6" t="s">
@@ -6098,7 +6223,7 @@
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.6354166666666664E-2</v>
       </c>
       <c r="AC19" s="20">
@@ -6108,7 +6233,7 @@
         <v>1.1076388888888887E-2</v>
       </c>
       <c r="AE19" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.1342592592592591E-2</v>
       </c>
       <c r="AF19" s="21">
@@ -6127,25 +6252,25 @@
       <c r="AK19" s="31"/>
       <c r="AL19" s="34"/>
       <c r="AM19" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AN19" s="31"/>
       <c r="AO19" s="34"/>
       <c r="AP19" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AQ19" s="31"/>
       <c r="AR19" s="34"/>
       <c r="AS19" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AT19" s="31"/>
       <c r="AU19" s="34"/>
       <c r="AV19" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AW19" s="31"/>
@@ -6157,19 +6282,19 @@
       <c r="AZ19" s="31"/>
       <c r="BA19" s="34"/>
       <c r="BB19" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BC19" s="31"/>
       <c r="BD19" s="34"/>
       <c r="BE19" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF19" s="31"/>
       <c r="BG19" s="34"/>
       <c r="BH19" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BI19" s="31">
@@ -6179,25 +6304,25 @@
         <v>4.2476851851851851E-3</v>
       </c>
       <c r="BK19" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.1249999999999941E-4</v>
       </c>
       <c r="BL19" s="31"/>
       <c r="BM19" s="34"/>
       <c r="BN19" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BO19" s="31"/>
       <c r="BP19" s="34"/>
       <c r="BQ19" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BR19" s="31"/>
       <c r="BS19" s="32"/>
       <c r="BT19" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BU19" s="31"/>
@@ -6263,18 +6388,24 @@
       <c r="CY19" s="31"/>
       <c r="CZ19" s="34"/>
       <c r="DA19" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB19" s="35"/>
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB19" s="31"/>
+      <c r="DC19" s="34"/>
+      <c r="DD19" s="33" t="str">
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="DE19" s="35"/>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="F20" s="5"/>
@@ -6294,7 +6425,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q20" s="6"/>
@@ -6309,13 +6440,13 @@
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC20" s="20"/>
       <c r="AD20" s="20"/>
       <c r="AE20" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AF20" s="21"/>
@@ -6326,25 +6457,25 @@
       <c r="AK20" s="31"/>
       <c r="AL20" s="34"/>
       <c r="AM20" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AN20" s="31"/>
       <c r="AO20" s="34"/>
       <c r="AP20" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AQ20" s="31"/>
       <c r="AR20" s="34"/>
       <c r="AS20" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AT20" s="31"/>
       <c r="AU20" s="34"/>
       <c r="AV20" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AW20" s="31"/>
@@ -6356,43 +6487,43 @@
       <c r="AZ20" s="31"/>
       <c r="BA20" s="34"/>
       <c r="BB20" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BC20" s="31"/>
       <c r="BD20" s="34"/>
       <c r="BE20" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF20" s="31"/>
       <c r="BG20" s="34"/>
       <c r="BH20" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BI20" s="31"/>
       <c r="BJ20" s="34"/>
       <c r="BK20" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BL20" s="31"/>
       <c r="BM20" s="34"/>
       <c r="BN20" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BO20" s="31"/>
       <c r="BP20" s="34"/>
       <c r="BQ20" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BR20" s="31"/>
       <c r="BS20" s="34"/>
       <c r="BT20" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BU20" s="31"/>
@@ -6458,18 +6589,24 @@
       <c r="CY20" s="31"/>
       <c r="CZ20" s="34"/>
       <c r="DA20" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB20" s="35"/>
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB20" s="31"/>
+      <c r="DC20" s="34"/>
+      <c r="DD20" s="33" t="str">
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="DE20" s="35"/>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="F21" s="5"/>
@@ -6489,7 +6626,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q21" s="5"/>
@@ -6504,13 +6641,13 @@
       <c r="Z21" s="79"/>
       <c r="AA21" s="79"/>
       <c r="AB21" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC21" s="80"/>
       <c r="AD21" s="80"/>
       <c r="AE21" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AF21" s="21"/>
@@ -6521,25 +6658,25 @@
       <c r="AK21" s="31"/>
       <c r="AL21" s="32"/>
       <c r="AM21" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AN21" s="31"/>
       <c r="AO21" s="32"/>
       <c r="AP21" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AQ21" s="31"/>
       <c r="AR21" s="32"/>
       <c r="AS21" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AT21" s="31"/>
       <c r="AU21" s="32"/>
       <c r="AV21" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AW21" s="31"/>
@@ -6551,43 +6688,43 @@
       <c r="AZ21" s="31"/>
       <c r="BA21" s="34"/>
       <c r="BB21" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BC21" s="31"/>
       <c r="BD21" s="32"/>
       <c r="BE21" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF21" s="31"/>
       <c r="BG21" s="32"/>
       <c r="BH21" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BI21" s="31"/>
       <c r="BJ21" s="57"/>
       <c r="BK21" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BL21" s="31"/>
       <c r="BM21" s="32"/>
       <c r="BN21" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BO21" s="31"/>
       <c r="BP21" s="32"/>
       <c r="BQ21" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BR21" s="31"/>
       <c r="BS21" s="32"/>
       <c r="BT21" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BU21" s="31"/>
@@ -6645,7 +6782,7 @@
         <v>NA</v>
       </c>
       <c r="CV21" s="31"/>
-      <c r="CW21" s="57"/>
+      <c r="CW21" s="32"/>
       <c r="CX21" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
@@ -6653,18 +6790,24 @@
       <c r="CY21" s="31"/>
       <c r="CZ21" s="57"/>
       <c r="DA21" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB21" s="35"/>
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB21" s="31"/>
+      <c r="DC21" s="57"/>
+      <c r="DD21" s="33" t="str">
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="DE21" s="35"/>
     </row>
-    <row r="22" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:109" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="77" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="F22" s="11"/>
@@ -6684,7 +6827,7 @@
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q22" s="11"/>
@@ -6699,13 +6842,13 @@
       <c r="Z22" s="70"/>
       <c r="AA22" s="70"/>
       <c r="AB22" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC22" s="82"/>
       <c r="AD22" s="82"/>
       <c r="AE22" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AF22" s="24"/>
@@ -6716,25 +6859,25 @@
       <c r="AK22" s="38"/>
       <c r="AL22" s="40"/>
       <c r="AM22" s="42" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AN22" s="38"/>
       <c r="AO22" s="40"/>
       <c r="AP22" s="42" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AQ22" s="38"/>
       <c r="AR22" s="85"/>
       <c r="AS22" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AT22" s="38"/>
       <c r="AU22" s="85"/>
       <c r="AV22" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AW22" s="38"/>
@@ -6746,43 +6889,43 @@
       <c r="AZ22" s="38"/>
       <c r="BA22" s="40"/>
       <c r="BB22" s="42" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BC22" s="38"/>
       <c r="BD22" s="85"/>
       <c r="BE22" s="42" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF22" s="38"/>
       <c r="BG22" s="85"/>
       <c r="BH22" s="42" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BI22" s="38"/>
       <c r="BJ22" s="40"/>
       <c r="BK22" s="42" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BL22" s="38"/>
       <c r="BM22" s="85"/>
       <c r="BN22" s="42" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BO22" s="38"/>
       <c r="BP22" s="85"/>
       <c r="BQ22" s="42" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BR22" s="38"/>
       <c r="BS22" s="85"/>
       <c r="BT22" s="42" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BU22" s="38"/>
@@ -6828,7 +6971,7 @@
         <v>NA</v>
       </c>
       <c r="CP22" s="38"/>
-      <c r="CQ22" s="40"/>
+      <c r="CQ22" s="85"/>
       <c r="CR22" s="42" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
@@ -6848,10 +6991,16 @@
       <c r="CY22" s="38"/>
       <c r="CZ22" s="40"/>
       <c r="DA22" s="42" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB22" s="39"/>
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB22" s="38"/>
+      <c r="DC22" s="40"/>
+      <c r="DD22" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="DE22" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/URUVS/Datasheets/URUV/05.2024/May_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/05.2024/May_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\05.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AEC393-A946-42F0-A71E-38C21154E389}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388AA432-86DF-4A5F-9065-BD1836126398}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11670" yWindow="4000" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecordingData_05.2024" sheetId="2" r:id="rId1"/>
@@ -879,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1000,6 +1000,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1282,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
   <dimension ref="A1:DE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7013,8 +7014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E619138-F039-4841-928C-9D919C758651}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7040,19 +7041,43 @@
       <c r="A2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="56"/>
+      <c r="B2">
+        <v>93</v>
+      </c>
+      <c r="C2" s="94">
+        <v>45444</v>
+      </c>
+      <c r="D2" s="56">
+        <v>0.32083333333333336</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="56"/>
+      <c r="B3">
+        <v>88</v>
+      </c>
+      <c r="C3" s="94">
+        <v>45442</v>
+      </c>
+      <c r="D3" s="56">
+        <v>0.68472222222222223</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="56"/>
+        <v>112</v>
+      </c>
+      <c r="B4">
+        <v>89</v>
+      </c>
+      <c r="C4" s="94">
+        <v>45442</v>
+      </c>
+      <c r="D4" s="56">
+        <v>0.6791666666666667</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/URUVS/Datasheets/URUV/05.2024/May_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/05.2024/May_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\05.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388AA432-86DF-4A5F-9065-BD1836126398}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5624FC55-7BDF-44EA-AC74-96AB138A59BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11670" yWindow="4000" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecordingData_05.2024" sheetId="2" r:id="rId1"/>
@@ -879,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -919,10 +919,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -991,8 +989,6 @@
     <xf numFmtId="21" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1281,13 +1277,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:DE22"/>
+  <dimension ref="A1:DE19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BB13" sqref="BB13"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1304,7 +1300,7 @@
     <col min="51" max="51" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="8.7265625" style="73"/>
+    <col min="76" max="76" width="8.7265625" style="71"/>
     <col min="78" max="78" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="18.36328125" bestFit="1" customWidth="1"/>
@@ -1328,7 +1324,7 @@
       <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="73" t="s">
         <v>98</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1421,223 +1417,223 @@
       <c r="AI1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" s="60" t="s">
+      <c r="AJ1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="AK1" s="83" t="s">
+      <c r="AK1" s="81" t="s">
         <v>48</v>
       </c>
       <c r="AL1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="60" t="s">
+      <c r="AM1" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" s="83" t="s">
+      <c r="AN1" s="81" t="s">
         <v>55</v>
       </c>
       <c r="AO1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AP1" s="60" t="s">
+      <c r="AP1" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="AQ1" s="83" t="s">
+      <c r="AQ1" s="81" t="s">
         <v>39</v>
       </c>
       <c r="AR1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="60" t="s">
+      <c r="AS1" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="83" t="s">
+      <c r="AT1" s="81" t="s">
         <v>52</v>
       </c>
       <c r="AU1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AV1" s="60" t="s">
+      <c r="AV1" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AW1" s="83" t="s">
+      <c r="AW1" s="81" t="s">
         <v>129</v>
       </c>
       <c r="AX1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="AY1" s="60" t="s">
+      <c r="AY1" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="AZ1" s="83" t="s">
+      <c r="AZ1" s="81" t="s">
         <v>36</v>
       </c>
       <c r="BA1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="BB1" s="60" t="s">
+      <c r="BB1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="BC1" s="83" t="s">
+      <c r="BC1" s="81" t="s">
         <v>45</v>
       </c>
       <c r="BD1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="60" t="s">
+      <c r="BE1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="BF1" s="83" t="s">
+      <c r="BF1" s="81" t="s">
         <v>42</v>
       </c>
       <c r="BG1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="BH1" s="60" t="s">
+      <c r="BH1" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="BI1" s="83" t="s">
+      <c r="BI1" s="81" t="s">
         <v>50</v>
       </c>
       <c r="BJ1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="BK1" s="60" t="s">
+      <c r="BK1" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="BL1" s="83" t="s">
+      <c r="BL1" s="81" t="s">
         <v>59</v>
       </c>
       <c r="BM1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="BN1" s="60" t="s">
+      <c r="BN1" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="BO1" s="83" t="s">
+      <c r="BO1" s="81" t="s">
         <v>62</v>
       </c>
       <c r="BP1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="BQ1" s="60" t="s">
+      <c r="BQ1" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="BR1" s="83" t="s">
+      <c r="BR1" s="81" t="s">
         <v>117</v>
       </c>
       <c r="BS1" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="BT1" s="60" t="s">
+      <c r="BT1" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="BU1" s="83" t="s">
+      <c r="BU1" s="81" t="s">
         <v>120</v>
       </c>
       <c r="BV1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="BW1" s="60" t="s">
+      <c r="BW1" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="BX1" s="84" t="s">
+      <c r="BX1" s="82" t="s">
         <v>126</v>
       </c>
       <c r="BY1" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="BZ1" s="60" t="s">
+      <c r="BZ1" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="CA1" s="83" t="s">
+      <c r="CA1" s="81" t="s">
         <v>138</v>
       </c>
       <c r="CB1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="CC1" s="60" t="s">
+      <c r="CC1" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="CD1" s="83" t="s">
+      <c r="CD1" s="81" t="s">
         <v>199</v>
       </c>
       <c r="CE1" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="CF1" s="60" t="s">
+      <c r="CF1" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="CG1" s="83" t="s">
+      <c r="CG1" s="81" t="s">
         <v>123</v>
       </c>
       <c r="CH1" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="CI1" s="60" t="s">
+      <c r="CI1" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="CJ1" s="83" t="s">
+      <c r="CJ1" s="81" t="s">
         <v>132</v>
       </c>
       <c r="CK1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="CL1" s="60" t="s">
+      <c r="CL1" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="CM1" s="83" t="s">
+      <c r="CM1" s="81" t="s">
         <v>135</v>
       </c>
       <c r="CN1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="CO1" s="60" t="s">
+      <c r="CO1" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="CP1" s="83" t="s">
+      <c r="CP1" s="81" t="s">
         <v>65</v>
       </c>
       <c r="CQ1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="CR1" s="60" t="s">
+      <c r="CR1" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="CS1" s="83" t="s">
+      <c r="CS1" s="81" t="s">
         <v>189</v>
       </c>
       <c r="CT1" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="CU1" s="60" t="s">
+      <c r="CU1" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="CV1" s="83" t="s">
+      <c r="CV1" s="81" t="s">
         <v>141</v>
       </c>
       <c r="CW1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="CX1" s="60" t="s">
+      <c r="CX1" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="CY1" s="83" t="s">
+      <c r="CY1" s="81" t="s">
         <v>192</v>
       </c>
       <c r="CZ1" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="DA1" s="60" t="s">
+      <c r="DA1" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="DB1" s="83" t="s">
+      <c r="DB1" s="81" t="s">
         <v>12</v>
       </c>
       <c r="DC1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="DD1" s="60" t="s">
+      <c r="DD1" s="58" t="s">
         <v>33</v>
       </c>
       <c r="DE1" s="28" t="s">
@@ -1657,7 +1653,7 @@
       <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="76" t="str">
+      <c r="E2" s="74" t="str">
         <f>C2&amp;""&amp;D2</f>
         <v>D2</v>
       </c>
@@ -1757,168 +1753,168 @@
         <f t="shared" ref="AM2:AM13" si="1">IF(AK2=0,"NA",AL2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="AN2" s="59">
+      <c r="AN2" s="57">
         <v>1</v>
       </c>
-      <c r="AO2" s="72">
+      <c r="AO2" s="70">
         <v>3.9467592592592596E-2</v>
       </c>
       <c r="AP2" s="33">
         <f t="shared" ref="AP2:AP13" si="2">IF(AN2=0,"NA",AO2-$AC2)</f>
         <v>3.5659722222222225E-2</v>
       </c>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="58"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="56"/>
       <c r="AS2" s="33" t="str">
         <f t="shared" ref="AS2:AS13" si="3">IF(AQ2=0,"NA",AR2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="58"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="56"/>
       <c r="AV2" s="33" t="str">
         <f t="shared" ref="AV2:AV13" si="4">IF(AT2=0,"NA",AU2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="58"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="56"/>
       <c r="AY2" s="33" t="str">
-        <f t="shared" ref="AY2:AY22" si="5">IF(AW2=0,"NA",AX2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="72"/>
+        <f t="shared" ref="AY2:AY19" si="5">IF(AW2=0,"NA",AX2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="70"/>
       <c r="BB2" s="33" t="str">
         <f t="shared" ref="BB2:BB13" si="6">IF(AZ2=0,"NA",BA2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="58"/>
+      <c r="BC2" s="57"/>
+      <c r="BD2" s="56"/>
       <c r="BE2" s="33" t="str">
         <f t="shared" ref="BE2:BE13" si="7">IF(BC2=0,"NA",BD2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="BF2" s="59"/>
-      <c r="BG2" s="58"/>
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="56"/>
       <c r="BH2" s="33" t="str">
         <f t="shared" ref="BH2:BH13" si="8">IF(BF2=0,"NA",BG2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="BI2" s="59">
+      <c r="BI2" s="57">
         <v>2</v>
       </c>
-      <c r="BJ2" s="72">
+      <c r="BJ2" s="70">
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="BK2" s="33">
         <f t="shared" ref="BK2:BK13" si="9">IF(BI2=0,"NA",BJ2-$AC2)</f>
         <v>5.2199074074074075E-3</v>
       </c>
-      <c r="BL2" s="59"/>
-      <c r="BM2" s="58"/>
+      <c r="BL2" s="57"/>
+      <c r="BM2" s="56"/>
       <c r="BN2" s="33" t="str">
         <f t="shared" ref="BN2:BN13" si="10">IF(BL2=0,"NA",BM2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="BO2" s="59"/>
-      <c r="BP2" s="58"/>
+      <c r="BO2" s="57"/>
+      <c r="BP2" s="56"/>
       <c r="BQ2" s="33" t="str">
         <f t="shared" ref="BQ2:BQ13" si="11">IF(BO2=0,"NA",BP2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="BR2" s="59">
+      <c r="BR2" s="57">
         <v>3</v>
       </c>
-      <c r="BS2" s="74">
+      <c r="BS2" s="72">
         <v>1.8032407407407407E-2</v>
       </c>
       <c r="BT2" s="33">
         <f t="shared" ref="BT2:BT13" si="12">IF(BR2=0,"NA",BS2-$AC2)</f>
         <v>1.4224537037037036E-2</v>
       </c>
-      <c r="BU2" s="59"/>
-      <c r="BV2" s="58"/>
+      <c r="BU2" s="57"/>
+      <c r="BV2" s="56"/>
       <c r="BW2" s="33" t="str">
-        <f t="shared" ref="BW2:BW22" si="13">IF(BU2=0,"NA",BV2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BX2" s="41"/>
-      <c r="BY2" s="57"/>
+        <f t="shared" ref="BW2:BW19" si="13">IF(BU2=0,"NA",BV2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BX2" s="40"/>
+      <c r="BY2" s="55"/>
       <c r="BZ2" s="33" t="str">
-        <f t="shared" ref="BZ2:BZ22" si="14">IF(BX2=0,"NA",BY2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CA2" s="59">
+        <f t="shared" ref="BZ2:BZ19" si="14">IF(BX2=0,"NA",BY2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CA2" s="57">
         <v>3</v>
       </c>
-      <c r="CB2" s="72">
+      <c r="CB2" s="70">
         <v>3.8425925925925923E-3</v>
       </c>
       <c r="CC2" s="33">
-        <f t="shared" ref="CC2:CC22" si="15">IF(CA2=0,"NA",CB2-$AC2)</f>
+        <f t="shared" ref="CC2:CC19" si="15">IF(CA2=0,"NA",CB2-$AC2)</f>
         <v>3.4722222222221578E-5</v>
       </c>
-      <c r="CD2" s="59">
+      <c r="CD2" s="57">
         <v>1</v>
       </c>
-      <c r="CE2" s="72">
+      <c r="CE2" s="70">
         <v>3.7222222222222219E-2</v>
       </c>
       <c r="CF2" s="33">
-        <f t="shared" ref="CF2:CF22" si="16">IF(CD2=0,"NA",CE2-$AC2)</f>
+        <f t="shared" ref="CF2:CF19" si="16">IF(CD2=0,"NA",CE2-$AC2)</f>
         <v>3.3414351851851848E-2</v>
       </c>
-      <c r="CG2" s="59">
+      <c r="CG2" s="57">
         <v>1</v>
       </c>
-      <c r="CH2" s="72">
+      <c r="CH2" s="70">
         <v>3.2615740740740744E-2</v>
       </c>
       <c r="CI2" s="33">
-        <f t="shared" ref="CI2:CI22" si="17">IF(CG2=0,"NA",CH2-$AC2)</f>
+        <f t="shared" ref="CI2:CI19" si="17">IF(CG2=0,"NA",CH2-$AC2)</f>
         <v>2.8807870370370373E-2</v>
       </c>
-      <c r="CJ2" s="59"/>
-      <c r="CK2" s="72"/>
+      <c r="CJ2" s="57"/>
+      <c r="CK2" s="70"/>
       <c r="CL2" s="33" t="str">
-        <f t="shared" ref="CL2:CL22" si="18">IF(CJ2=0,"NA",CK2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CM2" s="59"/>
-      <c r="CN2" s="72"/>
+        <f t="shared" ref="CL2:CL19" si="18">IF(CJ2=0,"NA",CK2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CM2" s="57"/>
+      <c r="CN2" s="70"/>
       <c r="CO2" s="33" t="str">
-        <f t="shared" ref="CO2:CO22" si="19">IF(CM2=0,"NA",CN2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CP2" s="59"/>
-      <c r="CQ2" s="72"/>
+        <f t="shared" ref="CO2:CO19" si="19">IF(CM2=0,"NA",CN2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CP2" s="57"/>
+      <c r="CQ2" s="70"/>
       <c r="CR2" s="33" t="str">
-        <f t="shared" ref="CR2:CR22" si="20">IF(CP2=0,"NA",CQ2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CS2" s="59">
+        <f t="shared" ref="CR2:CR19" si="20">IF(CP2=0,"NA",CQ2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CS2" s="57">
         <v>1</v>
       </c>
-      <c r="CT2" s="72">
+      <c r="CT2" s="70">
         <v>6.4814814814814813E-3</v>
       </c>
       <c r="CU2" s="33">
-        <f t="shared" ref="CU2:CU22" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
+        <f t="shared" ref="CU2:CU19" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
         <v>2.6736111111111105E-3</v>
       </c>
-      <c r="CV2" s="59"/>
-      <c r="CW2" s="72"/>
+      <c r="CV2" s="57"/>
+      <c r="CW2" s="70"/>
       <c r="CX2" s="33" t="str">
-        <f t="shared" ref="CX2:CX22" si="22">IF(CV2=0,"NA",CW2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CY2" s="59"/>
-      <c r="CZ2" s="72"/>
+        <f t="shared" ref="CX2:CX19" si="22">IF(CV2=0,"NA",CW2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CY2" s="57"/>
+      <c r="CZ2" s="70"/>
       <c r="DA2" s="33" t="str">
-        <f t="shared" ref="DA2:DA22" si="23">IF(CY2=0,"NA",CZ2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="DB2" s="59"/>
-      <c r="DC2" s="72"/>
+        <f t="shared" ref="DA2:DA19" si="23">IF(CY2=0,"NA",CZ2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="DB2" s="57"/>
+      <c r="DC2" s="70"/>
       <c r="DD2" s="33" t="str">
         <f t="shared" ref="DD2:DD13" si="24">IF(DB2=0,"NA",DC2-$AC2)</f>
         <v>NA</v>
@@ -1938,8 +1934,8 @@
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="76" t="str">
-        <f t="shared" ref="E3:E22" si="25">C3&amp;""&amp;D3</f>
+      <c r="E3" s="74" t="str">
+        <f t="shared" ref="E3:E19" si="25">C3&amp;""&amp;D3</f>
         <v>E1</v>
       </c>
       <c r="F3" s="5">
@@ -1975,7 +1971,7 @@
         <v>3</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" ref="P3:P22" si="26">I3-H3</f>
+        <f t="shared" ref="P3:P19" si="26">I3-H3</f>
         <v>7.3611111111111183E-2</v>
       </c>
       <c r="Q3" s="6" t="s">
@@ -2004,7 +2000,7 @@
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
       <c r="AB3" s="20">
-        <f t="shared" ref="AB3:AB22" si="27">SUM(V3:AA3)</f>
+        <f t="shared" ref="AB3:AB19" si="27">SUM(V3:AA3)</f>
         <v>4.5821759259259257E-2</v>
       </c>
       <c r="AC3" s="20">
@@ -2118,8 +2114,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX3" s="41"/>
-      <c r="BY3" s="57"/>
+      <c r="BX3" s="40"/>
+      <c r="BY3" s="55"/>
       <c r="BZ3" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -2203,7 +2199,7 @@
       <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="76" t="str">
+      <c r="E4" s="74" t="str">
         <f t="shared" si="25"/>
         <v>E2</v>
       </c>
@@ -2383,10 +2379,10 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX4" s="41">
+      <c r="BX4" s="40">
         <v>1</v>
       </c>
-      <c r="BY4" s="57">
+      <c r="BY4" s="55">
         <v>1.1342592592592592E-2</v>
       </c>
       <c r="BZ4" s="33">
@@ -2468,7 +2464,7 @@
       <c r="D5" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="76" t="str">
+      <c r="E5" s="74" t="str">
         <f t="shared" si="25"/>
         <v>D3</v>
       </c>
@@ -2648,8 +2644,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX5" s="41"/>
-      <c r="BY5" s="57"/>
+      <c r="BX5" s="40"/>
+      <c r="BY5" s="55"/>
       <c r="BZ5" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -2729,7 +2725,7 @@
       <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="76" t="str">
+      <c r="E6" s="74" t="str">
         <f t="shared" si="25"/>
         <v>E3</v>
       </c>
@@ -2913,10 +2909,10 @@
         <f t="shared" si="13"/>
         <v>2.6875000000000003E-2</v>
       </c>
-      <c r="BX6" s="41">
+      <c r="BX6" s="40">
         <v>2</v>
       </c>
-      <c r="BY6" s="57">
+      <c r="BY6" s="55">
         <v>3.0254629629629631E-2</v>
       </c>
       <c r="BZ6" s="33">
@@ -3006,7 +3002,7 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="76" t="str">
+      <c r="E7" s="74" t="str">
         <f t="shared" si="25"/>
         <v>L1</v>
       </c>
@@ -3180,8 +3176,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX7" s="41"/>
-      <c r="BY7" s="57"/>
+      <c r="BX7" s="40"/>
+      <c r="BY7" s="55"/>
       <c r="BZ7" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -3277,7 +3273,7 @@
       <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="76" t="str">
+      <c r="E8" s="74" t="str">
         <f t="shared" si="25"/>
         <v>L2</v>
       </c>
@@ -3382,7 +3378,7 @@
       <c r="AN8" s="31">
         <v>3</v>
       </c>
-      <c r="AO8" s="71">
+      <c r="AO8" s="69">
         <v>8.2407407407407412E-3</v>
       </c>
       <c r="AP8" s="33">
@@ -3467,10 +3463,10 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX8" s="41">
+      <c r="BX8" s="40">
         <v>1</v>
       </c>
-      <c r="BY8" s="57">
+      <c r="BY8" s="55">
         <v>1.4444444444444446E-2</v>
       </c>
       <c r="BZ8" s="33">
@@ -3514,19 +3510,19 @@
         <v>NA</v>
       </c>
       <c r="CS8" s="31"/>
-      <c r="CT8" s="71"/>
+      <c r="CT8" s="69"/>
       <c r="CU8" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="CV8" s="31"/>
-      <c r="CW8" s="71"/>
+      <c r="CW8" s="69"/>
       <c r="CX8" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
       <c r="CY8" s="31"/>
-      <c r="CZ8" s="71"/>
+      <c r="CZ8" s="69"/>
       <c r="DA8" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
@@ -3534,7 +3530,7 @@
       <c r="DB8" s="31">
         <v>2</v>
       </c>
-      <c r="DC8" s="71">
+      <c r="DC8" s="69">
         <v>5.9837962962962961E-3</v>
       </c>
       <c r="DD8" s="33">
@@ -3556,7 +3552,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="76" t="str">
+      <c r="E9" s="74" t="str">
         <f t="shared" si="25"/>
         <v>D1</v>
       </c>
@@ -3732,8 +3728,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX9" s="41"/>
-      <c r="BY9" s="57"/>
+      <c r="BX9" s="40"/>
+      <c r="BY9" s="55"/>
       <c r="BZ9" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -3779,25 +3775,25 @@
         <v>NA</v>
       </c>
       <c r="CS9" s="31"/>
-      <c r="CT9" s="57"/>
+      <c r="CT9" s="55"/>
       <c r="CU9" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="CV9" s="31"/>
-      <c r="CW9" s="57"/>
+      <c r="CW9" s="55"/>
       <c r="CX9" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
       <c r="CY9" s="31"/>
-      <c r="CZ9" s="57"/>
+      <c r="CZ9" s="55"/>
       <c r="DA9" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
       <c r="DB9" s="31"/>
-      <c r="DC9" s="57"/>
+      <c r="DC9" s="55"/>
       <c r="DD9" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
@@ -3817,7 +3813,7 @@
       <c r="D10" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="76" t="str">
+      <c r="E10" s="74" t="str">
         <f t="shared" si="25"/>
         <v>L3</v>
       </c>
@@ -3995,8 +3991,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX10" s="41"/>
-      <c r="BY10" s="57"/>
+      <c r="BX10" s="40"/>
+      <c r="BY10" s="55"/>
       <c r="BZ10" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -4084,7 +4080,7 @@
       <c r="D11" s="5">
         <v>6</v>
       </c>
-      <c r="E11" s="76" t="str">
+      <c r="E11" s="74" t="str">
         <f t="shared" si="25"/>
         <v>L6</v>
       </c>
@@ -4262,8 +4258,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX11" s="41"/>
-      <c r="BY11" s="57"/>
+      <c r="BX11" s="40"/>
+      <c r="BY11" s="55"/>
       <c r="BZ11" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -4343,7 +4339,7 @@
       <c r="D12" s="5">
         <v>4</v>
       </c>
-      <c r="E12" s="76" t="str">
+      <c r="E12" s="74" t="str">
         <f t="shared" si="25"/>
         <v>D4</v>
       </c>
@@ -4517,68 +4513,68 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX12" s="41"/>
-      <c r="BY12" s="57"/>
+      <c r="BX12" s="40"/>
+      <c r="BY12" s="55"/>
       <c r="BZ12" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CA12" s="31"/>
-      <c r="CB12" s="71"/>
+      <c r="CB12" s="69"/>
       <c r="CC12" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="CD12" s="31"/>
-      <c r="CE12" s="71"/>
+      <c r="CE12" s="69"/>
       <c r="CF12" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
       <c r="CG12" s="31"/>
-      <c r="CH12" s="71"/>
+      <c r="CH12" s="69"/>
       <c r="CI12" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
       <c r="CJ12" s="31"/>
-      <c r="CK12" s="71"/>
+      <c r="CK12" s="69"/>
       <c r="CL12" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
       <c r="CM12" s="31"/>
-      <c r="CN12" s="71"/>
+      <c r="CN12" s="69"/>
       <c r="CO12" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="CP12" s="31"/>
-      <c r="CQ12" s="71"/>
+      <c r="CQ12" s="69"/>
       <c r="CR12" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
       <c r="CS12" s="31"/>
-      <c r="CT12" s="71"/>
+      <c r="CT12" s="69"/>
       <c r="CU12" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="CV12" s="31"/>
-      <c r="CW12" s="71"/>
+      <c r="CW12" s="69"/>
       <c r="CX12" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
       <c r="CY12" s="31"/>
-      <c r="CZ12" s="71"/>
+      <c r="CZ12" s="69"/>
       <c r="DA12" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
       <c r="DB12" s="31"/>
-      <c r="DC12" s="71"/>
+      <c r="DC12" s="69"/>
       <c r="DD12" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
@@ -4598,7 +4594,7 @@
       <c r="D13" s="5">
         <v>5</v>
       </c>
-      <c r="E13" s="76" t="str">
+      <c r="E13" s="74" t="str">
         <f t="shared" si="25"/>
         <v>D5</v>
       </c>
@@ -4768,8 +4764,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX13" s="41"/>
-      <c r="BY13" s="57"/>
+      <c r="BX13" s="40"/>
+      <c r="BY13" s="55"/>
       <c r="BZ13" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -4849,7 +4845,7 @@
       <c r="D14" s="5">
         <v>5</v>
       </c>
-      <c r="E14" s="76" t="str">
+      <c r="E14" s="74" t="str">
         <f t="shared" si="25"/>
         <v>L5</v>
       </c>
@@ -4925,7 +4921,7 @@
         <v>8.9351851851851866E-3</v>
       </c>
       <c r="AE14" s="20">
-        <f t="shared" ref="AE14:AE22" si="28">AB14-AC14-AD14</f>
+        <f t="shared" ref="AE14:AE19" si="28">AB14-AC14-AD14</f>
         <v>4.297453703703704E-2</v>
       </c>
       <c r="AF14" s="21">
@@ -4944,13 +4940,13 @@
       <c r="AK14" s="31"/>
       <c r="AL14" s="32"/>
       <c r="AM14" s="33" t="str">
-        <f t="shared" ref="AM14:AM22" si="29">IF(AK14=0,"NA",AL14-$AC14)</f>
+        <f t="shared" ref="AM14:AM19" si="29">IF(AK14=0,"NA",AL14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AN14" s="31"/>
       <c r="AO14" s="32"/>
       <c r="AP14" s="33" t="str">
-        <f t="shared" ref="AP14:AP22" si="30">IF(AN14=0,"NA",AO14-$AC14)</f>
+        <f t="shared" ref="AP14:AP19" si="30">IF(AN14=0,"NA",AO14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AQ14" s="31">
@@ -4960,13 +4956,13 @@
         <v>1.1643518518518518E-2</v>
       </c>
       <c r="AS14" s="33">
-        <f t="shared" ref="AS14:AS22" si="31">IF(AQ14=0,"NA",AR14-$AC14)</f>
+        <f t="shared" ref="AS14:AS19" si="31">IF(AQ14=0,"NA",AR14-$AC14)</f>
         <v>7.2916666666666668E-3</v>
       </c>
       <c r="AT14" s="31"/>
       <c r="AU14" s="32"/>
       <c r="AV14" s="33" t="str">
-        <f t="shared" ref="AV14:AV22" si="32">IF(AT14=0,"NA",AU14-$AC14)</f>
+        <f t="shared" ref="AV14:AV19" si="32">IF(AT14=0,"NA",AU14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AW14" s="31"/>
@@ -4978,43 +4974,43 @@
       <c r="AZ14" s="31"/>
       <c r="BA14" s="34"/>
       <c r="BB14" s="33" t="str">
-        <f t="shared" ref="BB14:BB22" si="33">IF(AZ14=0,"NA",BA14-$AC14)</f>
+        <f t="shared" ref="BB14:BB19" si="33">IF(AZ14=0,"NA",BA14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BC14" s="31"/>
       <c r="BD14" s="32"/>
       <c r="BE14" s="33" t="str">
-        <f t="shared" ref="BE14:BE22" si="34">IF(BC14=0,"NA",BD14-$AC14)</f>
+        <f t="shared" ref="BE14:BE19" si="34">IF(BC14=0,"NA",BD14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BF14" s="31"/>
       <c r="BG14" s="34"/>
       <c r="BH14" s="33" t="str">
-        <f t="shared" ref="BH14:BH22" si="35">IF(BF14=0,"NA",BG14-$AC14)</f>
+        <f t="shared" ref="BH14:BH19" si="35">IF(BF14=0,"NA",BG14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BI14" s="31"/>
       <c r="BJ14" s="34"/>
       <c r="BK14" s="33" t="str">
-        <f t="shared" ref="BK14:BK22" si="36">IF(BI14=0,"NA",BJ14-$AC14)</f>
+        <f t="shared" ref="BK14:BK19" si="36">IF(BI14=0,"NA",BJ14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BL14" s="31"/>
       <c r="BM14" s="32"/>
       <c r="BN14" s="33" t="str">
-        <f t="shared" ref="BN14:BN22" si="37">IF(BL14=0,"NA",BM14-$AC14)</f>
+        <f t="shared" ref="BN14:BN19" si="37">IF(BL14=0,"NA",BM14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BO14" s="31"/>
       <c r="BP14" s="32"/>
       <c r="BQ14" s="33" t="str">
-        <f t="shared" ref="BQ14:BQ22" si="38">IF(BO14=0,"NA",BP14-$AC14)</f>
+        <f t="shared" ref="BQ14:BQ19" si="38">IF(BO14=0,"NA",BP14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BR14" s="31"/>
       <c r="BS14" s="34"/>
       <c r="BT14" s="33" t="str">
-        <f t="shared" ref="BT14:BT22" si="39">IF(BR14=0,"NA",BS14-$AC14)</f>
+        <f t="shared" ref="BT14:BT19" si="39">IF(BR14=0,"NA",BS14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BU14" s="31"/>
@@ -5023,8 +5019,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX14" s="41"/>
-      <c r="BY14" s="57"/>
+      <c r="BX14" s="40"/>
+      <c r="BY14" s="55"/>
       <c r="BZ14" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -5090,7 +5086,7 @@
         <v>4.4212962962962956E-3</v>
       </c>
       <c r="DD14" s="33">
-        <f t="shared" ref="DD14:DD22" si="40">IF(DB14=0,"NA",DC14-$AC14)</f>
+        <f t="shared" ref="DD14:DD19" si="40">IF(DB14=0,"NA",DC14-$AC14)</f>
         <v>6.9444444444444024E-5</v>
       </c>
       <c r="DE14" s="35"/>
@@ -5108,7 +5104,7 @@
       <c r="D15" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="76" t="str">
+      <c r="E15" s="74" t="str">
         <f t="shared" si="25"/>
         <v>L4</v>
       </c>
@@ -5285,31 +5281,31 @@
         <v>NA</v>
       </c>
       <c r="BU15" s="31"/>
-      <c r="BV15" s="71"/>
+      <c r="BV15" s="69"/>
       <c r="BW15" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX15" s="41"/>
-      <c r="BY15" s="57"/>
+      <c r="BX15" s="40"/>
+      <c r="BY15" s="55"/>
       <c r="BZ15" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CA15" s="31"/>
-      <c r="CB15" s="71"/>
+      <c r="CB15" s="69"/>
       <c r="CC15" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="CD15" s="31"/>
-      <c r="CE15" s="71"/>
+      <c r="CE15" s="69"/>
       <c r="CF15" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
       <c r="CG15" s="31"/>
-      <c r="CH15" s="71"/>
+      <c r="CH15" s="69"/>
       <c r="CI15" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
@@ -5375,7 +5371,7 @@
       <c r="D16" s="5">
         <v>6</v>
       </c>
-      <c r="E16" s="76" t="str">
+      <c r="E16" s="74" t="str">
         <f t="shared" si="25"/>
         <v>D6</v>
       </c>
@@ -5513,11 +5509,11 @@
       </c>
       <c r="BF16" s="31"/>
       <c r="BG16" s="34"/>
-      <c r="BH16" s="57" t="str">
+      <c r="BH16" s="55" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BI16" s="41"/>
+      <c r="BI16" s="40"/>
       <c r="BJ16" s="34"/>
       <c r="BK16" s="33" t="str">
         <f t="shared" si="36"/>
@@ -5536,7 +5532,7 @@
         <v>NA</v>
       </c>
       <c r="BR16" s="31"/>
-      <c r="BS16" s="57"/>
+      <c r="BS16" s="55"/>
       <c r="BT16" s="33" t="str">
         <f t="shared" si="39"/>
         <v>NA</v>
@@ -5547,8 +5543,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX16" s="41"/>
-      <c r="BY16" s="57"/>
+      <c r="BX16" s="40"/>
+      <c r="BY16" s="55"/>
       <c r="BZ16" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -5616,7 +5612,7 @@
       <c r="DE16" s="35"/>
     </row>
     <row r="17" spans="1:109" x14ac:dyDescent="0.35">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="89" t="s">
         <v>195</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -5628,7 +5624,7 @@
       <c r="D17" s="5">
         <v>6</v>
       </c>
-      <c r="E17" s="76" t="str">
+      <c r="E17" s="74" t="str">
         <f t="shared" si="25"/>
         <v>E6</v>
       </c>
@@ -5768,7 +5764,7 @@
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BI17" s="41">
+      <c r="BI17" s="40">
         <v>3</v>
       </c>
       <c r="BJ17" s="34">
@@ -5778,13 +5774,13 @@
         <f t="shared" si="36"/>
         <v>2.3148148148148442E-5</v>
       </c>
-      <c r="BL17" s="41"/>
+      <c r="BL17" s="40"/>
       <c r="BM17" s="34"/>
       <c r="BN17" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BO17" s="41"/>
+      <c r="BO17" s="40"/>
       <c r="BP17" s="34"/>
       <c r="BQ17" s="33" t="str">
         <f t="shared" si="38"/>
@@ -5806,8 +5802,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX17" s="41"/>
-      <c r="BY17" s="57"/>
+      <c r="BX17" s="40"/>
+      <c r="BY17" s="55"/>
       <c r="BZ17" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -5879,7 +5875,7 @@
       <c r="DE17" s="35"/>
     </row>
     <row r="18" spans="1:109" x14ac:dyDescent="0.35">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="89" t="s">
         <v>195</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -5891,7 +5887,7 @@
       <c r="D18" s="5">
         <v>4</v>
       </c>
-      <c r="E18" s="76" t="str">
+      <c r="E18" s="74" t="str">
         <f t="shared" si="25"/>
         <v>E4</v>
       </c>
@@ -6073,8 +6069,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX18" s="41"/>
-      <c r="BY18" s="57"/>
+      <c r="BX18" s="40"/>
+      <c r="BY18" s="55"/>
       <c r="BZ18" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -6142,7 +6138,7 @@
       <c r="DE18" s="35"/>
     </row>
     <row r="19" spans="1:109" x14ac:dyDescent="0.35">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="89" t="s">
         <v>195</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -6154,7 +6150,7 @@
       <c r="D19" s="5">
         <v>5</v>
       </c>
-      <c r="E19" s="76" t="str">
+      <c r="E19" s="74" t="str">
         <f t="shared" si="25"/>
         <v>E5</v>
       </c>
@@ -6332,8 +6328,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX19" s="41"/>
-      <c r="BY19" s="57"/>
+      <c r="BX19" s="40"/>
+      <c r="BY19" s="55"/>
       <c r="BZ19" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -6399,609 +6395,6 @@
         <v>NA</v>
       </c>
       <c r="DE19" s="35"/>
-    </row>
-    <row r="20" spans="1:109" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="76" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7" t="e">
-        <f>VLOOKUP(E20,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K20" s="7" t="e">
-        <f>VLOOKUP(E20,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="6">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="21"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="33" t="str">
-        <f t="shared" si="29"/>
-        <v>NA</v>
-      </c>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="34"/>
-      <c r="AS20" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>NA</v>
-      </c>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="34"/>
-      <c r="AV20" s="33" t="str">
-        <f t="shared" si="32"/>
-        <v>NA</v>
-      </c>
-      <c r="AW20" s="31"/>
-      <c r="AX20" s="34"/>
-      <c r="AY20" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="AZ20" s="31"/>
-      <c r="BA20" s="34"/>
-      <c r="BB20" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
-      </c>
-      <c r="BC20" s="31"/>
-      <c r="BD20" s="34"/>
-      <c r="BE20" s="33" t="str">
-        <f t="shared" si="34"/>
-        <v>NA</v>
-      </c>
-      <c r="BF20" s="31"/>
-      <c r="BG20" s="34"/>
-      <c r="BH20" s="33" t="str">
-        <f t="shared" si="35"/>
-        <v>NA</v>
-      </c>
-      <c r="BI20" s="31"/>
-      <c r="BJ20" s="34"/>
-      <c r="BK20" s="33" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="BL20" s="31"/>
-      <c r="BM20" s="34"/>
-      <c r="BN20" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="BO20" s="31"/>
-      <c r="BP20" s="34"/>
-      <c r="BQ20" s="33" t="str">
-        <f t="shared" si="38"/>
-        <v>NA</v>
-      </c>
-      <c r="BR20" s="31"/>
-      <c r="BS20" s="34"/>
-      <c r="BT20" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="BU20" s="31"/>
-      <c r="BV20" s="34"/>
-      <c r="BW20" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BX20" s="41"/>
-      <c r="BY20" s="57"/>
-      <c r="BZ20" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>NA</v>
-      </c>
-      <c r="CA20" s="31"/>
-      <c r="CB20" s="34"/>
-      <c r="CC20" s="33" t="str">
-        <f t="shared" si="15"/>
-        <v>NA</v>
-      </c>
-      <c r="CD20" s="31"/>
-      <c r="CE20" s="34"/>
-      <c r="CF20" s="33" t="str">
-        <f t="shared" si="16"/>
-        <v>NA</v>
-      </c>
-      <c r="CG20" s="31"/>
-      <c r="CH20" s="34"/>
-      <c r="CI20" s="33" t="str">
-        <f t="shared" si="17"/>
-        <v>NA</v>
-      </c>
-      <c r="CJ20" s="31"/>
-      <c r="CK20" s="34"/>
-      <c r="CL20" s="33" t="str">
-        <f t="shared" si="18"/>
-        <v>NA</v>
-      </c>
-      <c r="CM20" s="31"/>
-      <c r="CN20" s="34"/>
-      <c r="CO20" s="33" t="str">
-        <f t="shared" si="19"/>
-        <v>NA</v>
-      </c>
-      <c r="CP20" s="31"/>
-      <c r="CQ20" s="34"/>
-      <c r="CR20" s="33" t="str">
-        <f t="shared" si="20"/>
-        <v>NA</v>
-      </c>
-      <c r="CS20" s="31"/>
-      <c r="CT20" s="34"/>
-      <c r="CU20" s="33" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="CV20" s="31"/>
-      <c r="CW20" s="34"/>
-      <c r="CX20" s="33" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY20" s="31"/>
-      <c r="CZ20" s="34"/>
-      <c r="DA20" s="33" t="str">
-        <f t="shared" si="23"/>
-        <v>NA</v>
-      </c>
-      <c r="DB20" s="31"/>
-      <c r="DC20" s="34"/>
-      <c r="DD20" s="33" t="str">
-        <f t="shared" si="40"/>
-        <v>NA</v>
-      </c>
-      <c r="DE20" s="35"/>
-    </row>
-    <row r="21" spans="1:109" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="76" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7" t="e">
-        <f>VLOOKUP(E21,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K21" s="7" t="e">
-        <f>VLOOKUP(E21,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="6">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="20">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="80"/>
-      <c r="AD21" s="80"/>
-      <c r="AE21" s="20">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="33" t="str">
-        <f t="shared" si="29"/>
-        <v>NA</v>
-      </c>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>NA</v>
-      </c>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="32"/>
-      <c r="AV21" s="33" t="str">
-        <f t="shared" si="32"/>
-        <v>NA</v>
-      </c>
-      <c r="AW21" s="31"/>
-      <c r="AX21" s="32"/>
-      <c r="AY21" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="AZ21" s="31"/>
-      <c r="BA21" s="34"/>
-      <c r="BB21" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
-      </c>
-      <c r="BC21" s="31"/>
-      <c r="BD21" s="32"/>
-      <c r="BE21" s="33" t="str">
-        <f t="shared" si="34"/>
-        <v>NA</v>
-      </c>
-      <c r="BF21" s="31"/>
-      <c r="BG21" s="32"/>
-      <c r="BH21" s="33" t="str">
-        <f t="shared" si="35"/>
-        <v>NA</v>
-      </c>
-      <c r="BI21" s="31"/>
-      <c r="BJ21" s="57"/>
-      <c r="BK21" s="33" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="BL21" s="31"/>
-      <c r="BM21" s="32"/>
-      <c r="BN21" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="BO21" s="31"/>
-      <c r="BP21" s="32"/>
-      <c r="BQ21" s="33" t="str">
-        <f t="shared" si="38"/>
-        <v>NA</v>
-      </c>
-      <c r="BR21" s="31"/>
-      <c r="BS21" s="32"/>
-      <c r="BT21" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="BU21" s="31"/>
-      <c r="BV21" s="32"/>
-      <c r="BW21" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BX21" s="41"/>
-      <c r="BY21" s="34"/>
-      <c r="BZ21" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>NA</v>
-      </c>
-      <c r="CA21" s="31"/>
-      <c r="CB21" s="32"/>
-      <c r="CC21" s="33" t="str">
-        <f t="shared" si="15"/>
-        <v>NA</v>
-      </c>
-      <c r="CD21" s="31"/>
-      <c r="CE21" s="32"/>
-      <c r="CF21" s="33" t="str">
-        <f t="shared" si="16"/>
-        <v>NA</v>
-      </c>
-      <c r="CG21" s="31"/>
-      <c r="CH21" s="32"/>
-      <c r="CI21" s="33" t="str">
-        <f t="shared" si="17"/>
-        <v>NA</v>
-      </c>
-      <c r="CJ21" s="31"/>
-      <c r="CK21" s="32"/>
-      <c r="CL21" s="33" t="str">
-        <f t="shared" si="18"/>
-        <v>NA</v>
-      </c>
-      <c r="CM21" s="31"/>
-      <c r="CN21" s="32"/>
-      <c r="CO21" s="33" t="str">
-        <f t="shared" si="19"/>
-        <v>NA</v>
-      </c>
-      <c r="CP21" s="31"/>
-      <c r="CQ21" s="32"/>
-      <c r="CR21" s="33" t="str">
-        <f t="shared" si="20"/>
-        <v>NA</v>
-      </c>
-      <c r="CS21" s="31"/>
-      <c r="CT21" s="32"/>
-      <c r="CU21" s="33" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="CV21" s="31"/>
-      <c r="CW21" s="32"/>
-      <c r="CX21" s="33" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY21" s="31"/>
-      <c r="CZ21" s="57"/>
-      <c r="DA21" s="33" t="str">
-        <f t="shared" si="23"/>
-        <v>NA</v>
-      </c>
-      <c r="DB21" s="31"/>
-      <c r="DC21" s="57"/>
-      <c r="DD21" s="33" t="str">
-        <f t="shared" si="40"/>
-        <v>NA</v>
-      </c>
-      <c r="DE21" s="35"/>
-    </row>
-    <row r="22" spans="1:109" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="77" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13" t="e">
-        <f>VLOOKUP(E22,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K22" s="13" t="e">
-        <f>VLOOKUP(E22,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="12">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="23">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="23">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="38"/>
-      <c r="AL22" s="40"/>
-      <c r="AM22" s="42" t="str">
-        <f t="shared" si="29"/>
-        <v>NA</v>
-      </c>
-      <c r="AN22" s="38"/>
-      <c r="AO22" s="40"/>
-      <c r="AP22" s="42" t="str">
-        <f t="shared" si="30"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ22" s="38"/>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="42" t="str">
-        <f t="shared" si="31"/>
-        <v>NA</v>
-      </c>
-      <c r="AT22" s="38"/>
-      <c r="AU22" s="85"/>
-      <c r="AV22" s="42" t="str">
-        <f t="shared" si="32"/>
-        <v>NA</v>
-      </c>
-      <c r="AW22" s="38"/>
-      <c r="AX22" s="85"/>
-      <c r="AY22" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="AZ22" s="38"/>
-      <c r="BA22" s="40"/>
-      <c r="BB22" s="42" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
-      </c>
-      <c r="BC22" s="38"/>
-      <c r="BD22" s="85"/>
-      <c r="BE22" s="42" t="str">
-        <f t="shared" si="34"/>
-        <v>NA</v>
-      </c>
-      <c r="BF22" s="38"/>
-      <c r="BG22" s="85"/>
-      <c r="BH22" s="42" t="str">
-        <f t="shared" si="35"/>
-        <v>NA</v>
-      </c>
-      <c r="BI22" s="38"/>
-      <c r="BJ22" s="40"/>
-      <c r="BK22" s="42" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="BL22" s="38"/>
-      <c r="BM22" s="85"/>
-      <c r="BN22" s="42" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="BO22" s="38"/>
-      <c r="BP22" s="85"/>
-      <c r="BQ22" s="42" t="str">
-        <f t="shared" si="38"/>
-        <v>NA</v>
-      </c>
-      <c r="BR22" s="38"/>
-      <c r="BS22" s="85"/>
-      <c r="BT22" s="42" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="BU22" s="38"/>
-      <c r="BV22" s="85"/>
-      <c r="BW22" s="42" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BX22" s="86"/>
-      <c r="BY22" s="85"/>
-      <c r="BZ22" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>NA</v>
-      </c>
-      <c r="CA22" s="38"/>
-      <c r="CB22" s="85"/>
-      <c r="CC22" s="42" t="str">
-        <f t="shared" si="15"/>
-        <v>NA</v>
-      </c>
-      <c r="CD22" s="38"/>
-      <c r="CE22" s="85"/>
-      <c r="CF22" s="42" t="str">
-        <f t="shared" si="16"/>
-        <v>NA</v>
-      </c>
-      <c r="CG22" s="38"/>
-      <c r="CH22" s="85"/>
-      <c r="CI22" s="42" t="str">
-        <f t="shared" si="17"/>
-        <v>NA</v>
-      </c>
-      <c r="CJ22" s="38"/>
-      <c r="CK22" s="85"/>
-      <c r="CL22" s="42" t="str">
-        <f t="shared" si="18"/>
-        <v>NA</v>
-      </c>
-      <c r="CM22" s="38"/>
-      <c r="CN22" s="85"/>
-      <c r="CO22" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v>NA</v>
-      </c>
-      <c r="CP22" s="38"/>
-      <c r="CQ22" s="85"/>
-      <c r="CR22" s="42" t="str">
-        <f t="shared" si="20"/>
-        <v>NA</v>
-      </c>
-      <c r="CS22" s="38"/>
-      <c r="CT22" s="40"/>
-      <c r="CU22" s="42" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="CV22" s="38"/>
-      <c r="CW22" s="40"/>
-      <c r="CX22" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY22" s="38"/>
-      <c r="CZ22" s="40"/>
-      <c r="DA22" s="42" t="str">
-        <f t="shared" si="23"/>
-        <v>NA</v>
-      </c>
-      <c r="DB22" s="38"/>
-      <c r="DC22" s="40"/>
-      <c r="DD22" s="42" t="str">
-        <f t="shared" si="40"/>
-        <v>NA</v>
-      </c>
-      <c r="DE22" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7014,7 +6407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E619138-F039-4841-928C-9D919C758651}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -7044,10 +6437,10 @@
       <c r="B2">
         <v>93</v>
       </c>
-      <c r="C2" s="94">
+      <c r="C2" s="90">
         <v>45444</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="54">
         <v>0.32083333333333336</v>
       </c>
     </row>
@@ -7058,10 +6451,10 @@
       <c r="B3">
         <v>88</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="90">
         <v>45442</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="54">
         <v>0.68472222222222223</v>
       </c>
     </row>
@@ -7072,10 +6465,10 @@
       <c r="B4">
         <v>89</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="90">
         <v>45442</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="54">
         <v>0.6791666666666667</v>
       </c>
     </row>
@@ -7098,30 +6491,30 @@
     <col min="22" max="28" width="8.7265625" style="1"/>
     <col min="36" max="36" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="8.7265625" style="88"/>
-    <col min="42" max="42" width="14.453125" style="88" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="8.7265625" style="88"/>
-    <col min="45" max="45" width="10.7265625" style="88" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="8.7265625" style="88"/>
-    <col min="48" max="48" width="10.6328125" style="88" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="8.7265625" style="88"/>
-    <col min="51" max="51" width="10.6328125" style="88" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="8.7265625" style="88"/>
-    <col min="54" max="54" width="12.81640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="8.7265625" style="88"/>
-    <col min="57" max="57" width="8.90625" style="88" bestFit="1" customWidth="1"/>
-    <col min="58" max="75" width="8.7265625" style="88"/>
-    <col min="76" max="76" width="8.7265625" style="89"/>
-    <col min="77" max="77" width="8.7265625" style="88"/>
-    <col min="78" max="78" width="9.36328125" style="88" bestFit="1" customWidth="1"/>
-    <col min="79" max="83" width="8.7265625" style="88"/>
-    <col min="84" max="84" width="18.36328125" style="88" bestFit="1" customWidth="1"/>
-    <col min="85" max="95" width="8.7265625" style="88"/>
-    <col min="96" max="96" width="11.1796875" style="88" bestFit="1" customWidth="1"/>
-    <col min="97" max="98" width="8.7265625" style="88"/>
-    <col min="99" max="99" width="11.1796875" style="88" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="13.90625" style="88" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="8.7265625" style="88"/>
+    <col min="40" max="41" width="8.7265625" style="84"/>
+    <col min="42" max="42" width="14.453125" style="84" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="8.7265625" style="84"/>
+    <col min="45" max="45" width="10.7265625" style="84" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="8.7265625" style="84"/>
+    <col min="48" max="48" width="10.6328125" style="84" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="8.7265625" style="84"/>
+    <col min="51" max="51" width="10.6328125" style="84" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="8.7265625" style="84"/>
+    <col min="54" max="54" width="12.81640625" style="84" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="8.7265625" style="84"/>
+    <col min="57" max="57" width="8.90625" style="84" bestFit="1" customWidth="1"/>
+    <col min="58" max="75" width="8.7265625" style="84"/>
+    <col min="76" max="76" width="8.7265625" style="85"/>
+    <col min="77" max="77" width="8.7265625" style="84"/>
+    <col min="78" max="78" width="9.36328125" style="84" bestFit="1" customWidth="1"/>
+    <col min="79" max="83" width="8.7265625" style="84"/>
+    <col min="84" max="84" width="18.36328125" style="84" bestFit="1" customWidth="1"/>
+    <col min="85" max="95" width="8.7265625" style="84"/>
+    <col min="96" max="96" width="11.1796875" style="84" bestFit="1" customWidth="1"/>
+    <col min="97" max="98" width="8.7265625" style="84"/>
+    <col min="99" max="99" width="11.1796875" style="84" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="13.90625" style="84" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="8.7265625" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7137,7 +6530,7 @@
       <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="73" t="s">
         <v>98</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -7230,7 +6623,7 @@
       <c r="AI1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" s="60" t="s">
+      <c r="AJ1" s="58" t="s">
         <v>11</v>
       </c>
       <c r="AK1" s="26" t="s">
@@ -7244,29 +6637,29 @@
       </c>
     </row>
     <row r="2" spans="1:99" ht="145" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="47" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="43" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -7275,124 +6668,124 @@
       <c r="K2" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="43" t="s">
         <v>75</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="S2" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49" t="s">
+      <c r="U2" s="46"/>
+      <c r="V2" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="W2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="50" t="s">
+      <c r="X2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="Y2" s="50" t="s">
+      <c r="Y2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="Z2" s="50" t="s">
+      <c r="Z2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="AA2" s="50" t="s">
+      <c r="AA2" s="48" t="s">
         <v>78</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AC2" s="50" t="s">
+      <c r="AC2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="AD2" s="50" t="s">
+      <c r="AD2" s="48" t="s">
         <v>80</v>
       </c>
       <c r="AE2" s="20" t="e">
         <f t="shared" ref="AE2:AE22" si="0">AB2-AC2-AD2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AF2" s="51" t="s">
+      <c r="AF2" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="51" t="s">
+      <c r="AG2" s="49" t="s">
         <v>81</v>
       </c>
       <c r="AH2" s="22"/>
-      <c r="AI2" s="52" t="s">
+      <c r="AI2" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="AJ2" s="53" t="s">
+      <c r="AJ2" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="AK2" s="54" t="s">
+      <c r="AK2" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="AL2" s="55" t="s">
+      <c r="AL2" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="AM2" s="57" t="s">
+      <c r="AM2" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="AO2" s="90"/>
-      <c r="AP2" s="90"/>
-      <c r="AS2" s="90"/>
-      <c r="AV2" s="90"/>
-      <c r="AY2" s="90"/>
-      <c r="BB2" s="90"/>
-      <c r="BE2" s="90"/>
-      <c r="BH2" s="90"/>
-      <c r="BK2" s="90"/>
-      <c r="BN2" s="90"/>
-      <c r="BQ2" s="90"/>
-      <c r="BS2" s="91"/>
-      <c r="BT2" s="90"/>
-      <c r="BW2" s="90"/>
-      <c r="BY2" s="90"/>
-      <c r="BZ2" s="90"/>
-      <c r="CB2" s="92"/>
-      <c r="CC2" s="90"/>
-      <c r="CE2" s="92"/>
-      <c r="CF2" s="90"/>
-      <c r="CH2" s="92"/>
-      <c r="CI2" s="90"/>
-      <c r="CK2" s="92"/>
-      <c r="CL2" s="90"/>
-      <c r="CN2" s="92"/>
-      <c r="CO2" s="90"/>
-      <c r="CQ2" s="92"/>
-      <c r="CR2" s="90"/>
-      <c r="CT2" s="92"/>
-      <c r="CU2" s="90"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AV2" s="86"/>
+      <c r="AY2" s="86"/>
+      <c r="BB2" s="86"/>
+      <c r="BE2" s="86"/>
+      <c r="BH2" s="86"/>
+      <c r="BK2" s="86"/>
+      <c r="BN2" s="86"/>
+      <c r="BQ2" s="86"/>
+      <c r="BS2" s="87"/>
+      <c r="BT2" s="86"/>
+      <c r="BW2" s="86"/>
+      <c r="BY2" s="86"/>
+      <c r="BZ2" s="86"/>
+      <c r="CB2" s="88"/>
+      <c r="CC2" s="86"/>
+      <c r="CE2" s="88"/>
+      <c r="CF2" s="86"/>
+      <c r="CH2" s="88"/>
+      <c r="CI2" s="86"/>
+      <c r="CK2" s="88"/>
+      <c r="CL2" s="86"/>
+      <c r="CN2" s="88"/>
+      <c r="CO2" s="86"/>
+      <c r="CQ2" s="88"/>
+      <c r="CR2" s="86"/>
+      <c r="CT2" s="88"/>
+      <c r="CU2" s="86"/>
     </row>
     <row r="3" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="76" t="str">
+      <c r="E3" s="74" t="str">
         <f t="shared" ref="E3:E22" si="1">C3&amp;""&amp;D3</f>
         <v/>
       </c>
@@ -7444,38 +6837,38 @@
       <c r="AJ3" s="30"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="34"/>
-      <c r="AM3" s="57" t="str">
+      <c r="AM3" s="55" t="str">
         <f t="shared" ref="AM3:AM22" si="4">IF(AK3=0,"NA",AL3-$AC3)</f>
         <v>NA</v>
       </c>
-      <c r="AP3" s="90"/>
-      <c r="AS3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AY3" s="90"/>
-      <c r="BB3" s="90"/>
-      <c r="BE3" s="90"/>
-      <c r="BH3" s="90"/>
-      <c r="BK3" s="90"/>
-      <c r="BN3" s="90"/>
-      <c r="BQ3" s="90"/>
-      <c r="BT3" s="90"/>
-      <c r="BW3" s="90"/>
-      <c r="BY3" s="90"/>
-      <c r="BZ3" s="90"/>
-      <c r="CC3" s="90"/>
-      <c r="CF3" s="90"/>
-      <c r="CI3" s="90"/>
-      <c r="CL3" s="90"/>
-      <c r="CO3" s="90"/>
-      <c r="CR3" s="90"/>
-      <c r="CU3" s="90"/>
+      <c r="AP3" s="86"/>
+      <c r="AS3" s="86"/>
+      <c r="AV3" s="86"/>
+      <c r="AY3" s="86"/>
+      <c r="BB3" s="86"/>
+      <c r="BE3" s="86"/>
+      <c r="BH3" s="86"/>
+      <c r="BK3" s="86"/>
+      <c r="BN3" s="86"/>
+      <c r="BQ3" s="86"/>
+      <c r="BT3" s="86"/>
+      <c r="BW3" s="86"/>
+      <c r="BY3" s="86"/>
+      <c r="BZ3" s="86"/>
+      <c r="CC3" s="86"/>
+      <c r="CF3" s="86"/>
+      <c r="CI3" s="86"/>
+      <c r="CL3" s="86"/>
+      <c r="CO3" s="86"/>
+      <c r="CR3" s="86"/>
+      <c r="CU3" s="86"/>
     </row>
     <row r="4" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="76" t="str">
+      <c r="E4" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7527,47 +6920,47 @@
       <c r="AJ4" s="30"/>
       <c r="AK4" s="31"/>
       <c r="AL4" s="34"/>
-      <c r="AM4" s="57" t="str">
+      <c r="AM4" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AY4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BE4" s="90"/>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="90"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="90"/>
-      <c r="BN4" s="90"/>
-      <c r="BQ4" s="90"/>
-      <c r="BT4" s="90"/>
-      <c r="BW4" s="90"/>
-      <c r="BY4" s="90"/>
-      <c r="BZ4" s="90"/>
-      <c r="CB4" s="92"/>
-      <c r="CC4" s="90"/>
-      <c r="CE4" s="92"/>
-      <c r="CF4" s="90"/>
-      <c r="CH4" s="92"/>
-      <c r="CI4" s="90"/>
-      <c r="CK4" s="92"/>
-      <c r="CL4" s="90"/>
-      <c r="CN4" s="92"/>
-      <c r="CO4" s="90"/>
-      <c r="CQ4" s="92"/>
-      <c r="CR4" s="90"/>
-      <c r="CT4" s="92"/>
-      <c r="CU4" s="90"/>
+      <c r="AP4" s="86"/>
+      <c r="AS4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AY4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BE4" s="86"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="86"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="86"/>
+      <c r="BN4" s="86"/>
+      <c r="BQ4" s="86"/>
+      <c r="BT4" s="86"/>
+      <c r="BW4" s="86"/>
+      <c r="BY4" s="86"/>
+      <c r="BZ4" s="86"/>
+      <c r="CB4" s="88"/>
+      <c r="CC4" s="86"/>
+      <c r="CE4" s="88"/>
+      <c r="CF4" s="86"/>
+      <c r="CH4" s="88"/>
+      <c r="CI4" s="86"/>
+      <c r="CK4" s="88"/>
+      <c r="CL4" s="86"/>
+      <c r="CN4" s="88"/>
+      <c r="CO4" s="86"/>
+      <c r="CQ4" s="88"/>
+      <c r="CR4" s="86"/>
+      <c r="CT4" s="88"/>
+      <c r="CU4" s="86"/>
     </row>
     <row r="5" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="76" t="str">
+      <c r="E5" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7619,38 +7012,38 @@
       <c r="AJ5" s="30"/>
       <c r="AK5" s="31"/>
       <c r="AL5" s="34"/>
-      <c r="AM5" s="57" t="str">
+      <c r="AM5" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP5" s="90"/>
-      <c r="AS5" s="90"/>
-      <c r="AV5" s="90"/>
-      <c r="AY5" s="90"/>
-      <c r="BB5" s="90"/>
-      <c r="BE5" s="90"/>
-      <c r="BH5" s="90"/>
-      <c r="BK5" s="90"/>
-      <c r="BN5" s="90"/>
-      <c r="BQ5" s="90"/>
-      <c r="BT5" s="90"/>
-      <c r="BW5" s="90"/>
-      <c r="BY5" s="90"/>
-      <c r="BZ5" s="90"/>
-      <c r="CC5" s="90"/>
-      <c r="CF5" s="90"/>
-      <c r="CI5" s="90"/>
-      <c r="CL5" s="90"/>
-      <c r="CO5" s="90"/>
-      <c r="CR5" s="90"/>
-      <c r="CU5" s="90"/>
+      <c r="AP5" s="86"/>
+      <c r="AS5" s="86"/>
+      <c r="AV5" s="86"/>
+      <c r="AY5" s="86"/>
+      <c r="BB5" s="86"/>
+      <c r="BE5" s="86"/>
+      <c r="BH5" s="86"/>
+      <c r="BK5" s="86"/>
+      <c r="BN5" s="86"/>
+      <c r="BQ5" s="86"/>
+      <c r="BT5" s="86"/>
+      <c r="BW5" s="86"/>
+      <c r="BY5" s="86"/>
+      <c r="BZ5" s="86"/>
+      <c r="CC5" s="86"/>
+      <c r="CF5" s="86"/>
+      <c r="CI5" s="86"/>
+      <c r="CL5" s="86"/>
+      <c r="CO5" s="86"/>
+      <c r="CR5" s="86"/>
+      <c r="CU5" s="86"/>
     </row>
     <row r="6" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="76" t="str">
+      <c r="E6" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7702,38 +7095,38 @@
       <c r="AJ6" s="30"/>
       <c r="AK6" s="31"/>
       <c r="AL6" s="34"/>
-      <c r="AM6" s="57" t="str">
+      <c r="AM6" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP6" s="90"/>
-      <c r="AS6" s="90"/>
-      <c r="AV6" s="90"/>
-      <c r="AY6" s="90"/>
-      <c r="BB6" s="90"/>
-      <c r="BE6" s="90"/>
-      <c r="BH6" s="90"/>
-      <c r="BK6" s="90"/>
-      <c r="BN6" s="90"/>
-      <c r="BQ6" s="90"/>
-      <c r="BT6" s="90"/>
-      <c r="BW6" s="90"/>
-      <c r="BY6" s="90"/>
-      <c r="BZ6" s="90"/>
-      <c r="CC6" s="90"/>
-      <c r="CF6" s="90"/>
-      <c r="CI6" s="90"/>
-      <c r="CL6" s="90"/>
-      <c r="CO6" s="90"/>
-      <c r="CR6" s="90"/>
-      <c r="CU6" s="90"/>
+      <c r="AP6" s="86"/>
+      <c r="AS6" s="86"/>
+      <c r="AV6" s="86"/>
+      <c r="AY6" s="86"/>
+      <c r="BB6" s="86"/>
+      <c r="BE6" s="86"/>
+      <c r="BH6" s="86"/>
+      <c r="BK6" s="86"/>
+      <c r="BN6" s="86"/>
+      <c r="BQ6" s="86"/>
+      <c r="BT6" s="86"/>
+      <c r="BW6" s="86"/>
+      <c r="BY6" s="86"/>
+      <c r="BZ6" s="86"/>
+      <c r="CC6" s="86"/>
+      <c r="CF6" s="86"/>
+      <c r="CI6" s="86"/>
+      <c r="CL6" s="86"/>
+      <c r="CO6" s="86"/>
+      <c r="CR6" s="86"/>
+      <c r="CU6" s="86"/>
     </row>
     <row r="7" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="76" t="str">
+      <c r="E7" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7785,38 +7178,38 @@
       <c r="AJ7" s="30"/>
       <c r="AK7" s="31"/>
       <c r="AL7" s="34"/>
-      <c r="AM7" s="57" t="str">
+      <c r="AM7" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP7" s="90"/>
-      <c r="AS7" s="90"/>
-      <c r="AV7" s="90"/>
-      <c r="AY7" s="90"/>
-      <c r="BB7" s="90"/>
-      <c r="BE7" s="90"/>
-      <c r="BH7" s="90"/>
-      <c r="BK7" s="90"/>
-      <c r="BN7" s="90"/>
-      <c r="BQ7" s="90"/>
-      <c r="BT7" s="90"/>
-      <c r="BW7" s="90"/>
-      <c r="BY7" s="90"/>
-      <c r="BZ7" s="90"/>
-      <c r="CC7" s="90"/>
-      <c r="CF7" s="90"/>
-      <c r="CI7" s="90"/>
-      <c r="CL7" s="90"/>
-      <c r="CO7" s="90"/>
-      <c r="CR7" s="90"/>
-      <c r="CU7" s="90"/>
+      <c r="AP7" s="86"/>
+      <c r="AS7" s="86"/>
+      <c r="AV7" s="86"/>
+      <c r="AY7" s="86"/>
+      <c r="BB7" s="86"/>
+      <c r="BE7" s="86"/>
+      <c r="BH7" s="86"/>
+      <c r="BK7" s="86"/>
+      <c r="BN7" s="86"/>
+      <c r="BQ7" s="86"/>
+      <c r="BT7" s="86"/>
+      <c r="BW7" s="86"/>
+      <c r="BY7" s="86"/>
+      <c r="BZ7" s="86"/>
+      <c r="CC7" s="86"/>
+      <c r="CF7" s="86"/>
+      <c r="CI7" s="86"/>
+      <c r="CL7" s="86"/>
+      <c r="CO7" s="86"/>
+      <c r="CR7" s="86"/>
+      <c r="CU7" s="86"/>
     </row>
     <row r="8" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="76" t="str">
+      <c r="E8" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7868,41 +7261,41 @@
       <c r="AJ8" s="30"/>
       <c r="AK8" s="31"/>
       <c r="AL8" s="34"/>
-      <c r="AM8" s="57" t="str">
+      <c r="AM8" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO8" s="91"/>
-      <c r="AP8" s="90"/>
-      <c r="AS8" s="90"/>
-      <c r="AV8" s="90"/>
-      <c r="AY8" s="90"/>
-      <c r="BB8" s="90"/>
-      <c r="BE8" s="90"/>
-      <c r="BH8" s="90"/>
-      <c r="BK8" s="90"/>
-      <c r="BN8" s="90"/>
-      <c r="BQ8" s="90"/>
-      <c r="BT8" s="90"/>
-      <c r="BW8" s="90"/>
-      <c r="BY8" s="90"/>
-      <c r="BZ8" s="90"/>
-      <c r="CC8" s="90"/>
-      <c r="CF8" s="90"/>
-      <c r="CI8" s="90"/>
-      <c r="CL8" s="90"/>
-      <c r="CO8" s="90"/>
-      <c r="CQ8" s="91"/>
-      <c r="CR8" s="90"/>
-      <c r="CT8" s="91"/>
-      <c r="CU8" s="90"/>
+      <c r="AO8" s="87"/>
+      <c r="AP8" s="86"/>
+      <c r="AS8" s="86"/>
+      <c r="AV8" s="86"/>
+      <c r="AY8" s="86"/>
+      <c r="BB8" s="86"/>
+      <c r="BE8" s="86"/>
+      <c r="BH8" s="86"/>
+      <c r="BK8" s="86"/>
+      <c r="BN8" s="86"/>
+      <c r="BQ8" s="86"/>
+      <c r="BT8" s="86"/>
+      <c r="BW8" s="86"/>
+      <c r="BY8" s="86"/>
+      <c r="BZ8" s="86"/>
+      <c r="CC8" s="86"/>
+      <c r="CF8" s="86"/>
+      <c r="CI8" s="86"/>
+      <c r="CL8" s="86"/>
+      <c r="CO8" s="86"/>
+      <c r="CQ8" s="87"/>
+      <c r="CR8" s="86"/>
+      <c r="CT8" s="87"/>
+      <c r="CU8" s="86"/>
     </row>
     <row r="9" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="76" t="str">
+      <c r="E9" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7954,41 +7347,41 @@
       <c r="AJ9" s="30"/>
       <c r="AK9" s="31"/>
       <c r="AL9" s="34"/>
-      <c r="AM9" s="57" t="str">
+      <c r="AM9" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP9" s="90"/>
-      <c r="AS9" s="90"/>
-      <c r="AV9" s="90"/>
-      <c r="AY9" s="90"/>
-      <c r="BB9" s="90"/>
-      <c r="BE9" s="90"/>
-      <c r="BH9" s="90"/>
-      <c r="BJ9" s="92"/>
-      <c r="BK9" s="90"/>
-      <c r="BN9" s="90"/>
-      <c r="BQ9" s="90"/>
-      <c r="BT9" s="90"/>
-      <c r="BW9" s="90"/>
-      <c r="BY9" s="90"/>
-      <c r="BZ9" s="90"/>
-      <c r="CC9" s="90"/>
-      <c r="CF9" s="90"/>
-      <c r="CI9" s="90"/>
-      <c r="CL9" s="90"/>
-      <c r="CO9" s="90"/>
-      <c r="CQ9" s="90"/>
-      <c r="CR9" s="90"/>
-      <c r="CT9" s="90"/>
-      <c r="CU9" s="90"/>
+      <c r="AP9" s="86"/>
+      <c r="AS9" s="86"/>
+      <c r="AV9" s="86"/>
+      <c r="AY9" s="86"/>
+      <c r="BB9" s="86"/>
+      <c r="BE9" s="86"/>
+      <c r="BH9" s="86"/>
+      <c r="BJ9" s="88"/>
+      <c r="BK9" s="86"/>
+      <c r="BN9" s="86"/>
+      <c r="BQ9" s="86"/>
+      <c r="BT9" s="86"/>
+      <c r="BW9" s="86"/>
+      <c r="BY9" s="86"/>
+      <c r="BZ9" s="86"/>
+      <c r="CC9" s="86"/>
+      <c r="CF9" s="86"/>
+      <c r="CI9" s="86"/>
+      <c r="CL9" s="86"/>
+      <c r="CO9" s="86"/>
+      <c r="CQ9" s="86"/>
+      <c r="CR9" s="86"/>
+      <c r="CT9" s="86"/>
+      <c r="CU9" s="86"/>
     </row>
     <row r="10" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="76" t="str">
+      <c r="E10" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8040,46 +7433,46 @@
       <c r="AJ10" s="30"/>
       <c r="AK10" s="31"/>
       <c r="AL10" s="34"/>
-      <c r="AM10" s="57" t="str">
+      <c r="AM10" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO10" s="92"/>
-      <c r="AP10" s="90"/>
-      <c r="AS10" s="90"/>
-      <c r="AV10" s="90"/>
-      <c r="AY10" s="90"/>
-      <c r="BB10" s="90"/>
-      <c r="BE10" s="90"/>
-      <c r="BH10" s="90"/>
-      <c r="BK10" s="90"/>
-      <c r="BN10" s="90"/>
-      <c r="BQ10" s="90"/>
-      <c r="BT10" s="90"/>
-      <c r="BW10" s="90"/>
-      <c r="BY10" s="90"/>
-      <c r="BZ10" s="90"/>
-      <c r="CB10" s="92"/>
-      <c r="CC10" s="90"/>
-      <c r="CE10" s="92"/>
-      <c r="CF10" s="90"/>
-      <c r="CH10" s="92"/>
-      <c r="CI10" s="90"/>
-      <c r="CK10" s="92"/>
-      <c r="CL10" s="90"/>
-      <c r="CN10" s="92"/>
-      <c r="CO10" s="90"/>
-      <c r="CQ10" s="92"/>
-      <c r="CR10" s="90"/>
-      <c r="CT10" s="92"/>
-      <c r="CU10" s="90"/>
+      <c r="AO10" s="88"/>
+      <c r="AP10" s="86"/>
+      <c r="AS10" s="86"/>
+      <c r="AV10" s="86"/>
+      <c r="AY10" s="86"/>
+      <c r="BB10" s="86"/>
+      <c r="BE10" s="86"/>
+      <c r="BH10" s="86"/>
+      <c r="BK10" s="86"/>
+      <c r="BN10" s="86"/>
+      <c r="BQ10" s="86"/>
+      <c r="BT10" s="86"/>
+      <c r="BW10" s="86"/>
+      <c r="BY10" s="86"/>
+      <c r="BZ10" s="86"/>
+      <c r="CB10" s="88"/>
+      <c r="CC10" s="86"/>
+      <c r="CE10" s="88"/>
+      <c r="CF10" s="86"/>
+      <c r="CH10" s="88"/>
+      <c r="CI10" s="86"/>
+      <c r="CK10" s="88"/>
+      <c r="CL10" s="86"/>
+      <c r="CN10" s="88"/>
+      <c r="CO10" s="86"/>
+      <c r="CQ10" s="88"/>
+      <c r="CR10" s="86"/>
+      <c r="CT10" s="88"/>
+      <c r="CU10" s="86"/>
     </row>
     <row r="11" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="76" t="str">
+      <c r="E11" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8131,50 +7524,50 @@
       <c r="AJ11" s="30"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="34"/>
-      <c r="AM11" s="57" t="str">
+      <c r="AM11" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="90"/>
-      <c r="AS11" s="90"/>
-      <c r="AV11" s="90"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="90"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="90"/>
-      <c r="BE11" s="90"/>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="90"/>
-      <c r="BK11" s="90"/>
-      <c r="BM11" s="92"/>
-      <c r="BN11" s="90"/>
-      <c r="BQ11" s="90"/>
-      <c r="BT11" s="90"/>
-      <c r="BW11" s="90"/>
-      <c r="BY11" s="90"/>
-      <c r="BZ11" s="90"/>
-      <c r="CB11" s="92"/>
-      <c r="CC11" s="90"/>
-      <c r="CE11" s="92"/>
-      <c r="CF11" s="90"/>
-      <c r="CH11" s="92"/>
-      <c r="CI11" s="90"/>
-      <c r="CK11" s="92"/>
-      <c r="CL11" s="90"/>
-      <c r="CN11" s="92"/>
-      <c r="CO11" s="90"/>
-      <c r="CQ11" s="92"/>
-      <c r="CR11" s="90"/>
-      <c r="CT11" s="92"/>
-      <c r="CU11" s="90"/>
+      <c r="AO11" s="88"/>
+      <c r="AP11" s="86"/>
+      <c r="AS11" s="86"/>
+      <c r="AV11" s="86"/>
+      <c r="AX11" s="88"/>
+      <c r="AY11" s="86"/>
+      <c r="BA11" s="88"/>
+      <c r="BB11" s="86"/>
+      <c r="BE11" s="86"/>
+      <c r="BG11" s="88"/>
+      <c r="BH11" s="86"/>
+      <c r="BK11" s="86"/>
+      <c r="BM11" s="88"/>
+      <c r="BN11" s="86"/>
+      <c r="BQ11" s="86"/>
+      <c r="BT11" s="86"/>
+      <c r="BW11" s="86"/>
+      <c r="BY11" s="86"/>
+      <c r="BZ11" s="86"/>
+      <c r="CB11" s="88"/>
+      <c r="CC11" s="86"/>
+      <c r="CE11" s="88"/>
+      <c r="CF11" s="86"/>
+      <c r="CH11" s="88"/>
+      <c r="CI11" s="86"/>
+      <c r="CK11" s="88"/>
+      <c r="CL11" s="86"/>
+      <c r="CN11" s="88"/>
+      <c r="CO11" s="86"/>
+      <c r="CQ11" s="88"/>
+      <c r="CR11" s="86"/>
+      <c r="CT11" s="88"/>
+      <c r="CU11" s="86"/>
     </row>
     <row r="12" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="76" t="str">
+      <c r="E12" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8226,45 +7619,45 @@
       <c r="AJ12" s="30"/>
       <c r="AK12" s="31"/>
       <c r="AL12" s="34"/>
-      <c r="AM12" s="57" t="str">
+      <c r="AM12" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP12" s="90"/>
-      <c r="AS12" s="90"/>
-      <c r="AV12" s="90"/>
-      <c r="AY12" s="90"/>
-      <c r="BB12" s="90"/>
-      <c r="BE12" s="90"/>
-      <c r="BH12" s="90"/>
-      <c r="BK12" s="90"/>
-      <c r="BN12" s="90"/>
-      <c r="BQ12" s="90"/>
-      <c r="BT12" s="90"/>
-      <c r="BW12" s="90"/>
-      <c r="BY12" s="90"/>
-      <c r="BZ12" s="90"/>
-      <c r="CB12" s="91"/>
-      <c r="CC12" s="90"/>
-      <c r="CE12" s="91"/>
-      <c r="CF12" s="90"/>
-      <c r="CH12" s="91"/>
-      <c r="CI12" s="90"/>
-      <c r="CK12" s="91"/>
-      <c r="CL12" s="90"/>
-      <c r="CN12" s="91"/>
-      <c r="CO12" s="90"/>
-      <c r="CQ12" s="91"/>
-      <c r="CR12" s="90"/>
-      <c r="CT12" s="91"/>
-      <c r="CU12" s="90"/>
+      <c r="AP12" s="86"/>
+      <c r="AS12" s="86"/>
+      <c r="AV12" s="86"/>
+      <c r="AY12" s="86"/>
+      <c r="BB12" s="86"/>
+      <c r="BE12" s="86"/>
+      <c r="BH12" s="86"/>
+      <c r="BK12" s="86"/>
+      <c r="BN12" s="86"/>
+      <c r="BQ12" s="86"/>
+      <c r="BT12" s="86"/>
+      <c r="BW12" s="86"/>
+      <c r="BY12" s="86"/>
+      <c r="BZ12" s="86"/>
+      <c r="CB12" s="87"/>
+      <c r="CC12" s="86"/>
+      <c r="CE12" s="87"/>
+      <c r="CF12" s="86"/>
+      <c r="CH12" s="87"/>
+      <c r="CI12" s="86"/>
+      <c r="CK12" s="87"/>
+      <c r="CL12" s="86"/>
+      <c r="CN12" s="87"/>
+      <c r="CO12" s="86"/>
+      <c r="CQ12" s="87"/>
+      <c r="CR12" s="86"/>
+      <c r="CT12" s="87"/>
+      <c r="CU12" s="86"/>
     </row>
     <row r="13" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="76" t="str">
+      <c r="E13" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8316,42 +7709,42 @@
       <c r="AJ13" s="30"/>
       <c r="AK13" s="31"/>
       <c r="AL13" s="34"/>
-      <c r="AM13" s="57" t="str">
+      <c r="AM13" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP13" s="90"/>
-      <c r="AS13" s="90"/>
-      <c r="AV13" s="90"/>
-      <c r="AY13" s="90"/>
-      <c r="BB13" s="90"/>
-      <c r="BE13" s="90"/>
-      <c r="BG13" s="92"/>
-      <c r="BH13" s="90"/>
-      <c r="BK13" s="90"/>
-      <c r="BN13" s="90"/>
-      <c r="BQ13" s="90"/>
-      <c r="BS13" s="92"/>
-      <c r="BT13" s="90"/>
-      <c r="BW13" s="90"/>
-      <c r="BY13" s="90"/>
-      <c r="BZ13" s="90"/>
-      <c r="CC13" s="90"/>
-      <c r="CF13" s="90"/>
-      <c r="CI13" s="90"/>
-      <c r="CK13" s="92"/>
-      <c r="CL13" s="90"/>
-      <c r="CN13" s="92"/>
-      <c r="CO13" s="90"/>
-      <c r="CR13" s="90"/>
-      <c r="CU13" s="90"/>
+      <c r="AP13" s="86"/>
+      <c r="AS13" s="86"/>
+      <c r="AV13" s="86"/>
+      <c r="AY13" s="86"/>
+      <c r="BB13" s="86"/>
+      <c r="BE13" s="86"/>
+      <c r="BG13" s="88"/>
+      <c r="BH13" s="86"/>
+      <c r="BK13" s="86"/>
+      <c r="BN13" s="86"/>
+      <c r="BQ13" s="86"/>
+      <c r="BS13" s="88"/>
+      <c r="BT13" s="86"/>
+      <c r="BW13" s="86"/>
+      <c r="BY13" s="86"/>
+      <c r="BZ13" s="86"/>
+      <c r="CC13" s="86"/>
+      <c r="CF13" s="86"/>
+      <c r="CI13" s="86"/>
+      <c r="CK13" s="88"/>
+      <c r="CL13" s="86"/>
+      <c r="CN13" s="88"/>
+      <c r="CO13" s="86"/>
+      <c r="CR13" s="86"/>
+      <c r="CU13" s="86"/>
     </row>
     <row r="14" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="76" t="str">
+      <c r="E14" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8403,44 +7796,44 @@
       <c r="AJ14" s="30"/>
       <c r="AK14" s="31"/>
       <c r="AL14" s="32"/>
-      <c r="AM14" s="57" t="str">
+      <c r="AM14" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP14" s="90"/>
-      <c r="AS14" s="90"/>
-      <c r="AV14" s="90"/>
-      <c r="AX14" s="92"/>
-      <c r="AY14" s="90"/>
-      <c r="BA14" s="92"/>
-      <c r="BB14" s="90"/>
-      <c r="BE14" s="90"/>
-      <c r="BG14" s="92"/>
-      <c r="BH14" s="90"/>
-      <c r="BJ14" s="92"/>
-      <c r="BK14" s="90"/>
-      <c r="BN14" s="90"/>
-      <c r="BQ14" s="90"/>
-      <c r="BS14" s="92"/>
-      <c r="BT14" s="90"/>
-      <c r="BV14" s="92"/>
-      <c r="BW14" s="90"/>
-      <c r="BY14" s="90"/>
-      <c r="BZ14" s="90"/>
-      <c r="CC14" s="90"/>
-      <c r="CF14" s="90"/>
-      <c r="CI14" s="90"/>
-      <c r="CL14" s="90"/>
-      <c r="CO14" s="90"/>
-      <c r="CR14" s="90"/>
-      <c r="CU14" s="90"/>
+      <c r="AP14" s="86"/>
+      <c r="AS14" s="86"/>
+      <c r="AV14" s="86"/>
+      <c r="AX14" s="88"/>
+      <c r="AY14" s="86"/>
+      <c r="BA14" s="88"/>
+      <c r="BB14" s="86"/>
+      <c r="BE14" s="86"/>
+      <c r="BG14" s="88"/>
+      <c r="BH14" s="86"/>
+      <c r="BJ14" s="88"/>
+      <c r="BK14" s="86"/>
+      <c r="BN14" s="86"/>
+      <c r="BQ14" s="86"/>
+      <c r="BS14" s="88"/>
+      <c r="BT14" s="86"/>
+      <c r="BV14" s="88"/>
+      <c r="BW14" s="86"/>
+      <c r="BY14" s="86"/>
+      <c r="BZ14" s="86"/>
+      <c r="CC14" s="86"/>
+      <c r="CF14" s="86"/>
+      <c r="CI14" s="86"/>
+      <c r="CL14" s="86"/>
+      <c r="CO14" s="86"/>
+      <c r="CR14" s="86"/>
+      <c r="CU14" s="86"/>
     </row>
     <row r="15" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="76" t="str">
+      <c r="E15" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8492,43 +7885,43 @@
       <c r="AJ15" s="30"/>
       <c r="AK15" s="31"/>
       <c r="AL15" s="34"/>
-      <c r="AM15" s="57" t="str">
+      <c r="AM15" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP15" s="90"/>
-      <c r="AS15" s="90"/>
-      <c r="AV15" s="90"/>
-      <c r="AY15" s="90"/>
-      <c r="BB15" s="90"/>
-      <c r="BE15" s="90"/>
-      <c r="BG15" s="92"/>
-      <c r="BH15" s="90"/>
-      <c r="BK15" s="90"/>
-      <c r="BN15" s="90"/>
-      <c r="BQ15" s="90"/>
-      <c r="BS15" s="92"/>
-      <c r="BT15" s="90"/>
-      <c r="BV15" s="91"/>
-      <c r="BW15" s="90"/>
-      <c r="BY15" s="90"/>
-      <c r="BZ15" s="90"/>
-      <c r="CB15" s="91"/>
-      <c r="CC15" s="90"/>
-      <c r="CE15" s="91"/>
-      <c r="CF15" s="90"/>
-      <c r="CI15" s="90"/>
-      <c r="CL15" s="90"/>
-      <c r="CO15" s="90"/>
-      <c r="CR15" s="90"/>
-      <c r="CU15" s="90"/>
+      <c r="AP15" s="86"/>
+      <c r="AS15" s="86"/>
+      <c r="AV15" s="86"/>
+      <c r="AY15" s="86"/>
+      <c r="BB15" s="86"/>
+      <c r="BE15" s="86"/>
+      <c r="BG15" s="88"/>
+      <c r="BH15" s="86"/>
+      <c r="BK15" s="86"/>
+      <c r="BN15" s="86"/>
+      <c r="BQ15" s="86"/>
+      <c r="BS15" s="88"/>
+      <c r="BT15" s="86"/>
+      <c r="BV15" s="87"/>
+      <c r="BW15" s="86"/>
+      <c r="BY15" s="86"/>
+      <c r="BZ15" s="86"/>
+      <c r="CB15" s="87"/>
+      <c r="CC15" s="86"/>
+      <c r="CE15" s="87"/>
+      <c r="CF15" s="86"/>
+      <c r="CI15" s="86"/>
+      <c r="CL15" s="86"/>
+      <c r="CO15" s="86"/>
+      <c r="CR15" s="86"/>
+      <c r="CU15" s="86"/>
     </row>
     <row r="16" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="76" t="str">
+      <c r="E16" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8580,55 +7973,55 @@
       <c r="AJ16" s="30"/>
       <c r="AK16" s="31"/>
       <c r="AL16" s="34"/>
-      <c r="AM16" s="57" t="str">
+      <c r="AM16" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO16" s="92"/>
-      <c r="AP16" s="90"/>
-      <c r="AR16" s="92"/>
-      <c r="AS16" s="90"/>
-      <c r="AU16" s="92"/>
-      <c r="AV16" s="90"/>
-      <c r="AX16" s="92"/>
-      <c r="AY16" s="90"/>
-      <c r="BA16" s="92"/>
-      <c r="BB16" s="90"/>
-      <c r="BD16" s="92"/>
-      <c r="BE16" s="90"/>
-      <c r="BG16" s="92"/>
-      <c r="BH16" s="90"/>
-      <c r="BI16" s="89"/>
-      <c r="BJ16" s="92"/>
-      <c r="BK16" s="90"/>
-      <c r="BN16" s="90"/>
-      <c r="BQ16" s="90"/>
-      <c r="BS16" s="90"/>
-      <c r="BT16" s="90"/>
-      <c r="BW16" s="90"/>
-      <c r="BY16" s="90"/>
-      <c r="BZ16" s="90"/>
-      <c r="CB16" s="92"/>
-      <c r="CC16" s="90"/>
-      <c r="CE16" s="92"/>
-      <c r="CF16" s="90"/>
-      <c r="CH16" s="92"/>
-      <c r="CI16" s="90"/>
-      <c r="CK16" s="92"/>
-      <c r="CL16" s="90"/>
-      <c r="CN16" s="92"/>
-      <c r="CO16" s="90"/>
-      <c r="CQ16" s="92"/>
-      <c r="CR16" s="90"/>
-      <c r="CT16" s="92"/>
-      <c r="CU16" s="90"/>
+      <c r="AO16" s="88"/>
+      <c r="AP16" s="86"/>
+      <c r="AR16" s="88"/>
+      <c r="AS16" s="86"/>
+      <c r="AU16" s="88"/>
+      <c r="AV16" s="86"/>
+      <c r="AX16" s="88"/>
+      <c r="AY16" s="86"/>
+      <c r="BA16" s="88"/>
+      <c r="BB16" s="86"/>
+      <c r="BD16" s="88"/>
+      <c r="BE16" s="86"/>
+      <c r="BG16" s="88"/>
+      <c r="BH16" s="86"/>
+      <c r="BI16" s="85"/>
+      <c r="BJ16" s="88"/>
+      <c r="BK16" s="86"/>
+      <c r="BN16" s="86"/>
+      <c r="BQ16" s="86"/>
+      <c r="BS16" s="86"/>
+      <c r="BT16" s="86"/>
+      <c r="BW16" s="86"/>
+      <c r="BY16" s="86"/>
+      <c r="BZ16" s="86"/>
+      <c r="CB16" s="88"/>
+      <c r="CC16" s="86"/>
+      <c r="CE16" s="88"/>
+      <c r="CF16" s="86"/>
+      <c r="CH16" s="88"/>
+      <c r="CI16" s="86"/>
+      <c r="CK16" s="88"/>
+      <c r="CL16" s="86"/>
+      <c r="CN16" s="88"/>
+      <c r="CO16" s="86"/>
+      <c r="CQ16" s="88"/>
+      <c r="CR16" s="86"/>
+      <c r="CT16" s="88"/>
+      <c r="CU16" s="86"/>
     </row>
     <row r="17" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="76" t="str">
+      <c r="E17" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8680,58 +8073,58 @@
       <c r="AJ17" s="30"/>
       <c r="AK17" s="31"/>
       <c r="AL17" s="34"/>
-      <c r="AM17" s="57" t="str">
+      <c r="AM17" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO17" s="92"/>
-      <c r="AP17" s="90"/>
-      <c r="AR17" s="92"/>
-      <c r="AS17" s="90"/>
-      <c r="AU17" s="92"/>
-      <c r="AV17" s="90"/>
-      <c r="AX17" s="92"/>
-      <c r="AY17" s="90"/>
-      <c r="BA17" s="92"/>
-      <c r="BB17" s="90"/>
-      <c r="BD17" s="92"/>
-      <c r="BE17" s="90"/>
-      <c r="BG17" s="92"/>
-      <c r="BH17" s="90"/>
-      <c r="BI17" s="89"/>
-      <c r="BJ17" s="92"/>
-      <c r="BK17" s="90"/>
-      <c r="BL17" s="89"/>
-      <c r="BM17" s="92"/>
-      <c r="BN17" s="90"/>
-      <c r="BO17" s="89"/>
-      <c r="BP17" s="92"/>
-      <c r="BQ17" s="90"/>
-      <c r="BT17" s="90"/>
-      <c r="BW17" s="90"/>
-      <c r="BY17" s="90"/>
-      <c r="BZ17" s="90"/>
-      <c r="CB17" s="92"/>
-      <c r="CC17" s="90"/>
-      <c r="CE17" s="92"/>
-      <c r="CF17" s="90"/>
-      <c r="CH17" s="92"/>
-      <c r="CI17" s="90"/>
-      <c r="CK17" s="92"/>
-      <c r="CL17" s="90"/>
-      <c r="CN17" s="92"/>
-      <c r="CO17" s="90"/>
-      <c r="CQ17" s="92"/>
-      <c r="CR17" s="90"/>
-      <c r="CT17" s="92"/>
-      <c r="CU17" s="90"/>
+      <c r="AO17" s="88"/>
+      <c r="AP17" s="86"/>
+      <c r="AR17" s="88"/>
+      <c r="AS17" s="86"/>
+      <c r="AU17" s="88"/>
+      <c r="AV17" s="86"/>
+      <c r="AX17" s="88"/>
+      <c r="AY17" s="86"/>
+      <c r="BA17" s="88"/>
+      <c r="BB17" s="86"/>
+      <c r="BD17" s="88"/>
+      <c r="BE17" s="86"/>
+      <c r="BG17" s="88"/>
+      <c r="BH17" s="86"/>
+      <c r="BI17" s="85"/>
+      <c r="BJ17" s="88"/>
+      <c r="BK17" s="86"/>
+      <c r="BL17" s="85"/>
+      <c r="BM17" s="88"/>
+      <c r="BN17" s="86"/>
+      <c r="BO17" s="85"/>
+      <c r="BP17" s="88"/>
+      <c r="BQ17" s="86"/>
+      <c r="BT17" s="86"/>
+      <c r="BW17" s="86"/>
+      <c r="BY17" s="86"/>
+      <c r="BZ17" s="86"/>
+      <c r="CB17" s="88"/>
+      <c r="CC17" s="86"/>
+      <c r="CE17" s="88"/>
+      <c r="CF17" s="86"/>
+      <c r="CH17" s="88"/>
+      <c r="CI17" s="86"/>
+      <c r="CK17" s="88"/>
+      <c r="CL17" s="86"/>
+      <c r="CN17" s="88"/>
+      <c r="CO17" s="86"/>
+      <c r="CQ17" s="88"/>
+      <c r="CR17" s="86"/>
+      <c r="CT17" s="88"/>
+      <c r="CU17" s="86"/>
     </row>
     <row r="18" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="76" t="str">
+      <c r="E18" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8783,55 +8176,55 @@
       <c r="AJ18" s="30"/>
       <c r="AK18" s="31"/>
       <c r="AL18" s="34"/>
-      <c r="AM18" s="57" t="str">
+      <c r="AM18" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO18" s="92"/>
-      <c r="AP18" s="90"/>
-      <c r="AR18" s="92"/>
-      <c r="AS18" s="90"/>
-      <c r="AU18" s="92"/>
-      <c r="AV18" s="90"/>
-      <c r="AX18" s="92"/>
-      <c r="AY18" s="90"/>
-      <c r="BA18" s="92"/>
-      <c r="BB18" s="90"/>
-      <c r="BD18" s="92"/>
-      <c r="BE18" s="90"/>
-      <c r="BG18" s="92"/>
-      <c r="BH18" s="90"/>
-      <c r="BJ18" s="92"/>
-      <c r="BK18" s="90"/>
-      <c r="BM18" s="92"/>
-      <c r="BN18" s="90"/>
-      <c r="BP18" s="92"/>
-      <c r="BQ18" s="90"/>
-      <c r="BT18" s="90"/>
-      <c r="BW18" s="90"/>
-      <c r="BY18" s="90"/>
-      <c r="BZ18" s="90"/>
-      <c r="CB18" s="92"/>
-      <c r="CC18" s="90"/>
-      <c r="CE18" s="92"/>
-      <c r="CF18" s="90"/>
-      <c r="CH18" s="92"/>
-      <c r="CI18" s="90"/>
-      <c r="CK18" s="92"/>
-      <c r="CL18" s="90"/>
-      <c r="CN18" s="92"/>
-      <c r="CO18" s="90"/>
-      <c r="CQ18" s="92"/>
-      <c r="CR18" s="90"/>
-      <c r="CT18" s="92"/>
-      <c r="CU18" s="90"/>
+      <c r="AO18" s="88"/>
+      <c r="AP18" s="86"/>
+      <c r="AR18" s="88"/>
+      <c r="AS18" s="86"/>
+      <c r="AU18" s="88"/>
+      <c r="AV18" s="86"/>
+      <c r="AX18" s="88"/>
+      <c r="AY18" s="86"/>
+      <c r="BA18" s="88"/>
+      <c r="BB18" s="86"/>
+      <c r="BD18" s="88"/>
+      <c r="BE18" s="86"/>
+      <c r="BG18" s="88"/>
+      <c r="BH18" s="86"/>
+      <c r="BJ18" s="88"/>
+      <c r="BK18" s="86"/>
+      <c r="BM18" s="88"/>
+      <c r="BN18" s="86"/>
+      <c r="BP18" s="88"/>
+      <c r="BQ18" s="86"/>
+      <c r="BT18" s="86"/>
+      <c r="BW18" s="86"/>
+      <c r="BY18" s="86"/>
+      <c r="BZ18" s="86"/>
+      <c r="CB18" s="88"/>
+      <c r="CC18" s="86"/>
+      <c r="CE18" s="88"/>
+      <c r="CF18" s="86"/>
+      <c r="CH18" s="88"/>
+      <c r="CI18" s="86"/>
+      <c r="CK18" s="88"/>
+      <c r="CL18" s="86"/>
+      <c r="CN18" s="88"/>
+      <c r="CO18" s="86"/>
+      <c r="CQ18" s="88"/>
+      <c r="CR18" s="86"/>
+      <c r="CT18" s="88"/>
+      <c r="CU18" s="86"/>
     </row>
     <row r="19" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="76" t="str">
+      <c r="E19" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8883,55 +8276,55 @@
       <c r="AJ19" s="30"/>
       <c r="AK19" s="31"/>
       <c r="AL19" s="34"/>
-      <c r="AM19" s="57" t="str">
+      <c r="AM19" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO19" s="92"/>
-      <c r="AP19" s="90"/>
-      <c r="AR19" s="92"/>
-      <c r="AS19" s="90"/>
-      <c r="AU19" s="92"/>
-      <c r="AV19" s="90"/>
-      <c r="AX19" s="92"/>
-      <c r="AY19" s="90"/>
-      <c r="BA19" s="92"/>
-      <c r="BB19" s="90"/>
-      <c r="BD19" s="92"/>
-      <c r="BE19" s="90"/>
-      <c r="BG19" s="92"/>
-      <c r="BH19" s="90"/>
-      <c r="BJ19" s="92"/>
-      <c r="BK19" s="90"/>
-      <c r="BM19" s="92"/>
-      <c r="BN19" s="90"/>
-      <c r="BP19" s="92"/>
-      <c r="BQ19" s="90"/>
-      <c r="BT19" s="90"/>
-      <c r="BW19" s="90"/>
-      <c r="BY19" s="90"/>
-      <c r="BZ19" s="90"/>
-      <c r="CB19" s="92"/>
-      <c r="CC19" s="90"/>
-      <c r="CE19" s="92"/>
-      <c r="CF19" s="90"/>
-      <c r="CH19" s="92"/>
-      <c r="CI19" s="90"/>
-      <c r="CK19" s="92"/>
-      <c r="CL19" s="90"/>
-      <c r="CN19" s="92"/>
-      <c r="CO19" s="90"/>
-      <c r="CQ19" s="92"/>
-      <c r="CR19" s="90"/>
-      <c r="CT19" s="92"/>
-      <c r="CU19" s="90"/>
+      <c r="AO19" s="88"/>
+      <c r="AP19" s="86"/>
+      <c r="AR19" s="88"/>
+      <c r="AS19" s="86"/>
+      <c r="AU19" s="88"/>
+      <c r="AV19" s="86"/>
+      <c r="AX19" s="88"/>
+      <c r="AY19" s="86"/>
+      <c r="BA19" s="88"/>
+      <c r="BB19" s="86"/>
+      <c r="BD19" s="88"/>
+      <c r="BE19" s="86"/>
+      <c r="BG19" s="88"/>
+      <c r="BH19" s="86"/>
+      <c r="BJ19" s="88"/>
+      <c r="BK19" s="86"/>
+      <c r="BM19" s="88"/>
+      <c r="BN19" s="86"/>
+      <c r="BP19" s="88"/>
+      <c r="BQ19" s="86"/>
+      <c r="BT19" s="86"/>
+      <c r="BW19" s="86"/>
+      <c r="BY19" s="86"/>
+      <c r="BZ19" s="86"/>
+      <c r="CB19" s="88"/>
+      <c r="CC19" s="86"/>
+      <c r="CE19" s="88"/>
+      <c r="CF19" s="86"/>
+      <c r="CH19" s="88"/>
+      <c r="CI19" s="86"/>
+      <c r="CK19" s="88"/>
+      <c r="CL19" s="86"/>
+      <c r="CN19" s="88"/>
+      <c r="CO19" s="86"/>
+      <c r="CQ19" s="88"/>
+      <c r="CR19" s="86"/>
+      <c r="CT19" s="88"/>
+      <c r="CU19" s="86"/>
     </row>
     <row r="20" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="76" t="str">
+      <c r="E20" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8983,57 +8376,57 @@
       <c r="AJ20" s="30"/>
       <c r="AK20" s="31"/>
       <c r="AL20" s="34"/>
-      <c r="AM20" s="57" t="str">
+      <c r="AM20" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO20" s="92"/>
-      <c r="AP20" s="90"/>
-      <c r="AR20" s="92"/>
-      <c r="AS20" s="90"/>
-      <c r="AU20" s="92"/>
-      <c r="AV20" s="90"/>
-      <c r="AX20" s="92"/>
-      <c r="AY20" s="90"/>
-      <c r="BA20" s="92"/>
-      <c r="BB20" s="90"/>
-      <c r="BD20" s="92"/>
-      <c r="BE20" s="90"/>
-      <c r="BG20" s="92"/>
-      <c r="BH20" s="90"/>
-      <c r="BJ20" s="92"/>
-      <c r="BK20" s="90"/>
-      <c r="BM20" s="92"/>
-      <c r="BN20" s="90"/>
-      <c r="BP20" s="92"/>
-      <c r="BQ20" s="90"/>
-      <c r="BS20" s="92"/>
-      <c r="BT20" s="90"/>
-      <c r="BV20" s="92"/>
-      <c r="BW20" s="90"/>
-      <c r="BY20" s="90"/>
-      <c r="BZ20" s="90"/>
-      <c r="CB20" s="92"/>
-      <c r="CC20" s="90"/>
-      <c r="CE20" s="92"/>
-      <c r="CF20" s="90"/>
-      <c r="CH20" s="92"/>
-      <c r="CI20" s="90"/>
-      <c r="CK20" s="92"/>
-      <c r="CL20" s="90"/>
-      <c r="CN20" s="92"/>
-      <c r="CO20" s="90"/>
-      <c r="CQ20" s="92"/>
-      <c r="CR20" s="90"/>
-      <c r="CT20" s="92"/>
-      <c r="CU20" s="90"/>
+      <c r="AO20" s="88"/>
+      <c r="AP20" s="86"/>
+      <c r="AR20" s="88"/>
+      <c r="AS20" s="86"/>
+      <c r="AU20" s="88"/>
+      <c r="AV20" s="86"/>
+      <c r="AX20" s="88"/>
+      <c r="AY20" s="86"/>
+      <c r="BA20" s="88"/>
+      <c r="BB20" s="86"/>
+      <c r="BD20" s="88"/>
+      <c r="BE20" s="86"/>
+      <c r="BG20" s="88"/>
+      <c r="BH20" s="86"/>
+      <c r="BJ20" s="88"/>
+      <c r="BK20" s="86"/>
+      <c r="BM20" s="88"/>
+      <c r="BN20" s="86"/>
+      <c r="BP20" s="88"/>
+      <c r="BQ20" s="86"/>
+      <c r="BS20" s="88"/>
+      <c r="BT20" s="86"/>
+      <c r="BV20" s="88"/>
+      <c r="BW20" s="86"/>
+      <c r="BY20" s="86"/>
+      <c r="BZ20" s="86"/>
+      <c r="CB20" s="88"/>
+      <c r="CC20" s="86"/>
+      <c r="CE20" s="88"/>
+      <c r="CF20" s="86"/>
+      <c r="CH20" s="88"/>
+      <c r="CI20" s="86"/>
+      <c r="CK20" s="88"/>
+      <c r="CL20" s="86"/>
+      <c r="CN20" s="88"/>
+      <c r="CO20" s="86"/>
+      <c r="CQ20" s="88"/>
+      <c r="CR20" s="86"/>
+      <c r="CT20" s="88"/>
+      <c r="CU20" s="86"/>
     </row>
     <row r="21" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="76" t="str">
+      <c r="E21" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -9062,18 +8455,18 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="8"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="77"/>
       <c r="AB21" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="80"/>
-      <c r="AD21" s="80"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="78"/>
       <c r="AE21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9085,41 +8478,41 @@
       <c r="AJ21" s="30"/>
       <c r="AK21" s="31"/>
       <c r="AL21" s="32"/>
-      <c r="AM21" s="57" t="str">
+      <c r="AM21" s="55" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP21" s="90"/>
-      <c r="AS21" s="90"/>
-      <c r="AV21" s="90"/>
-      <c r="AY21" s="90"/>
-      <c r="BA21" s="92"/>
-      <c r="BB21" s="90"/>
-      <c r="BE21" s="90"/>
-      <c r="BH21" s="90"/>
-      <c r="BJ21" s="90"/>
-      <c r="BK21" s="90"/>
-      <c r="BN21" s="90"/>
-      <c r="BQ21" s="90"/>
-      <c r="BT21" s="90"/>
-      <c r="BW21" s="90"/>
-      <c r="BY21" s="92"/>
-      <c r="BZ21" s="90"/>
-      <c r="CC21" s="90"/>
-      <c r="CF21" s="90"/>
-      <c r="CI21" s="90"/>
-      <c r="CL21" s="90"/>
-      <c r="CO21" s="90"/>
-      <c r="CR21" s="90"/>
-      <c r="CT21" s="90"/>
-      <c r="CU21" s="90"/>
+      <c r="AP21" s="86"/>
+      <c r="AS21" s="86"/>
+      <c r="AV21" s="86"/>
+      <c r="AY21" s="86"/>
+      <c r="BA21" s="88"/>
+      <c r="BB21" s="86"/>
+      <c r="BE21" s="86"/>
+      <c r="BH21" s="86"/>
+      <c r="BJ21" s="86"/>
+      <c r="BK21" s="86"/>
+      <c r="BN21" s="86"/>
+      <c r="BQ21" s="86"/>
+      <c r="BT21" s="86"/>
+      <c r="BW21" s="86"/>
+      <c r="BY21" s="88"/>
+      <c r="BZ21" s="86"/>
+      <c r="CC21" s="86"/>
+      <c r="CF21" s="86"/>
+      <c r="CI21" s="86"/>
+      <c r="CL21" s="86"/>
+      <c r="CO21" s="86"/>
+      <c r="CR21" s="86"/>
+      <c r="CT21" s="86"/>
+      <c r="CU21" s="86"/>
     </row>
     <row r="22" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="77" t="str">
+      <c r="E22" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -9148,18 +8541,18 @@
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
       <c r="U22" s="14"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
       <c r="AB22" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="82"/>
+      <c r="AC22" s="80"/>
+      <c r="AD22" s="80"/>
       <c r="AE22" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9170,36 +8563,36 @@
       <c r="AI22" s="36"/>
       <c r="AJ22" s="37"/>
       <c r="AK22" s="38"/>
-      <c r="AL22" s="40"/>
-      <c r="AM22" s="87" t="str">
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="83" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO22" s="92"/>
-      <c r="AP22" s="90"/>
-      <c r="AS22" s="90"/>
-      <c r="AV22" s="90"/>
-      <c r="AY22" s="90"/>
-      <c r="BA22" s="92"/>
-      <c r="BB22" s="90"/>
-      <c r="BE22" s="90"/>
-      <c r="BH22" s="90"/>
-      <c r="BJ22" s="92"/>
-      <c r="BK22" s="90"/>
-      <c r="BN22" s="90"/>
-      <c r="BQ22" s="90"/>
-      <c r="BT22" s="90"/>
-      <c r="BW22" s="90"/>
-      <c r="BZ22" s="90"/>
-      <c r="CC22" s="90"/>
-      <c r="CF22" s="90"/>
-      <c r="CI22" s="90"/>
-      <c r="CL22" s="90"/>
-      <c r="CO22" s="90"/>
-      <c r="CQ22" s="92"/>
-      <c r="CR22" s="90"/>
-      <c r="CT22" s="92"/>
-      <c r="CU22" s="90"/>
+      <c r="AO22" s="88"/>
+      <c r="AP22" s="86"/>
+      <c r="AS22" s="86"/>
+      <c r="AV22" s="86"/>
+      <c r="AY22" s="86"/>
+      <c r="BA22" s="88"/>
+      <c r="BB22" s="86"/>
+      <c r="BE22" s="86"/>
+      <c r="BH22" s="86"/>
+      <c r="BJ22" s="88"/>
+      <c r="BK22" s="86"/>
+      <c r="BN22" s="86"/>
+      <c r="BQ22" s="86"/>
+      <c r="BT22" s="86"/>
+      <c r="BW22" s="86"/>
+      <c r="BZ22" s="86"/>
+      <c r="CC22" s="86"/>
+      <c r="CF22" s="86"/>
+      <c r="CI22" s="86"/>
+      <c r="CL22" s="86"/>
+      <c r="CO22" s="86"/>
+      <c r="CQ22" s="88"/>
+      <c r="CR22" s="86"/>
+      <c r="CT22" s="88"/>
+      <c r="CU22" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9217,234 +8610,234 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="61" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="65">
+      <c r="B2" s="63">
         <v>-5.4793240000000001</v>
       </c>
-      <c r="C2" s="65">
+      <c r="C2" s="63">
         <v>119.31157399999999</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="63">
         <v>-5.4880659999999999</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="63">
         <v>119.31312699999999</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="63">
         <v>-5.4889159999999997</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="63">
         <v>119.309448</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="63">
         <v>-5.468826</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="63">
         <v>119.300459</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="64"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="63">
         <v>-5.4682649999999997</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="63">
         <v>119.30207900000001</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="64"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="63">
         <v>-5.4671349999999999</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="63">
         <v>119.302812</v>
       </c>
-      <c r="D7" s="66"/>
+      <c r="D7" s="64"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="63">
         <v>-5.4901910000000003</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="63">
         <v>119.311859</v>
       </c>
-      <c r="D8" s="66"/>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="63">
         <v>-5.491987</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="63">
         <v>119.312573</v>
       </c>
-      <c r="D9" s="66"/>
+      <c r="D9" s="64"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="63">
         <v>-5.49282</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="63">
         <v>119.31198000000001</v>
       </c>
-      <c r="D10" s="66"/>
+      <c r="D10" s="64"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="63">
         <v>-5.4639509999999998</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="63">
         <v>119.287291</v>
       </c>
-      <c r="D11" s="66"/>
+      <c r="D11" s="64"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="63">
         <v>-5.4620889999999997</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="63">
         <v>119.286874</v>
       </c>
-      <c r="D12" s="66"/>
+      <c r="D12" s="64"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="65">
+      <c r="B13" s="63">
         <v>-5.463902</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="63">
         <v>119.28802</v>
       </c>
-      <c r="D13" s="66"/>
+      <c r="D13" s="64"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="65">
+      <c r="B14" s="63">
         <v>-5.4810160000000003</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="63">
         <v>119.31128099999999</v>
       </c>
-      <c r="D14" s="66"/>
+      <c r="D14" s="64"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="63">
         <v>-5.4811319999999997</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="63">
         <v>119.31211</v>
       </c>
-      <c r="D15" s="66"/>
+      <c r="D15" s="64"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="65">
+      <c r="B16" s="63">
         <v>-5.4793599999999998</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="63">
         <v>119.312033</v>
       </c>
-      <c r="D16" s="66"/>
+      <c r="D16" s="64"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="65">
+      <c r="B17" s="63">
         <v>-5.4663769999999996</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="63">
         <v>119.30229</v>
       </c>
-      <c r="D17" s="66"/>
+      <c r="D17" s="64"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="63">
         <v>-5.4682510000000004</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="63">
         <v>119.301957</v>
       </c>
-      <c r="D18" s="66"/>
+      <c r="D18" s="64"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="68">
+      <c r="B19" s="66">
         <v>-5.4686510000000004</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="66">
         <v>119.300428</v>
       </c>
-      <c r="D19" s="69"/>
+      <c r="D19" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/URUVS/Datasheets/URUV/05.2024/May_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/05.2024/May_RecordingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\05.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5624FC55-7BDF-44EA-AC74-96AB138A59BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3A7795-B0A4-4962-9675-2E55E28FBE11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="204">
   <si>
     <t>DATE</t>
   </si>
@@ -639,6 +639,12 @@
   </si>
   <si>
     <t>T1_FISHO</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>MAY</t>
   </si>
 </sst>
 </file>
@@ -1277,1251 +1283,1263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:DE19"/>
+  <dimension ref="A1:DF19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="8.7265625" customWidth="1"/>
-    <col min="22" max="28" width="8.7265625" style="1" customWidth="1"/>
-    <col min="29" max="35" width="8.7265625" customWidth="1"/>
-    <col min="36" max="36" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="8.7265625" style="71"/>
-    <col min="78" max="78" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="8.7265625" customWidth="1"/>
+    <col min="23" max="29" width="8.7265625" style="1" customWidth="1"/>
+    <col min="30" max="36" width="8.7265625" customWidth="1"/>
+    <col min="37" max="37" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="8.7265625" style="71"/>
+    <col min="79" max="79" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:110" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="F1" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AD1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AE1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AF1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AG1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AH1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="26" t="s">
+      <c r="AJ1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" s="58" t="s">
+      <c r="AK1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="AK1" s="81" t="s">
+      <c r="AL1" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AM1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="58" t="s">
+      <c r="AN1" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" s="81" t="s">
+      <c r="AO1" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" s="27" t="s">
+      <c r="AP1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AP1" s="58" t="s">
+      <c r="AQ1" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="AQ1" s="81" t="s">
+      <c r="AR1" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="27" t="s">
+      <c r="AS1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="58" t="s">
+      <c r="AT1" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="81" t="s">
+      <c r="AU1" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="AU1" s="27" t="s">
+      <c r="AV1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AV1" s="58" t="s">
+      <c r="AW1" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AW1" s="81" t="s">
+      <c r="AX1" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="AX1" s="27" t="s">
+      <c r="AY1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="AY1" s="58" t="s">
+      <c r="AZ1" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="AZ1" s="81" t="s">
+      <c r="BA1" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="BA1" s="27" t="s">
+      <c r="BB1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="BB1" s="58" t="s">
+      <c r="BC1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="BC1" s="81" t="s">
+      <c r="BD1" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="BD1" s="27" t="s">
+      <c r="BE1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="58" t="s">
+      <c r="BF1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="BF1" s="81" t="s">
+      <c r="BG1" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="BG1" s="27" t="s">
+      <c r="BH1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="BH1" s="58" t="s">
+      <c r="BI1" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="BI1" s="81" t="s">
+      <c r="BJ1" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="BJ1" s="27" t="s">
+      <c r="BK1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="BK1" s="58" t="s">
+      <c r="BL1" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="BL1" s="81" t="s">
+      <c r="BM1" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="BM1" s="27" t="s">
+      <c r="BN1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="BN1" s="58" t="s">
+      <c r="BO1" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="BO1" s="81" t="s">
+      <c r="BP1" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="BP1" s="27" t="s">
+      <c r="BQ1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="BQ1" s="58" t="s">
+      <c r="BR1" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="BR1" s="81" t="s">
+      <c r="BS1" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="BS1" s="27" t="s">
+      <c r="BT1" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="BT1" s="58" t="s">
+      <c r="BU1" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="BU1" s="81" t="s">
+      <c r="BV1" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="BV1" s="27" t="s">
+      <c r="BW1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="BW1" s="58" t="s">
+      <c r="BX1" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="BX1" s="82" t="s">
+      <c r="BY1" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="BY1" s="27" t="s">
+      <c r="BZ1" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="BZ1" s="58" t="s">
+      <c r="CA1" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="CA1" s="81" t="s">
+      <c r="CB1" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="CB1" s="27" t="s">
+      <c r="CC1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="CC1" s="58" t="s">
+      <c r="CD1" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="CD1" s="81" t="s">
+      <c r="CE1" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="CE1" s="27" t="s">
+      <c r="CF1" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="CF1" s="58" t="s">
+      <c r="CG1" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="CG1" s="81" t="s">
+      <c r="CH1" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="CH1" s="27" t="s">
+      <c r="CI1" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="CI1" s="58" t="s">
+      <c r="CJ1" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="CJ1" s="81" t="s">
+      <c r="CK1" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="CK1" s="27" t="s">
+      <c r="CL1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="CL1" s="58" t="s">
+      <c r="CM1" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="CM1" s="81" t="s">
+      <c r="CN1" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="CN1" s="27" t="s">
+      <c r="CO1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="CO1" s="58" t="s">
+      <c r="CP1" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="CP1" s="81" t="s">
+      <c r="CQ1" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="CQ1" s="27" t="s">
+      <c r="CR1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="CR1" s="58" t="s">
+      <c r="CS1" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="CS1" s="81" t="s">
+      <c r="CT1" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="CT1" s="27" t="s">
+      <c r="CU1" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="CU1" s="58" t="s">
+      <c r="CV1" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="CV1" s="81" t="s">
+      <c r="CW1" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="CW1" s="27" t="s">
+      <c r="CX1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="CX1" s="58" t="s">
+      <c r="CY1" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="CY1" s="81" t="s">
+      <c r="CZ1" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="CZ1" s="27" t="s">
+      <c r="DA1" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="DA1" s="58" t="s">
+      <c r="DB1" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="DB1" s="81" t="s">
+      <c r="DC1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="DC1" s="27" t="s">
+      <c r="DD1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="DD1" s="58" t="s">
+      <c r="DE1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="DE1" s="28" t="s">
+      <c r="DF1" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="74" t="str">
-        <f>C2&amp;""&amp;D2</f>
+      <c r="F2" s="74" t="str">
+        <f>D2&amp;""&amp;E2</f>
         <v>D2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
       </c>
       <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
         <v>0.54305555555555551</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>0.63888888888888895</v>
       </c>
-      <c r="J2" s="7">
-        <f>VLOOKUP(E2,LATLON!$A$2:$C$19,2)</f>
+      <c r="K2" s="7">
+        <f>VLOOKUP(F2,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4880659999999999</v>
       </c>
-      <c r="K2" s="7">
-        <f>VLOOKUP(E2,LATLON!$A$2:$C$19,3)</f>
+      <c r="L2" s="7">
+        <f>VLOOKUP(F2,LATLON!$A$2:$C$19,3)</f>
         <v>119.31312699999999</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="5">
         <v>50</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
         <v>49</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="O2" s="5">
+      <c r="P2" s="5">
         <v>4</v>
       </c>
-      <c r="P2" s="6">
-        <f>I2-H2</f>
+      <c r="Q2" s="6">
+        <f>J2-I2</f>
         <v>9.5833333333333437E-2</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="S2" s="5">
+      <c r="T2" s="5">
         <v>0.52</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="19">
+      <c r="V2" s="8"/>
+      <c r="W2" s="19">
         <v>1.8668981481481481E-2</v>
-      </c>
-      <c r="W2" s="20">
-        <v>1.7858796296296296E-2</v>
       </c>
       <c r="X2" s="20">
         <v>1.7858796296296296E-2</v>
       </c>
       <c r="Y2" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="Z2" s="20">
         <v>3.1134259259259257E-3</v>
       </c>
-      <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
-      <c r="AB2" s="20">
-        <f>SUM(V2:AA2)</f>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20">
+        <f>SUM(W2:AB2)</f>
         <v>5.7499999999999996E-2</v>
       </c>
-      <c r="AC2" s="20">
+      <c r="AD2" s="20">
         <v>3.8078703703703707E-3</v>
       </c>
-      <c r="AD2" s="20">
+      <c r="AE2" s="20">
         <v>1.005787037037037E-2</v>
       </c>
-      <c r="AE2" s="20">
-        <f t="shared" ref="AE2:AE13" si="0">AB2-AC2-AD2</f>
+      <c r="AF2" s="20">
+        <f t="shared" ref="AF2:AF13" si="0">AC2-AD2-AE2</f>
         <v>4.3634259259259255E-2</v>
       </c>
-      <c r="AF2" s="21">
+      <c r="AG2" s="21">
         <v>80</v>
       </c>
-      <c r="AG2" s="21">
+      <c r="AH2" s="21">
         <v>90</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="29">
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="29">
         <v>6</v>
       </c>
-      <c r="AJ2" s="30">
+      <c r="AK2" s="30">
         <v>6</v>
       </c>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="33" t="str">
-        <f t="shared" ref="AM2:AM13" si="1">IF(AK2=0,"NA",AL2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AN2" s="57">
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="33" t="str">
+        <f t="shared" ref="AN2:AN13" si="1">IF(AL2=0,"NA",AM2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AO2" s="57">
         <v>1</v>
       </c>
-      <c r="AO2" s="70">
+      <c r="AP2" s="70">
         <v>3.9467592592592596E-2</v>
       </c>
-      <c r="AP2" s="33">
-        <f t="shared" ref="AP2:AP13" si="2">IF(AN2=0,"NA",AO2-$AC2)</f>
+      <c r="AQ2" s="33">
+        <f t="shared" ref="AQ2:AQ13" si="2">IF(AO2=0,"NA",AP2-$AD2)</f>
         <v>3.5659722222222225E-2</v>
       </c>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="33" t="str">
-        <f t="shared" ref="AS2:AS13" si="3">IF(AQ2=0,"NA",AR2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="33" t="str">
-        <f t="shared" ref="AV2:AV13" si="4">IF(AT2=0,"NA",AU2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="33" t="str">
-        <f t="shared" ref="AY2:AY19" si="5">IF(AW2=0,"NA",AX2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="33" t="str">
-        <f t="shared" ref="BB2:BB13" si="6">IF(AZ2=0,"NA",BA2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="56"/>
-      <c r="BE2" s="33" t="str">
-        <f t="shared" ref="BE2:BE13" si="7">IF(BC2=0,"NA",BD2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="56"/>
-      <c r="BH2" s="33" t="str">
-        <f t="shared" ref="BH2:BH13" si="8">IF(BF2=0,"NA",BG2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BI2" s="57">
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="33" t="str">
+        <f t="shared" ref="AT2:AT13" si="3">IF(AR2=0,"NA",AS2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="33" t="str">
+        <f t="shared" ref="AW2:AW13" si="4">IF(AU2=0,"NA",AV2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="33" t="str">
+        <f t="shared" ref="AZ2:AZ19" si="5">IF(AX2=0,"NA",AY2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="33" t="str">
+        <f t="shared" ref="BC2:BC13" si="6">IF(BA2=0,"NA",BB2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="33" t="str">
+        <f t="shared" ref="BF2:BF13" si="7">IF(BD2=0,"NA",BE2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BG2" s="57"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="33" t="str">
+        <f t="shared" ref="BI2:BI13" si="8">IF(BG2=0,"NA",BH2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BJ2" s="57">
         <v>2</v>
       </c>
-      <c r="BJ2" s="70">
+      <c r="BK2" s="70">
         <v>9.0277777777777787E-3</v>
       </c>
-      <c r="BK2" s="33">
-        <f t="shared" ref="BK2:BK13" si="9">IF(BI2=0,"NA",BJ2-$AC2)</f>
+      <c r="BL2" s="33">
+        <f t="shared" ref="BL2:BL13" si="9">IF(BJ2=0,"NA",BK2-$AD2)</f>
         <v>5.2199074074074075E-3</v>
       </c>
-      <c r="BL2" s="57"/>
-      <c r="BM2" s="56"/>
-      <c r="BN2" s="33" t="str">
-        <f t="shared" ref="BN2:BN13" si="10">IF(BL2=0,"NA",BM2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BO2" s="57"/>
-      <c r="BP2" s="56"/>
-      <c r="BQ2" s="33" t="str">
-        <f t="shared" ref="BQ2:BQ13" si="11">IF(BO2=0,"NA",BP2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BR2" s="57">
+      <c r="BM2" s="57"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="33" t="str">
+        <f t="shared" ref="BO2:BO13" si="10">IF(BM2=0,"NA",BN2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BP2" s="57"/>
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="33" t="str">
+        <f t="shared" ref="BR2:BR13" si="11">IF(BP2=0,"NA",BQ2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BS2" s="57">
         <v>3</v>
       </c>
-      <c r="BS2" s="72">
+      <c r="BT2" s="72">
         <v>1.8032407407407407E-2</v>
       </c>
-      <c r="BT2" s="33">
-        <f t="shared" ref="BT2:BT13" si="12">IF(BR2=0,"NA",BS2-$AC2)</f>
+      <c r="BU2" s="33">
+        <f t="shared" ref="BU2:BU13" si="12">IF(BS2=0,"NA",BT2-$AD2)</f>
         <v>1.4224537037037036E-2</v>
       </c>
-      <c r="BU2" s="57"/>
-      <c r="BV2" s="56"/>
-      <c r="BW2" s="33" t="str">
-        <f t="shared" ref="BW2:BW19" si="13">IF(BU2=0,"NA",BV2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BX2" s="40"/>
-      <c r="BY2" s="55"/>
-      <c r="BZ2" s="33" t="str">
-        <f t="shared" ref="BZ2:BZ19" si="14">IF(BX2=0,"NA",BY2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CA2" s="57">
+      <c r="BV2" s="57"/>
+      <c r="BW2" s="56"/>
+      <c r="BX2" s="33" t="str">
+        <f t="shared" ref="BX2:BX19" si="13">IF(BV2=0,"NA",BW2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BY2" s="40"/>
+      <c r="BZ2" s="55"/>
+      <c r="CA2" s="33" t="str">
+        <f t="shared" ref="CA2:CA19" si="14">IF(BY2=0,"NA",BZ2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CB2" s="57">
         <v>3</v>
       </c>
-      <c r="CB2" s="70">
+      <c r="CC2" s="70">
         <v>3.8425925925925923E-3</v>
       </c>
-      <c r="CC2" s="33">
-        <f t="shared" ref="CC2:CC19" si="15">IF(CA2=0,"NA",CB2-$AC2)</f>
+      <c r="CD2" s="33">
+        <f t="shared" ref="CD2:CD19" si="15">IF(CB2=0,"NA",CC2-$AD2)</f>
         <v>3.4722222222221578E-5</v>
       </c>
-      <c r="CD2" s="57">
+      <c r="CE2" s="57">
         <v>1</v>
       </c>
-      <c r="CE2" s="70">
+      <c r="CF2" s="70">
         <v>3.7222222222222219E-2</v>
       </c>
-      <c r="CF2" s="33">
-        <f t="shared" ref="CF2:CF19" si="16">IF(CD2=0,"NA",CE2-$AC2)</f>
+      <c r="CG2" s="33">
+        <f t="shared" ref="CG2:CG19" si="16">IF(CE2=0,"NA",CF2-$AD2)</f>
         <v>3.3414351851851848E-2</v>
       </c>
-      <c r="CG2" s="57">
+      <c r="CH2" s="57">
         <v>1</v>
       </c>
-      <c r="CH2" s="70">
+      <c r="CI2" s="70">
         <v>3.2615740740740744E-2</v>
       </c>
-      <c r="CI2" s="33">
-        <f t="shared" ref="CI2:CI19" si="17">IF(CG2=0,"NA",CH2-$AC2)</f>
+      <c r="CJ2" s="33">
+        <f t="shared" ref="CJ2:CJ19" si="17">IF(CH2=0,"NA",CI2-$AD2)</f>
         <v>2.8807870370370373E-2</v>
       </c>
-      <c r="CJ2" s="57"/>
-      <c r="CK2" s="70"/>
-      <c r="CL2" s="33" t="str">
-        <f t="shared" ref="CL2:CL19" si="18">IF(CJ2=0,"NA",CK2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CM2" s="57"/>
-      <c r="CN2" s="70"/>
-      <c r="CO2" s="33" t="str">
-        <f t="shared" ref="CO2:CO19" si="19">IF(CM2=0,"NA",CN2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CP2" s="57"/>
-      <c r="CQ2" s="70"/>
-      <c r="CR2" s="33" t="str">
-        <f t="shared" ref="CR2:CR19" si="20">IF(CP2=0,"NA",CQ2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CS2" s="57">
+      <c r="CK2" s="57"/>
+      <c r="CL2" s="70"/>
+      <c r="CM2" s="33" t="str">
+        <f t="shared" ref="CM2:CM19" si="18">IF(CK2=0,"NA",CL2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CN2" s="57"/>
+      <c r="CO2" s="70"/>
+      <c r="CP2" s="33" t="str">
+        <f t="shared" ref="CP2:CP19" si="19">IF(CN2=0,"NA",CO2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CQ2" s="57"/>
+      <c r="CR2" s="70"/>
+      <c r="CS2" s="33" t="str">
+        <f t="shared" ref="CS2:CS19" si="20">IF(CQ2=0,"NA",CR2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CT2" s="57">
         <v>1</v>
       </c>
-      <c r="CT2" s="70">
+      <c r="CU2" s="70">
         <v>6.4814814814814813E-3</v>
       </c>
-      <c r="CU2" s="33">
-        <f t="shared" ref="CU2:CU19" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
+      <c r="CV2" s="33">
+        <f t="shared" ref="CV2:CV19" si="21">IF(CT2=0,"NA",CU2-$AD2)</f>
         <v>2.6736111111111105E-3</v>
       </c>
-      <c r="CV2" s="57"/>
-      <c r="CW2" s="70"/>
-      <c r="CX2" s="33" t="str">
-        <f t="shared" ref="CX2:CX19" si="22">IF(CV2=0,"NA",CW2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CY2" s="57"/>
-      <c r="CZ2" s="70"/>
-      <c r="DA2" s="33" t="str">
-        <f t="shared" ref="DA2:DA19" si="23">IF(CY2=0,"NA",CZ2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="DB2" s="57"/>
-      <c r="DC2" s="70"/>
-      <c r="DD2" s="33" t="str">
-        <f t="shared" ref="DD2:DD13" si="24">IF(DB2=0,"NA",DC2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="DE2" s="35"/>
+      <c r="CW2" s="57"/>
+      <c r="CX2" s="70"/>
+      <c r="CY2" s="33" t="str">
+        <f t="shared" ref="CY2:CY19" si="22">IF(CW2=0,"NA",CX2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CZ2" s="57"/>
+      <c r="DA2" s="70"/>
+      <c r="DB2" s="33" t="str">
+        <f t="shared" ref="DB2:DB19" si="23">IF(CZ2=0,"NA",DA2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="DC2" s="57"/>
+      <c r="DD2" s="70"/>
+      <c r="DE2" s="33" t="str">
+        <f t="shared" ref="DE2:DE13" si="24">IF(DC2=0,"NA",DD2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="DF2" s="35"/>
     </row>
-    <row r="3" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="74" t="str">
-        <f t="shared" ref="E3:E19" si="25">C3&amp;""&amp;D3</f>
+      <c r="F3" s="74" t="str">
+        <f t="shared" ref="F3:F19" si="25">D3&amp;""&amp;E3</f>
         <v>E1</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>0.54861111111111105</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <v>0.62222222222222223</v>
       </c>
-      <c r="J3" s="7">
-        <f>VLOOKUP(E3,LATLON!$A$2:$C$19,2)</f>
+      <c r="K3" s="7">
+        <f>VLOOKUP(F3,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4901910000000003</v>
       </c>
-      <c r="K3" s="7">
-        <f>VLOOKUP(E3,LATLON!$A$2:$C$19,3)</f>
+      <c r="L3" s="7">
+        <f>VLOOKUP(F3,LATLON!$A$2:$C$19,3)</f>
         <v>119.311859</v>
-      </c>
-      <c r="L3" s="5">
-        <v>80</v>
       </c>
       <c r="M3" s="5">
         <v>80</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="5">
+        <v>80</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>3</v>
       </c>
-      <c r="P3" s="6">
-        <f t="shared" ref="P3:P19" si="26">I3-H3</f>
+      <c r="Q3" s="6">
+        <f t="shared" ref="Q3:Q19" si="26">J3-I3</f>
         <v>7.3611111111111183E-2</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="S3" s="5">
+      <c r="T3" s="5">
         <v>0.52</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U3" s="8"/>
-      <c r="V3" s="19">
+      <c r="V3" s="8"/>
+      <c r="W3" s="19">
         <v>1.8553240740740742E-2</v>
       </c>
-      <c r="W3" s="20">
+      <c r="X3" s="20">
         <v>1.9386574074074073E-2</v>
       </c>
-      <c r="X3" s="20">
+      <c r="Y3" s="20">
         <v>7.8819444444444432E-3</v>
       </c>
-      <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
-      <c r="AB3" s="20">
-        <f t="shared" ref="AB3:AB19" si="27">SUM(V3:AA3)</f>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20">
+        <f t="shared" ref="AC3:AC19" si="27">SUM(W3:AB3)</f>
         <v>4.5821759259259257E-2</v>
       </c>
-      <c r="AC3" s="20">
+      <c r="AD3" s="20">
         <v>4.4791666666666669E-3</v>
       </c>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20">
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20">
         <f t="shared" si="0"/>
         <v>4.1342592592592591E-2</v>
       </c>
-      <c r="AF3" s="21">
+      <c r="AG3" s="21">
         <v>100</v>
       </c>
-      <c r="AG3" s="21">
+      <c r="AH3" s="21">
         <v>45</v>
       </c>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="29">
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="29">
         <v>4</v>
       </c>
-      <c r="AJ3" s="30">
+      <c r="AK3" s="30">
         <v>4</v>
       </c>
-      <c r="AK3" s="31">
+      <c r="AL3" s="31">
         <v>44</v>
       </c>
-      <c r="AL3" s="34">
+      <c r="AM3" s="34">
         <v>6.5046296296296302E-3</v>
       </c>
-      <c r="AM3" s="33">
+      <c r="AN3" s="33">
         <f t="shared" si="1"/>
         <v>2.0254629629629633E-3</v>
       </c>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="33" t="str">
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ3" s="31">
+      <c r="AR3" s="31">
         <v>7</v>
       </c>
-      <c r="AR3" s="34">
+      <c r="AS3" s="34">
         <v>5.9722222222222225E-3</v>
       </c>
-      <c r="AS3" s="33">
+      <c r="AT3" s="33">
         <f t="shared" si="3"/>
         <v>1.4930555555555556E-3</v>
       </c>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="33" t="str">
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="33" t="str">
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="33" t="str">
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC3" s="31"/>
-      <c r="BD3" s="32"/>
-      <c r="BE3" s="33" t="str">
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="32"/>
-      <c r="BH3" s="33" t="str">
+      <c r="BG3" s="31"/>
+      <c r="BH3" s="32"/>
+      <c r="BI3" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI3" s="31">
+      <c r="BJ3" s="31">
         <v>18</v>
       </c>
-      <c r="BJ3" s="34">
+      <c r="BK3" s="34">
         <v>4.4212962962962956E-3</v>
       </c>
-      <c r="BK3" s="33">
+      <c r="BL3" s="33">
         <f t="shared" si="9"/>
         <v>-5.7870370370371321E-5</v>
       </c>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="32"/>
-      <c r="BN3" s="33" t="str">
+      <c r="BM3" s="31"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO3" s="31"/>
-      <c r="BP3" s="32"/>
-      <c r="BQ3" s="33" t="str">
+      <c r="BP3" s="31"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR3" s="31"/>
-      <c r="BS3" s="32"/>
-      <c r="BT3" s="33" t="str">
+      <c r="BS3" s="31"/>
+      <c r="BT3" s="32"/>
+      <c r="BU3" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU3" s="31"/>
-      <c r="BV3" s="32"/>
-      <c r="BW3" s="33" t="str">
+      <c r="BV3" s="31"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX3" s="40"/>
-      <c r="BY3" s="55"/>
-      <c r="BZ3" s="33" t="str">
+      <c r="BY3" s="40"/>
+      <c r="BZ3" s="55"/>
+      <c r="CA3" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA3" s="31"/>
-      <c r="CB3" s="32"/>
-      <c r="CC3" s="33" t="str">
+      <c r="CB3" s="31"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD3" s="31"/>
-      <c r="CE3" s="32"/>
-      <c r="CF3" s="33" t="str">
+      <c r="CE3" s="31"/>
+      <c r="CF3" s="32"/>
+      <c r="CG3" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG3" s="31"/>
-      <c r="CH3" s="32"/>
-      <c r="CI3" s="33" t="str">
+      <c r="CH3" s="31"/>
+      <c r="CI3" s="32"/>
+      <c r="CJ3" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ3" s="31"/>
-      <c r="CK3" s="32"/>
-      <c r="CL3" s="33" t="str">
+      <c r="CK3" s="31"/>
+      <c r="CL3" s="32"/>
+      <c r="CM3" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM3" s="31"/>
-      <c r="CN3" s="32"/>
-      <c r="CO3" s="33" t="str">
+      <c r="CN3" s="31"/>
+      <c r="CO3" s="32"/>
+      <c r="CP3" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP3" s="31"/>
-      <c r="CQ3" s="32"/>
-      <c r="CR3" s="33" t="str">
+      <c r="CQ3" s="31"/>
+      <c r="CR3" s="32"/>
+      <c r="CS3" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS3" s="31"/>
-      <c r="CT3" s="32"/>
-      <c r="CU3" s="33" t="str">
+      <c r="CT3" s="31"/>
+      <c r="CU3" s="32"/>
+      <c r="CV3" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV3" s="31"/>
-      <c r="CW3" s="32"/>
-      <c r="CX3" s="33" t="str">
+      <c r="CW3" s="31"/>
+      <c r="CX3" s="32"/>
+      <c r="CY3" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY3" s="31"/>
-      <c r="CZ3" s="34"/>
-      <c r="DA3" s="33" t="str">
+      <c r="CZ3" s="31"/>
+      <c r="DA3" s="34"/>
+      <c r="DB3" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB3" s="31">
+      <c r="DC3" s="31">
         <v>1</v>
       </c>
-      <c r="DC3" s="34">
+      <c r="DD3" s="34">
         <v>1.1481481481481483E-2</v>
       </c>
-      <c r="DD3" s="33">
+      <c r="DE3" s="33">
         <f t="shared" si="24"/>
         <v>7.0023148148148162E-3</v>
       </c>
-      <c r="DE3" s="35"/>
+      <c r="DF3" s="35"/>
     </row>
-    <row r="4" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="74" t="str">
+      <c r="F4" s="74" t="str">
         <f t="shared" si="25"/>
         <v>E2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>3</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>12</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>0.55277777777777781</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>0.63263888888888886</v>
       </c>
-      <c r="J4" s="7">
-        <f>VLOOKUP(E4,LATLON!$A$2:$C$19,2)</f>
+      <c r="K4" s="7">
+        <f>VLOOKUP(F4,LATLON!$A$2:$C$19,2)</f>
         <v>-5.491987</v>
       </c>
-      <c r="K4" s="7">
-        <f>VLOOKUP(E4,LATLON!$A$2:$C$19,3)</f>
+      <c r="L4" s="7">
+        <f>VLOOKUP(F4,LATLON!$A$2:$C$19,3)</f>
         <v>119.312573</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>64</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>74</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>3</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <f t="shared" si="26"/>
         <v>7.9861111111111049E-2</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="S4" s="5">
+      <c r="T4" s="5">
         <v>0.61</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U4" s="8"/>
-      <c r="V4" s="19">
+      <c r="V4" s="8"/>
+      <c r="W4" s="19">
         <v>1.7847222222222223E-2</v>
       </c>
-      <c r="W4" s="20">
+      <c r="X4" s="20">
         <v>1.7858796296296296E-2</v>
       </c>
-      <c r="X4" s="20">
+      <c r="Y4" s="20">
         <v>8.7499999999999991E-3</v>
       </c>
-      <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
-      <c r="AB4" s="20">
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20">
         <f t="shared" si="27"/>
         <v>4.445601851851852E-2</v>
       </c>
-      <c r="AC4" s="20">
+      <c r="AD4" s="20">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20">
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20">
         <f t="shared" si="0"/>
         <v>3.9456018518518522E-2</v>
       </c>
-      <c r="AF4" s="21">
-        <v>100</v>
-      </c>
       <c r="AG4" s="21">
         <v>100</v>
       </c>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="29">
+      <c r="AH4" s="21">
+        <v>100</v>
+      </c>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="29">
         <v>5</v>
       </c>
-      <c r="AJ4" s="30">
+      <c r="AK4" s="30">
         <v>4</v>
       </c>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="33" t="str">
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN4" s="31">
+      <c r="AO4" s="31">
         <v>2</v>
       </c>
-      <c r="AO4" s="34">
+      <c r="AP4" s="34">
         <v>2.9814814814814811E-2</v>
       </c>
-      <c r="AP4" s="33">
+      <c r="AQ4" s="33">
         <f t="shared" si="2"/>
         <v>2.481481481481481E-2</v>
       </c>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="33" t="str">
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="33" t="str">
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="33" t="str">
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="33" t="str">
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="33" t="str">
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="33" t="str">
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI4" s="31">
+      <c r="BJ4" s="31">
         <v>53</v>
       </c>
-      <c r="BJ4" s="34">
+      <c r="BK4" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="BK4" s="33">
+      <c r="BL4" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="33" t="str">
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO4" s="31"/>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="33" t="str">
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR4" s="31">
+      <c r="BS4" s="31">
         <v>1</v>
       </c>
-      <c r="BS4" s="34">
+      <c r="BT4" s="34">
         <v>1.5000000000000001E-2</v>
       </c>
-      <c r="BT4" s="33">
+      <c r="BU4" s="33">
         <f t="shared" si="12"/>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="32"/>
-      <c r="BW4" s="33" t="str">
+      <c r="BV4" s="31"/>
+      <c r="BW4" s="32"/>
+      <c r="BX4" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX4" s="40">
+      <c r="BY4" s="40">
         <v>1</v>
       </c>
-      <c r="BY4" s="55">
+      <c r="BZ4" s="55">
         <v>1.1342592592592592E-2</v>
       </c>
-      <c r="BZ4" s="33">
+      <c r="CA4" s="33">
         <f t="shared" si="14"/>
         <v>6.3425925925925915E-3</v>
       </c>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="34"/>
-      <c r="CC4" s="33" t="str">
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="34"/>
+      <c r="CD4" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD4" s="31"/>
-      <c r="CE4" s="34"/>
-      <c r="CF4" s="33" t="str">
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="34"/>
+      <c r="CG4" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="34"/>
-      <c r="CI4" s="33" t="str">
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="34"/>
+      <c r="CJ4" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ4" s="31"/>
-      <c r="CK4" s="34"/>
-      <c r="CL4" s="33" t="str">
+      <c r="CK4" s="31"/>
+      <c r="CL4" s="34"/>
+      <c r="CM4" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="34"/>
-      <c r="CO4" s="33" t="str">
+      <c r="CN4" s="31"/>
+      <c r="CO4" s="34"/>
+      <c r="CP4" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP4" s="31"/>
-      <c r="CQ4" s="34"/>
-      <c r="CR4" s="33" t="str">
+      <c r="CQ4" s="31"/>
+      <c r="CR4" s="34"/>
+      <c r="CS4" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="34"/>
-      <c r="CU4" s="33" t="str">
+      <c r="CT4" s="31"/>
+      <c r="CU4" s="34"/>
+      <c r="CV4" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV4" s="31"/>
-      <c r="CW4" s="34"/>
-      <c r="CX4" s="33" t="str">
+      <c r="CW4" s="31"/>
+      <c r="CX4" s="34"/>
+      <c r="CY4" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY4" s="31"/>
-      <c r="CZ4" s="34"/>
-      <c r="DA4" s="33" t="str">
+      <c r="CZ4" s="31"/>
+      <c r="DA4" s="34"/>
+      <c r="DB4" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB4" s="31"/>
-      <c r="DC4" s="34"/>
-      <c r="DD4" s="33" t="str">
+      <c r="DC4" s="31"/>
+      <c r="DD4" s="34"/>
+      <c r="DE4" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE4" s="35"/>
+      <c r="DF4" s="35"/>
     </row>
-    <row r="5" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="74" t="str">
+      <c r="F5" s="74" t="str">
         <f t="shared" si="25"/>
         <v>D3</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>0.56527777777777777</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>0.6166666666666667</v>
       </c>
-      <c r="J5" s="7">
-        <f>VLOOKUP(E5,LATLON!$A$2:$C$19,2)</f>
+      <c r="K5" s="7">
+        <f>VLOOKUP(F5,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4889159999999997</v>
       </c>
-      <c r="K5" s="7">
-        <f>VLOOKUP(E5,LATLON!$A$2:$C$19,3)</f>
+      <c r="L5" s="7">
+        <f>VLOOKUP(F5,LATLON!$A$2:$C$19,3)</f>
         <v>119.309448</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>67</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>55</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>4</v>
       </c>
-      <c r="P5" s="6">
+      <c r="Q5" s="6">
         <f t="shared" si="26"/>
         <v>5.1388888888888928E-2</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="S5" s="5">
+      <c r="T5" s="5">
         <v>0.61</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U5" s="8"/>
-      <c r="V5" s="19">
+      <c r="V5" s="8"/>
+      <c r="W5" s="19">
         <v>1.5648148148148151E-2</v>
-      </c>
-      <c r="W5" s="20">
-        <v>1.486111111111111E-2</v>
       </c>
       <c r="X5" s="20">
         <v>1.486111111111111E-2</v>
@@ -2529,3872 +2547,3917 @@
       <c r="Y5" s="20">
         <v>1.486111111111111E-2</v>
       </c>
-      <c r="Z5" s="20"/>
+      <c r="Z5" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
       <c r="AA5" s="20"/>
-      <c r="AB5" s="20">
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20">
         <f t="shared" si="27"/>
         <v>6.0231481481481476E-2</v>
       </c>
-      <c r="AC5" s="20">
+      <c r="AD5" s="20">
         <v>3.8888888888888883E-3</v>
       </c>
-      <c r="AD5" s="20">
+      <c r="AE5" s="20">
         <v>1.1388888888888888E-2</v>
       </c>
-      <c r="AE5" s="20">
+      <c r="AF5" s="20">
         <f t="shared" si="0"/>
         <v>4.4953703703703704E-2</v>
       </c>
-      <c r="AF5" s="21">
+      <c r="AG5" s="21">
         <v>100</v>
       </c>
-      <c r="AG5" s="21">
+      <c r="AH5" s="21">
         <v>90</v>
       </c>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="29">
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="29">
         <v>4</v>
       </c>
-      <c r="AJ5" s="30">
+      <c r="AK5" s="30">
         <v>2</v>
       </c>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="33" t="str">
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="33" t="str">
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="33" t="str">
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="33" t="str">
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="32"/>
+      <c r="AW5" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW5" s="31"/>
-      <c r="AX5" s="32"/>
-      <c r="AY5" s="33" t="str">
+      <c r="AX5" s="31"/>
+      <c r="AY5" s="32"/>
+      <c r="AZ5" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ5" s="31"/>
-      <c r="BA5" s="32"/>
-      <c r="BB5" s="33" t="str">
+      <c r="BA5" s="31"/>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC5" s="31"/>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="33" t="str">
+      <c r="BD5" s="31"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF5" s="31"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="33" t="str">
+      <c r="BG5" s="31"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI5" s="31">
+      <c r="BJ5" s="31">
         <v>3</v>
       </c>
-      <c r="BJ5" s="34">
+      <c r="BK5" s="34">
         <v>6.4467592592592597E-3</v>
       </c>
-      <c r="BK5" s="33">
+      <c r="BL5" s="33">
         <f t="shared" si="9"/>
         <v>2.5578703703703714E-3</v>
       </c>
-      <c r="BL5" s="31"/>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="33" t="str">
+      <c r="BM5" s="31"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO5" s="31"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="33" t="str">
+      <c r="BP5" s="31"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR5" s="31">
+      <c r="BS5" s="31">
         <v>1</v>
       </c>
-      <c r="BS5" s="34">
+      <c r="BT5" s="34">
         <v>1.5891203703703703E-2</v>
       </c>
-      <c r="BT5" s="33">
+      <c r="BU5" s="33">
         <f t="shared" si="12"/>
         <v>1.2002314814814815E-2</v>
       </c>
-      <c r="BU5" s="31"/>
-      <c r="BV5" s="32"/>
-      <c r="BW5" s="33" t="str">
+      <c r="BV5" s="31"/>
+      <c r="BW5" s="32"/>
+      <c r="BX5" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX5" s="40"/>
-      <c r="BY5" s="55"/>
-      <c r="BZ5" s="33" t="str">
+      <c r="BY5" s="40"/>
+      <c r="BZ5" s="55"/>
+      <c r="CA5" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA5" s="31"/>
-      <c r="CB5" s="32"/>
-      <c r="CC5" s="33" t="str">
+      <c r="CB5" s="31"/>
+      <c r="CC5" s="32"/>
+      <c r="CD5" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD5" s="31"/>
-      <c r="CE5" s="32"/>
-      <c r="CF5" s="33" t="str">
+      <c r="CE5" s="31"/>
+      <c r="CF5" s="32"/>
+      <c r="CG5" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG5" s="31"/>
-      <c r="CH5" s="32"/>
-      <c r="CI5" s="33" t="str">
+      <c r="CH5" s="31"/>
+      <c r="CI5" s="32"/>
+      <c r="CJ5" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ5" s="31"/>
-      <c r="CK5" s="32"/>
-      <c r="CL5" s="33" t="str">
+      <c r="CK5" s="31"/>
+      <c r="CL5" s="32"/>
+      <c r="CM5" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM5" s="31"/>
-      <c r="CN5" s="32"/>
-      <c r="CO5" s="33" t="str">
+      <c r="CN5" s="31"/>
+      <c r="CO5" s="32"/>
+      <c r="CP5" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP5" s="31"/>
-      <c r="CQ5" s="32"/>
-      <c r="CR5" s="33" t="str">
+      <c r="CQ5" s="31"/>
+      <c r="CR5" s="32"/>
+      <c r="CS5" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS5" s="31"/>
-      <c r="CT5" s="32"/>
-      <c r="CU5" s="33" t="str">
+      <c r="CT5" s="31"/>
+      <c r="CU5" s="32"/>
+      <c r="CV5" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV5" s="31"/>
-      <c r="CW5" s="32"/>
-      <c r="CX5" s="33" t="str">
+      <c r="CW5" s="31"/>
+      <c r="CX5" s="32"/>
+      <c r="CY5" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY5" s="31"/>
-      <c r="CZ5" s="32"/>
-      <c r="DA5" s="33" t="str">
+      <c r="CZ5" s="31"/>
+      <c r="DA5" s="32"/>
+      <c r="DB5" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB5" s="31"/>
-      <c r="DC5" s="32"/>
-      <c r="DD5" s="33" t="str">
+      <c r="DC5" s="31"/>
+      <c r="DD5" s="32"/>
+      <c r="DE5" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE5" s="35"/>
+      <c r="DF5" s="35"/>
     </row>
-    <row r="6" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="74" t="str">
+      <c r="F6" s="74" t="str">
         <f t="shared" si="25"/>
         <v>E3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>0.51944444444444449</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>0.62777777777777777</v>
       </c>
-      <c r="J6" s="7">
-        <f>VLOOKUP(E6,LATLON!$A$2:$C$19,2)</f>
+      <c r="K6" s="7">
+        <f>VLOOKUP(F6,LATLON!$A$2:$C$19,2)</f>
         <v>-5.49282</v>
       </c>
-      <c r="K6" s="7">
-        <f>VLOOKUP(E6,LATLON!$A$2:$C$19,3)</f>
+      <c r="L6" s="7">
+        <f>VLOOKUP(F6,LATLON!$A$2:$C$19,3)</f>
         <v>119.31198000000001</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>58</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>57</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>3</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="6">
         <f t="shared" si="26"/>
         <v>0.10833333333333328</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="S6" s="5">
+      <c r="T6" s="5">
         <v>0.17</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="U6" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="19">
+      <c r="V6" s="8"/>
+      <c r="W6" s="19">
         <v>1.8726851851851852E-2</v>
       </c>
-      <c r="W6" s="20">
+      <c r="X6" s="20">
         <v>1.6423611111111111E-2</v>
       </c>
-      <c r="X6" s="20">
+      <c r="Y6" s="20">
         <v>1.486111111111111E-2</v>
       </c>
-      <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
-      <c r="AB6" s="20">
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20">
         <f t="shared" si="27"/>
         <v>5.0011574074074076E-2</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AD6" s="20">
         <v>4.5949074074074078E-3</v>
       </c>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20">
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20">
         <f t="shared" si="0"/>
         <v>4.5416666666666668E-2</v>
       </c>
-      <c r="AF6" s="21">
+      <c r="AG6" s="21">
         <v>90</v>
       </c>
-      <c r="AG6" s="21">
+      <c r="AH6" s="21">
         <v>100</v>
       </c>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="29">
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="29">
         <v>8</v>
       </c>
-      <c r="AJ6" s="30">
+      <c r="AK6" s="30">
         <v>8</v>
       </c>
-      <c r="AK6" s="31">
+      <c r="AL6" s="31">
         <v>1</v>
       </c>
-      <c r="AL6" s="34">
+      <c r="AM6" s="34">
         <v>1.5196759259259259E-2</v>
       </c>
-      <c r="AM6" s="33">
+      <c r="AN6" s="33">
         <f t="shared" si="1"/>
         <v>1.0601851851851852E-2</v>
       </c>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="33" t="str">
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ6" s="31"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="33" t="str">
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT6" s="31"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="33" t="str">
+      <c r="AU6" s="31"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW6" s="31"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="33" t="str">
+      <c r="AX6" s="31"/>
+      <c r="AY6" s="32"/>
+      <c r="AZ6" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="32"/>
-      <c r="BB6" s="33" t="str">
+      <c r="BA6" s="31"/>
+      <c r="BB6" s="32"/>
+      <c r="BC6" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC6" s="31"/>
-      <c r="BD6" s="32"/>
-      <c r="BE6" s="33" t="str">
+      <c r="BD6" s="31"/>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="32"/>
-      <c r="BH6" s="33" t="str">
+      <c r="BG6" s="31"/>
+      <c r="BH6" s="32"/>
+      <c r="BI6" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI6" s="31">
+      <c r="BJ6" s="31">
         <v>4</v>
       </c>
-      <c r="BJ6" s="34">
+      <c r="BK6" s="34">
         <v>7.2916666666666659E-3</v>
       </c>
-      <c r="BK6" s="33">
+      <c r="BL6" s="33">
         <f t="shared" si="9"/>
         <v>2.6967592592592581E-3</v>
       </c>
-      <c r="BL6" s="31"/>
-      <c r="BM6" s="32"/>
-      <c r="BN6" s="33" t="str">
+      <c r="BM6" s="31"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO6" s="31"/>
-      <c r="BP6" s="32"/>
-      <c r="BQ6" s="33" t="str">
+      <c r="BP6" s="31"/>
+      <c r="BQ6" s="32"/>
+      <c r="BR6" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR6" s="31">
+      <c r="BS6" s="31">
         <v>2</v>
       </c>
-      <c r="BS6" s="34">
+      <c r="BT6" s="34">
         <v>1.005787037037037E-2</v>
       </c>
-      <c r="BT6" s="33">
+      <c r="BU6" s="33">
         <f t="shared" si="12"/>
         <v>5.462962962962962E-3</v>
       </c>
-      <c r="BU6" s="31">
+      <c r="BV6" s="31">
         <v>2</v>
       </c>
-      <c r="BV6" s="34">
+      <c r="BW6" s="34">
         <v>3.1469907407407412E-2</v>
       </c>
-      <c r="BW6" s="33">
+      <c r="BX6" s="33">
         <f t="shared" si="13"/>
         <v>2.6875000000000003E-2</v>
       </c>
-      <c r="BX6" s="40">
+      <c r="BY6" s="40">
         <v>2</v>
       </c>
-      <c r="BY6" s="55">
+      <c r="BZ6" s="55">
         <v>3.0254629629629631E-2</v>
       </c>
-      <c r="BZ6" s="33">
+      <c r="CA6" s="33">
         <f t="shared" si="14"/>
         <v>2.5659722222222223E-2</v>
       </c>
-      <c r="CA6" s="31"/>
-      <c r="CB6" s="32"/>
-      <c r="CC6" s="33" t="str">
+      <c r="CB6" s="31"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD6" s="31"/>
-      <c r="CE6" s="34"/>
-      <c r="CF6" s="33" t="str">
+      <c r="CE6" s="31"/>
+      <c r="CF6" s="34"/>
+      <c r="CG6" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG6" s="31">
+      <c r="CH6" s="31">
         <v>1</v>
       </c>
-      <c r="CH6" s="34">
+      <c r="CI6" s="34">
         <v>1.5219907407407409E-2</v>
       </c>
-      <c r="CI6" s="33">
+      <c r="CJ6" s="33">
         <f t="shared" si="17"/>
         <v>1.0625000000000002E-2</v>
       </c>
-      <c r="CJ6" s="31"/>
-      <c r="CK6" s="32"/>
-      <c r="CL6" s="33" t="str">
+      <c r="CK6" s="31"/>
+      <c r="CL6" s="32"/>
+      <c r="CM6" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM6" s="31"/>
-      <c r="CN6" s="32"/>
-      <c r="CO6" s="33" t="str">
+      <c r="CN6" s="31"/>
+      <c r="CO6" s="32"/>
+      <c r="CP6" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP6" s="31"/>
-      <c r="CQ6" s="32"/>
-      <c r="CR6" s="33" t="str">
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="32"/>
+      <c r="CS6" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS6" s="31"/>
-      <c r="CT6" s="32"/>
-      <c r="CU6" s="33" t="str">
+      <c r="CT6" s="31"/>
+      <c r="CU6" s="32"/>
+      <c r="CV6" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV6" s="31"/>
-      <c r="CW6" s="32"/>
-      <c r="CX6" s="33" t="str">
+      <c r="CW6" s="31"/>
+      <c r="CX6" s="32"/>
+      <c r="CY6" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY6" s="31"/>
-      <c r="CZ6" s="34"/>
-      <c r="DA6" s="33" t="str">
+      <c r="CZ6" s="31"/>
+      <c r="DA6" s="34"/>
+      <c r="DB6" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB6" s="31">
+      <c r="DC6" s="31">
         <v>3</v>
       </c>
-      <c r="DC6" s="34">
+      <c r="DD6" s="34">
         <v>1.3344907407407408E-2</v>
       </c>
-      <c r="DD6" s="33">
+      <c r="DE6" s="33">
         <f t="shared" si="24"/>
         <v>8.7500000000000008E-3</v>
       </c>
-      <c r="DE6" s="35"/>
+      <c r="DF6" s="35"/>
     </row>
-    <row r="7" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="74" t="str">
+      <c r="F7" s="74" t="str">
         <f t="shared" si="25"/>
         <v>L1</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>12</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>0.53263888888888888</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>0.61597222222222225</v>
       </c>
-      <c r="J7" s="7">
-        <f>VLOOKUP(E7,LATLON!$A$2:$C$19,2)</f>
+      <c r="K7" s="7">
+        <f>VLOOKUP(F7,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4810160000000003</v>
       </c>
-      <c r="K7" s="7">
-        <f>VLOOKUP(E7,LATLON!$A$2:$C$19,3)</f>
+      <c r="L7" s="7">
+        <f>VLOOKUP(F7,LATLON!$A$2:$C$19,3)</f>
         <v>119.31128099999999</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>57</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>60</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>3</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <f t="shared" si="26"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="S7" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="S7" s="5">
+      <c r="T7" s="5">
         <v>0.27</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="U7" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="19">
+      <c r="V7" s="8"/>
+      <c r="W7" s="19">
         <v>3.0185185185185186E-2</v>
       </c>
-      <c r="W7" s="20">
+      <c r="X7" s="20">
         <v>2.3842592592592596E-2</v>
       </c>
-      <c r="X7" s="20">
+      <c r="Y7" s="20">
         <v>1.9791666666666668E-3</v>
       </c>
-      <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
-      <c r="AB7" s="20">
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20">
         <f t="shared" si="27"/>
         <v>5.6006944444444449E-2</v>
       </c>
-      <c r="AC7" s="20">
+      <c r="AD7" s="20">
         <v>4.386574074074074E-3</v>
       </c>
-      <c r="AD7" s="20">
+      <c r="AE7" s="20">
         <v>1.5405092592592593E-2</v>
       </c>
-      <c r="AE7" s="20">
+      <c r="AF7" s="20">
         <f t="shared" si="0"/>
         <v>3.6215277777777777E-2</v>
       </c>
-      <c r="AF7" s="21">
+      <c r="AG7" s="21">
         <v>50</v>
       </c>
-      <c r="AG7" s="21">
+      <c r="AH7" s="21">
         <v>100</v>
       </c>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="29">
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="29">
         <v>5</v>
       </c>
-      <c r="AJ7" s="30">
+      <c r="AK7" s="30">
         <v>5</v>
       </c>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="33" t="str">
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="33" t="str">
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="33" t="str">
+      <c r="AR7" s="31"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="33" t="str">
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW7" s="31"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="33" t="str">
+      <c r="AX7" s="31"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ7" s="31"/>
-      <c r="BA7" s="32"/>
-      <c r="BB7" s="33" t="str">
+      <c r="BA7" s="31"/>
+      <c r="BB7" s="32"/>
+      <c r="BC7" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC7" s="31"/>
-      <c r="BD7" s="32"/>
-      <c r="BE7" s="33" t="str">
+      <c r="BD7" s="31"/>
+      <c r="BE7" s="32"/>
+      <c r="BF7" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF7" s="31"/>
-      <c r="BG7" s="32"/>
-      <c r="BH7" s="33" t="str">
+      <c r="BG7" s="31"/>
+      <c r="BH7" s="32"/>
+      <c r="BI7" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI7" s="31">
+      <c r="BJ7" s="31">
         <v>1</v>
       </c>
-      <c r="BJ7" s="34">
+      <c r="BK7" s="34">
         <v>9.2129629629629627E-3</v>
       </c>
-      <c r="BK7" s="33">
+      <c r="BL7" s="33">
         <f t="shared" si="9"/>
         <v>4.8263888888888887E-3</v>
       </c>
-      <c r="BL7" s="31"/>
-      <c r="BM7" s="32"/>
-      <c r="BN7" s="33" t="str">
+      <c r="BM7" s="31"/>
+      <c r="BN7" s="32"/>
+      <c r="BO7" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO7" s="31"/>
-      <c r="BP7" s="32"/>
-      <c r="BQ7" s="33" t="str">
+      <c r="BP7" s="31"/>
+      <c r="BQ7" s="32"/>
+      <c r="BR7" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR7" s="31"/>
-      <c r="BS7" s="32"/>
-      <c r="BT7" s="33" t="str">
+      <c r="BS7" s="31"/>
+      <c r="BT7" s="32"/>
+      <c r="BU7" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU7" s="31"/>
-      <c r="BV7" s="32"/>
-      <c r="BW7" s="33" t="str">
+      <c r="BV7" s="31"/>
+      <c r="BW7" s="32"/>
+      <c r="BX7" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX7" s="40"/>
-      <c r="BY7" s="55"/>
-      <c r="BZ7" s="33" t="str">
+      <c r="BY7" s="40"/>
+      <c r="BZ7" s="55"/>
+      <c r="CA7" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA7" s="31">
+      <c r="CB7" s="31">
         <v>1</v>
       </c>
-      <c r="CB7" s="34">
+      <c r="CC7" s="34">
         <v>1.9791666666666666E-2</v>
       </c>
-      <c r="CC7" s="33">
+      <c r="CD7" s="33">
         <f t="shared" si="15"/>
         <v>1.5405092592592592E-2</v>
       </c>
-      <c r="CD7" s="31"/>
-      <c r="CE7" s="32"/>
-      <c r="CF7" s="33" t="str">
+      <c r="CE7" s="31"/>
+      <c r="CF7" s="32"/>
+      <c r="CG7" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG7" s="31"/>
-      <c r="CH7" s="32"/>
-      <c r="CI7" s="33" t="str">
+      <c r="CH7" s="31"/>
+      <c r="CI7" s="32"/>
+      <c r="CJ7" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ7" s="31"/>
-      <c r="CK7" s="32"/>
-      <c r="CL7" s="33" t="str">
+      <c r="CK7" s="31"/>
+      <c r="CL7" s="32"/>
+      <c r="CM7" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM7" s="31"/>
-      <c r="CN7" s="34"/>
-      <c r="CO7" s="33" t="str">
+      <c r="CN7" s="31"/>
+      <c r="CO7" s="34"/>
+      <c r="CP7" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP7" s="31">
+      <c r="CQ7" s="31">
         <v>1</v>
       </c>
-      <c r="CQ7" s="34">
+      <c r="CR7" s="34">
         <v>2.1666666666666667E-2</v>
       </c>
-      <c r="CR7" s="33">
+      <c r="CS7" s="33">
         <f t="shared" si="20"/>
         <v>1.7280092592592593E-2</v>
       </c>
-      <c r="CS7" s="31">
+      <c r="CT7" s="31">
         <v>1</v>
       </c>
-      <c r="CT7" s="34">
+      <c r="CU7" s="34">
         <v>1.6180555555555556E-2</v>
       </c>
-      <c r="CU7" s="33">
+      <c r="CV7" s="33">
         <f t="shared" si="21"/>
         <v>1.1793981481481482E-2</v>
       </c>
-      <c r="CV7" s="31"/>
-      <c r="CW7" s="32"/>
-      <c r="CX7" s="33" t="str">
+      <c r="CW7" s="31"/>
+      <c r="CX7" s="32"/>
+      <c r="CY7" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY7" s="31"/>
-      <c r="CZ7" s="34"/>
-      <c r="DA7" s="33" t="str">
+      <c r="CZ7" s="31"/>
+      <c r="DA7" s="34"/>
+      <c r="DB7" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB7" s="31">
+      <c r="DC7" s="31">
         <v>4</v>
       </c>
-      <c r="DC7" s="34">
+      <c r="DD7" s="34">
         <v>4.6064814814814814E-3</v>
       </c>
-      <c r="DD7" s="33">
+      <c r="DE7" s="33">
         <f t="shared" si="24"/>
         <v>2.1990740740740738E-4</v>
       </c>
-      <c r="DE7" s="35"/>
+      <c r="DF7" s="35"/>
     </row>
-    <row r="8" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="74" t="str">
+      <c r="F8" s="74" t="str">
         <f t="shared" si="25"/>
         <v>L2</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>3</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>0.53819444444444442</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>0.61249999999999993</v>
       </c>
-      <c r="J8" s="7">
-        <f>VLOOKUP(E8,LATLON!$A$2:$C$19,2)</f>
+      <c r="K8" s="7">
+        <f>VLOOKUP(F8,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4811319999999997</v>
       </c>
-      <c r="K8" s="7">
-        <f>VLOOKUP(E8,LATLON!$A$2:$C$19,3)</f>
+      <c r="L8" s="7">
+        <f>VLOOKUP(F8,LATLON!$A$2:$C$19,3)</f>
         <v>119.31211</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>57</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>63</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>3</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="6">
         <f t="shared" si="26"/>
         <v>7.4305555555555514E-2</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="R8" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="S8" s="5">
+      <c r="T8" s="5">
         <v>0.27</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="19">
+      <c r="V8" s="8"/>
+      <c r="W8" s="19">
         <v>2.5185185185185185E-2</v>
       </c>
-      <c r="W8" s="20">
+      <c r="X8" s="20">
         <v>2.2673611111111113E-2</v>
       </c>
-      <c r="X8" s="20">
+      <c r="Y8" s="20">
         <v>2.8506944444444442E-2</v>
       </c>
-      <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
-      <c r="AB8" s="20">
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20">
         <f t="shared" si="27"/>
         <v>7.6365740740740748E-2</v>
       </c>
-      <c r="AC8" s="20">
+      <c r="AD8" s="20">
         <v>4.5717592592592589E-3</v>
       </c>
-      <c r="AD8" s="20">
+      <c r="AE8" s="20">
         <v>2.8506944444444442E-2</v>
       </c>
-      <c r="AE8" s="20">
+      <c r="AF8" s="20">
         <f t="shared" si="0"/>
         <v>4.3287037037037041E-2</v>
       </c>
-      <c r="AF8" s="21">
+      <c r="AG8" s="21">
         <v>60</v>
       </c>
-      <c r="AG8" s="21">
+      <c r="AH8" s="21">
         <v>30</v>
       </c>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="29">
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="29">
         <v>7</v>
       </c>
-      <c r="AJ8" s="30">
+      <c r="AK8" s="30">
         <v>6</v>
       </c>
-      <c r="AK8" s="31">
+      <c r="AL8" s="31">
         <v>2</v>
       </c>
-      <c r="AL8" s="34">
+      <c r="AM8" s="34">
         <v>1.3657407407407408E-2</v>
       </c>
-      <c r="AM8" s="33">
+      <c r="AN8" s="33">
         <f t="shared" si="1"/>
         <v>9.0856481481481483E-3</v>
       </c>
-      <c r="AN8" s="31">
+      <c r="AO8" s="31">
         <v>3</v>
       </c>
-      <c r="AO8" s="69">
+      <c r="AP8" s="69">
         <v>8.2407407407407412E-3</v>
       </c>
-      <c r="AP8" s="33">
+      <c r="AQ8" s="33">
         <f t="shared" si="2"/>
         <v>3.6689814814814823E-3</v>
       </c>
-      <c r="AQ8" s="31">
+      <c r="AR8" s="31">
         <v>2</v>
       </c>
-      <c r="AR8" s="34">
+      <c r="AS8" s="34">
         <v>1.4444444444444446E-2</v>
       </c>
-      <c r="AS8" s="33">
+      <c r="AT8" s="33">
         <f t="shared" si="3"/>
         <v>9.8726851851851857E-3</v>
       </c>
-      <c r="AT8" s="31"/>
-      <c r="AU8" s="32"/>
-      <c r="AV8" s="33" t="str">
+      <c r="AU8" s="31"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW8" s="31"/>
-      <c r="AX8" s="32"/>
-      <c r="AY8" s="33" t="str">
+      <c r="AX8" s="31"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ8" s="31"/>
-      <c r="BA8" s="32"/>
-      <c r="BB8" s="33" t="str">
+      <c r="BA8" s="31"/>
+      <c r="BB8" s="32"/>
+      <c r="BC8" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC8" s="31"/>
-      <c r="BD8" s="32"/>
-      <c r="BE8" s="33" t="str">
+      <c r="BD8" s="31"/>
+      <c r="BE8" s="32"/>
+      <c r="BF8" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF8" s="31">
+      <c r="BG8" s="31">
         <v>1</v>
       </c>
-      <c r="BG8" s="34">
+      <c r="BH8" s="34">
         <v>1.4444444444444446E-2</v>
       </c>
-      <c r="BH8" s="33">
+      <c r="BI8" s="33">
         <f t="shared" si="8"/>
         <v>9.8726851851851857E-3</v>
       </c>
-      <c r="BI8" s="31">
+      <c r="BJ8" s="31">
         <v>2</v>
       </c>
-      <c r="BJ8" s="34">
+      <c r="BK8" s="34">
         <v>1.3252314814814814E-2</v>
       </c>
-      <c r="BK8" s="33">
+      <c r="BL8" s="33">
         <f t="shared" si="9"/>
         <v>8.6805555555555559E-3</v>
       </c>
-      <c r="BL8" s="31"/>
-      <c r="BM8" s="32"/>
-      <c r="BN8" s="33" t="str">
+      <c r="BM8" s="31"/>
+      <c r="BN8" s="32"/>
+      <c r="BO8" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO8" s="31"/>
-      <c r="BP8" s="32"/>
-      <c r="BQ8" s="33" t="str">
+      <c r="BP8" s="31"/>
+      <c r="BQ8" s="32"/>
+      <c r="BR8" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR8" s="31"/>
-      <c r="BS8" s="32"/>
-      <c r="BT8" s="33" t="str">
+      <c r="BS8" s="31"/>
+      <c r="BT8" s="32"/>
+      <c r="BU8" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU8" s="31"/>
-      <c r="BV8" s="32"/>
-      <c r="BW8" s="33" t="str">
+      <c r="BV8" s="31"/>
+      <c r="BW8" s="32"/>
+      <c r="BX8" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX8" s="40">
+      <c r="BY8" s="40">
         <v>1</v>
       </c>
-      <c r="BY8" s="55">
+      <c r="BZ8" s="55">
         <v>1.4444444444444446E-2</v>
       </c>
-      <c r="BZ8" s="33">
+      <c r="CA8" s="33">
         <f t="shared" si="14"/>
         <v>9.8726851851851857E-3</v>
       </c>
-      <c r="CA8" s="31"/>
-      <c r="CB8" s="32"/>
-      <c r="CC8" s="33" t="str">
+      <c r="CB8" s="31"/>
+      <c r="CC8" s="32"/>
+      <c r="CD8" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD8" s="31"/>
-      <c r="CE8" s="32"/>
-      <c r="CF8" s="33" t="str">
+      <c r="CE8" s="31"/>
+      <c r="CF8" s="32"/>
+      <c r="CG8" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG8" s="31"/>
-      <c r="CH8" s="32"/>
-      <c r="CI8" s="33" t="str">
+      <c r="CH8" s="31"/>
+      <c r="CI8" s="32"/>
+      <c r="CJ8" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ8" s="31"/>
-      <c r="CK8" s="32"/>
-      <c r="CL8" s="33" t="str">
+      <c r="CK8" s="31"/>
+      <c r="CL8" s="32"/>
+      <c r="CM8" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM8" s="31"/>
-      <c r="CN8" s="32"/>
-      <c r="CO8" s="33" t="str">
+      <c r="CN8" s="31"/>
+      <c r="CO8" s="32"/>
+      <c r="CP8" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP8" s="31"/>
-      <c r="CQ8" s="32"/>
-      <c r="CR8" s="33" t="str">
+      <c r="CQ8" s="31"/>
+      <c r="CR8" s="32"/>
+      <c r="CS8" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS8" s="31"/>
-      <c r="CT8" s="69"/>
-      <c r="CU8" s="33" t="str">
+      <c r="CT8" s="31"/>
+      <c r="CU8" s="69"/>
+      <c r="CV8" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV8" s="31"/>
-      <c r="CW8" s="69"/>
-      <c r="CX8" s="33" t="str">
+      <c r="CW8" s="31"/>
+      <c r="CX8" s="69"/>
+      <c r="CY8" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY8" s="31"/>
-      <c r="CZ8" s="69"/>
-      <c r="DA8" s="33" t="str">
+      <c r="CZ8" s="31"/>
+      <c r="DA8" s="69"/>
+      <c r="DB8" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB8" s="31">
+      <c r="DC8" s="31">
         <v>2</v>
       </c>
-      <c r="DC8" s="69">
+      <c r="DD8" s="69">
         <v>5.9837962962962961E-3</v>
       </c>
-      <c r="DD8" s="33">
+      <c r="DE8" s="33">
         <f t="shared" si="24"/>
         <v>1.4120370370370372E-3</v>
       </c>
-      <c r="DE8" s="35"/>
+      <c r="DF8" s="35"/>
     </row>
-    <row r="9" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="74" t="str">
+      <c r="F9" s="74" t="str">
         <f t="shared" si="25"/>
         <v>D1</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>4</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>14</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>0.54513888888888895</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>0.60486111111111118</v>
       </c>
-      <c r="J9" s="7">
-        <f>VLOOKUP(E9,LATLON!$A$2:$C$19,2)</f>
+      <c r="K9" s="7">
+        <f>VLOOKUP(F9,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4793240000000001</v>
       </c>
-      <c r="K9" s="7">
-        <f>VLOOKUP(E9,LATLON!$A$2:$C$19,3)</f>
+      <c r="L9" s="7">
+        <f>VLOOKUP(F9,LATLON!$A$2:$C$19,3)</f>
         <v>119.31157399999999</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>68</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>70</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="O9" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>3</v>
       </c>
-      <c r="P9" s="6">
+      <c r="Q9" s="6">
         <f t="shared" si="26"/>
         <v>5.9722222222222232E-2</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="R9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="S9" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="S9" s="5">
+      <c r="T9" s="5">
         <v>0.27</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="U9" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="19">
+      <c r="V9" s="8"/>
+      <c r="W9" s="19">
         <v>2.2870370370370371E-2</v>
       </c>
-      <c r="W9" s="20">
+      <c r="X9" s="20">
         <v>2.1863425925925925E-2</v>
       </c>
-      <c r="X9" s="20">
+      <c r="Y9" s="20">
         <v>1.5740740740740741E-3</v>
       </c>
-      <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
-      <c r="AB9" s="20">
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20">
         <f t="shared" si="27"/>
         <v>4.6307870370370374E-2</v>
       </c>
-      <c r="AC9" s="20">
+      <c r="AD9" s="20">
         <v>4.0277777777777777E-3</v>
       </c>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20">
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20">
         <f t="shared" si="0"/>
         <v>4.2280092592592598E-2</v>
       </c>
-      <c r="AF9" s="21">
+      <c r="AG9" s="21">
         <v>100</v>
       </c>
-      <c r="AG9" s="21">
+      <c r="AH9" s="21">
         <v>30</v>
       </c>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="29">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="29">
         <v>5</v>
       </c>
-      <c r="AJ9" s="30">
+      <c r="AK9" s="30">
         <v>4</v>
       </c>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="33" t="str">
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN9" s="31">
+      <c r="AO9" s="31">
         <v>1</v>
       </c>
-      <c r="AO9" s="34">
+      <c r="AP9" s="34">
         <v>1.5196759259259259E-2</v>
       </c>
-      <c r="AP9" s="33">
+      <c r="AQ9" s="33">
         <f t="shared" si="2"/>
         <v>1.1168981481481481E-2</v>
       </c>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="33" t="str">
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT9" s="31"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="33" t="str">
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="32"/>
-      <c r="AY9" s="33" t="str">
+      <c r="AX9" s="31"/>
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="33" t="str">
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="32"/>
+      <c r="BC9" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="33" t="str">
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="32"/>
+      <c r="BF9" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF9" s="31"/>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="33" t="str">
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI9" s="31">
+      <c r="BJ9" s="31">
         <v>3</v>
       </c>
-      <c r="BJ9" s="34">
+      <c r="BK9" s="34">
         <v>4.0277777777777777E-3</v>
       </c>
-      <c r="BK9" s="33">
+      <c r="BL9" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BL9" s="31"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="33" t="str">
+      <c r="BM9" s="31"/>
+      <c r="BN9" s="32"/>
+      <c r="BO9" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO9" s="31"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="33" t="str">
+      <c r="BP9" s="31"/>
+      <c r="BQ9" s="32"/>
+      <c r="BR9" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR9" s="31"/>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="33" t="str">
+      <c r="BS9" s="31"/>
+      <c r="BT9" s="32"/>
+      <c r="BU9" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU9" s="31"/>
-      <c r="BV9" s="32"/>
-      <c r="BW9" s="33" t="str">
+      <c r="BV9" s="31"/>
+      <c r="BW9" s="32"/>
+      <c r="BX9" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX9" s="40"/>
-      <c r="BY9" s="55"/>
-      <c r="BZ9" s="33" t="str">
+      <c r="BY9" s="40"/>
+      <c r="BZ9" s="55"/>
+      <c r="CA9" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA9" s="31"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="33" t="str">
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="32"/>
+      <c r="CD9" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD9" s="31"/>
-      <c r="CE9" s="34"/>
-      <c r="CF9" s="33" t="str">
+      <c r="CE9" s="31"/>
+      <c r="CF9" s="34"/>
+      <c r="CG9" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG9" s="31">
+      <c r="CH9" s="31">
         <v>1</v>
       </c>
-      <c r="CH9" s="34">
+      <c r="CI9" s="34">
         <v>3.2314814814814817E-2</v>
       </c>
-      <c r="CI9" s="33">
+      <c r="CJ9" s="33">
         <f t="shared" si="17"/>
         <v>2.8287037037037041E-2</v>
       </c>
-      <c r="CJ9" s="31"/>
-      <c r="CK9" s="32"/>
-      <c r="CL9" s="33" t="str">
+      <c r="CK9" s="31"/>
+      <c r="CL9" s="32"/>
+      <c r="CM9" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM9" s="31"/>
-      <c r="CN9" s="32"/>
-      <c r="CO9" s="33" t="str">
+      <c r="CN9" s="31"/>
+      <c r="CO9" s="32"/>
+      <c r="CP9" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP9" s="31"/>
-      <c r="CQ9" s="32"/>
-      <c r="CR9" s="33" t="str">
+      <c r="CQ9" s="31"/>
+      <c r="CR9" s="32"/>
+      <c r="CS9" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS9" s="31"/>
-      <c r="CT9" s="55"/>
-      <c r="CU9" s="33" t="str">
+      <c r="CT9" s="31"/>
+      <c r="CU9" s="55"/>
+      <c r="CV9" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV9" s="31"/>
-      <c r="CW9" s="55"/>
-      <c r="CX9" s="33" t="str">
+      <c r="CW9" s="31"/>
+      <c r="CX9" s="55"/>
+      <c r="CY9" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY9" s="31"/>
-      <c r="CZ9" s="55"/>
-      <c r="DA9" s="33" t="str">
+      <c r="CZ9" s="31"/>
+      <c r="DA9" s="55"/>
+      <c r="DB9" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB9" s="31"/>
-      <c r="DC9" s="55"/>
-      <c r="DD9" s="33" t="str">
+      <c r="DC9" s="31"/>
+      <c r="DD9" s="55"/>
+      <c r="DE9" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE9" s="35"/>
+      <c r="DF9" s="35"/>
     </row>
-    <row r="10" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="74" t="str">
+      <c r="F10" s="74" t="str">
         <f t="shared" si="25"/>
         <v>L3</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>5</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>11</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>0.55208333333333337</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>0.6069444444444444</v>
       </c>
-      <c r="J10" s="7">
-        <f>VLOOKUP(E10,LATLON!$A$2:$C$19,2)</f>
+      <c r="K10" s="7">
+        <f>VLOOKUP(F10,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4793599999999998</v>
       </c>
-      <c r="K10" s="7">
-        <f>VLOOKUP(E10,LATLON!$A$2:$C$19,3)</f>
+      <c r="L10" s="7">
+        <f>VLOOKUP(F10,LATLON!$A$2:$C$19,3)</f>
         <v>119.312033</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>53</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>58</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="O10" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>2</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="6">
         <f t="shared" si="26"/>
         <v>5.4861111111111027E-2</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="R10" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="S10" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="S10" s="5">
+      <c r="T10" s="5">
         <v>0.27</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="U10" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U10" s="8"/>
-      <c r="V10" s="19">
+      <c r="V10" s="8"/>
+      <c r="W10" s="19">
         <v>2.3958333333333331E-2</v>
       </c>
-      <c r="W10" s="20">
+      <c r="X10" s="20">
         <v>2.3622685185185188E-2</v>
       </c>
-      <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
-      <c r="AB10" s="20">
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20">
         <f t="shared" si="27"/>
         <v>4.7581018518518522E-2</v>
       </c>
-      <c r="AC10" s="20">
+      <c r="AD10" s="20">
         <v>4.1203703703703706E-3</v>
       </c>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20">
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20">
         <f t="shared" si="0"/>
         <v>4.3460648148148151E-2</v>
       </c>
-      <c r="AF10" s="21">
+      <c r="AG10" s="21">
         <v>60</v>
       </c>
-      <c r="AG10" s="21">
+      <c r="AH10" s="21">
         <v>100</v>
       </c>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="29">
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="29">
         <v>5</v>
       </c>
-      <c r="AJ10" s="30">
+      <c r="AK10" s="30">
         <v>5</v>
       </c>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="33" t="str">
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN10" s="31">
+      <c r="AO10" s="31">
         <v>25</v>
       </c>
-      <c r="AO10" s="34">
+      <c r="AP10" s="34">
         <v>6.1921296296296299E-3</v>
       </c>
-      <c r="AP10" s="33">
+      <c r="AQ10" s="33">
         <f t="shared" si="2"/>
         <v>2.0717592592592593E-3</v>
       </c>
-      <c r="AQ10" s="31"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="33" t="str">
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT10" s="31"/>
-      <c r="AU10" s="32"/>
-      <c r="AV10" s="33" t="str">
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW10" s="31"/>
-      <c r="AX10" s="32"/>
-      <c r="AY10" s="33" t="str">
+      <c r="AX10" s="31"/>
+      <c r="AY10" s="32"/>
+      <c r="AZ10" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ10" s="31">
+      <c r="BA10" s="31">
         <v>1</v>
       </c>
-      <c r="BA10" s="34">
+      <c r="BB10" s="34">
         <v>4.71875E-2</v>
       </c>
-      <c r="BB10" s="33">
+      <c r="BC10" s="33">
         <f t="shared" si="6"/>
         <v>4.3067129629629629E-2</v>
       </c>
-      <c r="BC10" s="31"/>
-      <c r="BD10" s="32"/>
-      <c r="BE10" s="33" t="str">
+      <c r="BD10" s="31"/>
+      <c r="BE10" s="32"/>
+      <c r="BF10" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF10" s="31"/>
-      <c r="BG10" s="32"/>
-      <c r="BH10" s="33" t="str">
+      <c r="BG10" s="31"/>
+      <c r="BH10" s="32"/>
+      <c r="BI10" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI10" s="31">
+      <c r="BJ10" s="31">
         <v>2</v>
       </c>
-      <c r="BJ10" s="34">
+      <c r="BK10" s="34">
         <v>1.0381944444444444E-2</v>
       </c>
-      <c r="BK10" s="33">
+      <c r="BL10" s="33">
         <f t="shared" si="9"/>
         <v>6.261574074074073E-3</v>
       </c>
-      <c r="BL10" s="31"/>
-      <c r="BM10" s="32"/>
-      <c r="BN10" s="33" t="str">
+      <c r="BM10" s="31"/>
+      <c r="BN10" s="32"/>
+      <c r="BO10" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO10" s="31"/>
-      <c r="BP10" s="32"/>
-      <c r="BQ10" s="33" t="str">
+      <c r="BP10" s="31"/>
+      <c r="BQ10" s="32"/>
+      <c r="BR10" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR10" s="31"/>
-      <c r="BS10" s="32"/>
-      <c r="BT10" s="33" t="str">
+      <c r="BS10" s="31"/>
+      <c r="BT10" s="32"/>
+      <c r="BU10" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU10" s="31"/>
-      <c r="BV10" s="32"/>
-      <c r="BW10" s="33" t="str">
+      <c r="BV10" s="31"/>
+      <c r="BW10" s="32"/>
+      <c r="BX10" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX10" s="40"/>
-      <c r="BY10" s="55"/>
-      <c r="BZ10" s="33" t="str">
+      <c r="BY10" s="40"/>
+      <c r="BZ10" s="55"/>
+      <c r="CA10" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA10" s="31"/>
-      <c r="CB10" s="34"/>
-      <c r="CC10" s="33" t="str">
+      <c r="CB10" s="31"/>
+      <c r="CC10" s="34"/>
+      <c r="CD10" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD10" s="31"/>
-      <c r="CE10" s="34"/>
-      <c r="CF10" s="33" t="str">
+      <c r="CE10" s="31"/>
+      <c r="CF10" s="34"/>
+      <c r="CG10" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG10" s="31"/>
-      <c r="CH10" s="34"/>
-      <c r="CI10" s="33" t="str">
+      <c r="CH10" s="31"/>
+      <c r="CI10" s="34"/>
+      <c r="CJ10" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ10" s="31"/>
-      <c r="CK10" s="34"/>
-      <c r="CL10" s="33" t="str">
+      <c r="CK10" s="31"/>
+      <c r="CL10" s="34"/>
+      <c r="CM10" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM10" s="31"/>
-      <c r="CN10" s="34"/>
-      <c r="CO10" s="33" t="str">
+      <c r="CN10" s="31"/>
+      <c r="CO10" s="34"/>
+      <c r="CP10" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP10" s="31"/>
-      <c r="CQ10" s="34"/>
-      <c r="CR10" s="33" t="str">
+      <c r="CQ10" s="31"/>
+      <c r="CR10" s="34"/>
+      <c r="CS10" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS10" s="31"/>
-      <c r="CT10" s="34"/>
-      <c r="CU10" s="33" t="str">
+      <c r="CT10" s="31"/>
+      <c r="CU10" s="34"/>
+      <c r="CV10" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV10" s="31"/>
-      <c r="CW10" s="34"/>
-      <c r="CX10" s="33" t="str">
+      <c r="CW10" s="31"/>
+      <c r="CX10" s="34"/>
+      <c r="CY10" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY10" s="31">
+      <c r="CZ10" s="31">
         <v>1</v>
       </c>
-      <c r="CZ10" s="34">
+      <c r="DA10" s="34">
         <v>2.0914351851851851E-2</v>
       </c>
-      <c r="DA10" s="33">
+      <c r="DB10" s="33">
         <f t="shared" si="23"/>
         <v>1.6793981481481479E-2</v>
       </c>
-      <c r="DB10" s="31">
+      <c r="DC10" s="31">
         <v>1</v>
       </c>
-      <c r="DC10" s="34">
+      <c r="DD10" s="34">
         <v>4.4212962962962956E-3</v>
       </c>
-      <c r="DD10" s="33">
+      <c r="DE10" s="33">
         <f t="shared" si="24"/>
         <v>3.0092592592592497E-4</v>
       </c>
-      <c r="DE10" s="35"/>
+      <c r="DF10" s="35"/>
     </row>
-    <row r="11" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>6</v>
       </c>
-      <c r="E11" s="74" t="str">
+      <c r="F11" s="74" t="str">
         <f t="shared" si="25"/>
         <v>L6</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>11</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>0.66180555555555554</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <v>0.74791666666666667</v>
       </c>
-      <c r="J11" s="7">
-        <f>VLOOKUP(E11,LATLON!$A$2:$C$19,2)</f>
+      <c r="K11" s="7">
+        <f>VLOOKUP(F11,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4686510000000004</v>
       </c>
-      <c r="K11" s="7">
-        <f>VLOOKUP(E11,LATLON!$A$2:$C$19,3)</f>
+      <c r="L11" s="7">
+        <f>VLOOKUP(F11,LATLON!$A$2:$C$19,3)</f>
         <v>119.300428</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <v>37</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>35</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="O11" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>3</v>
       </c>
-      <c r="P11" s="6">
+      <c r="Q11" s="6">
         <f t="shared" si="26"/>
         <v>8.6111111111111138E-2</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="R11" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="S11" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="S11" s="5">
+      <c r="T11" s="5">
         <v>0.48</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="U11" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U11" s="8"/>
-      <c r="V11" s="19">
+      <c r="V11" s="8"/>
+      <c r="W11" s="19">
         <v>3.0636574074074076E-2</v>
       </c>
-      <c r="W11" s="20">
+      <c r="X11" s="20">
         <v>2.884259259259259E-2</v>
       </c>
-      <c r="X11" s="20">
+      <c r="Y11" s="20">
         <v>1.695601851851852E-2</v>
       </c>
-      <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
-      <c r="AB11" s="20">
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20">
         <f t="shared" si="27"/>
         <v>7.6435185185185189E-2</v>
       </c>
-      <c r="AC11" s="20">
+      <c r="AD11" s="20">
         <v>7.4421296296296293E-3</v>
       </c>
-      <c r="AD11" s="20">
+      <c r="AE11" s="20">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="AE11" s="20">
+      <c r="AF11" s="20">
         <f t="shared" si="0"/>
         <v>4.4687500000000005E-2</v>
       </c>
-      <c r="AF11" s="21">
+      <c r="AG11" s="21">
         <v>70</v>
       </c>
-      <c r="AG11" s="21">
+      <c r="AH11" s="21">
         <v>90</v>
       </c>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="29">
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="29">
         <v>2</v>
       </c>
-      <c r="AJ11" s="30">
+      <c r="AK11" s="30">
         <v>2</v>
       </c>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="33" t="str">
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="33" t="str">
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ11" s="31"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="33" t="str">
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="33" t="str">
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="33" t="str">
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="34"/>
-      <c r="BB11" s="33" t="str">
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC11" s="31">
+      <c r="BD11" s="31">
         <v>1</v>
       </c>
-      <c r="BD11" s="34">
+      <c r="BE11" s="34">
         <v>9.8726851851851857E-3</v>
       </c>
-      <c r="BE11" s="33">
+      <c r="BF11" s="33">
         <f t="shared" si="7"/>
         <v>2.4305555555555565E-3</v>
       </c>
-      <c r="BF11" s="31"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="33" t="str">
+      <c r="BG11" s="31"/>
+      <c r="BH11" s="34"/>
+      <c r="BI11" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI11" s="31">
+      <c r="BJ11" s="31">
         <v>17</v>
       </c>
-      <c r="BJ11" s="34">
+      <c r="BK11" s="34">
         <v>1.6423611111111111E-2</v>
       </c>
-      <c r="BK11" s="33">
+      <c r="BL11" s="33">
         <f t="shared" si="9"/>
         <v>8.9814814814814826E-3</v>
       </c>
-      <c r="BL11" s="31"/>
-      <c r="BM11" s="34"/>
-      <c r="BN11" s="33" t="str">
+      <c r="BM11" s="31"/>
+      <c r="BN11" s="34"/>
+      <c r="BO11" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO11" s="31"/>
-      <c r="BP11" s="32"/>
-      <c r="BQ11" s="33" t="str">
+      <c r="BP11" s="31"/>
+      <c r="BQ11" s="32"/>
+      <c r="BR11" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR11" s="31"/>
-      <c r="BS11" s="32"/>
-      <c r="BT11" s="33" t="str">
+      <c r="BS11" s="31"/>
+      <c r="BT11" s="32"/>
+      <c r="BU11" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU11" s="31"/>
-      <c r="BV11" s="32"/>
-      <c r="BW11" s="33" t="str">
+      <c r="BV11" s="31"/>
+      <c r="BW11" s="32"/>
+      <c r="BX11" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX11" s="40"/>
-      <c r="BY11" s="55"/>
-      <c r="BZ11" s="33" t="str">
+      <c r="BY11" s="40"/>
+      <c r="BZ11" s="55"/>
+      <c r="CA11" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA11" s="31"/>
-      <c r="CB11" s="34"/>
-      <c r="CC11" s="33" t="str">
+      <c r="CB11" s="31"/>
+      <c r="CC11" s="34"/>
+      <c r="CD11" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD11" s="31"/>
-      <c r="CE11" s="34"/>
-      <c r="CF11" s="33" t="str">
+      <c r="CE11" s="31"/>
+      <c r="CF11" s="34"/>
+      <c r="CG11" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG11" s="31"/>
-      <c r="CH11" s="34"/>
-      <c r="CI11" s="33" t="str">
+      <c r="CH11" s="31"/>
+      <c r="CI11" s="34"/>
+      <c r="CJ11" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ11" s="31"/>
-      <c r="CK11" s="34"/>
-      <c r="CL11" s="33" t="str">
+      <c r="CK11" s="31"/>
+      <c r="CL11" s="34"/>
+      <c r="CM11" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM11" s="31"/>
-      <c r="CN11" s="34"/>
-      <c r="CO11" s="33" t="str">
+      <c r="CN11" s="31"/>
+      <c r="CO11" s="34"/>
+      <c r="CP11" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP11" s="31"/>
-      <c r="CQ11" s="34"/>
-      <c r="CR11" s="33" t="str">
+      <c r="CQ11" s="31"/>
+      <c r="CR11" s="34"/>
+      <c r="CS11" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS11" s="31"/>
-      <c r="CT11" s="34"/>
-      <c r="CU11" s="33" t="str">
+      <c r="CT11" s="31"/>
+      <c r="CU11" s="34"/>
+      <c r="CV11" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV11" s="31"/>
-      <c r="CW11" s="34"/>
-      <c r="CX11" s="33" t="str">
+      <c r="CW11" s="31"/>
+      <c r="CX11" s="34"/>
+      <c r="CY11" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY11" s="31"/>
-      <c r="CZ11" s="34"/>
-      <c r="DA11" s="33" t="str">
+      <c r="CZ11" s="31"/>
+      <c r="DA11" s="34"/>
+      <c r="DB11" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB11" s="31"/>
-      <c r="DC11" s="34"/>
-      <c r="DD11" s="33" t="str">
+      <c r="DC11" s="31"/>
+      <c r="DD11" s="34"/>
+      <c r="DE11" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE11" s="35"/>
+      <c r="DF11" s="35"/>
     </row>
-    <row r="12" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>4</v>
       </c>
-      <c r="E12" s="74" t="str">
+      <c r="F12" s="74" t="str">
         <f t="shared" si="25"/>
         <v>D4</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>2</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>0.66388888888888886</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>0.74722222222222223</v>
       </c>
-      <c r="J12" s="7">
-        <f>VLOOKUP(E12,LATLON!$A$2:$C$19,2)</f>
+      <c r="K12" s="7">
+        <f>VLOOKUP(F12,LATLON!$A$2:$C$19,2)</f>
         <v>-5.468826</v>
       </c>
-      <c r="K12" s="7">
-        <f>VLOOKUP(E12,LATLON!$A$2:$C$19,3)</f>
+      <c r="L12" s="7">
+        <f>VLOOKUP(F12,LATLON!$A$2:$C$19,3)</f>
         <v>119.300459</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>40</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>38</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="O12" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>3</v>
       </c>
-      <c r="P12" s="6">
+      <c r="Q12" s="6">
         <f t="shared" si="26"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="R12" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="S12" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="S12" s="5">
+      <c r="T12" s="5">
         <v>0.48</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="U12" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U12" s="8"/>
-      <c r="V12" s="19">
+      <c r="V12" s="8"/>
+      <c r="W12" s="19">
         <v>1.8206018518518517E-2</v>
       </c>
-      <c r="W12" s="20">
+      <c r="X12" s="20">
         <v>2.479166666666667E-2</v>
       </c>
-      <c r="X12" s="20">
+      <c r="Y12" s="20">
         <v>7.5810185185185182E-3</v>
       </c>
-      <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
-      <c r="AB12" s="20">
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20">
         <f t="shared" si="27"/>
         <v>5.0578703703703709E-2</v>
       </c>
-      <c r="AC12" s="20">
+      <c r="AD12" s="20">
         <v>3.7268518518518514E-3</v>
       </c>
-      <c r="AD12" s="20">
+      <c r="AE12" s="20">
         <v>4.108796296296297E-3</v>
       </c>
-      <c r="AE12" s="20">
+      <c r="AF12" s="20">
         <f t="shared" si="0"/>
         <v>4.2743055555555562E-2</v>
       </c>
-      <c r="AF12" s="21">
+      <c r="AG12" s="21">
         <v>90</v>
       </c>
-      <c r="AG12" s="21">
+      <c r="AH12" s="21">
         <v>60</v>
       </c>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="29">
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="29">
         <v>3</v>
       </c>
-      <c r="AJ12" s="30">
+      <c r="AK12" s="30">
         <v>1</v>
       </c>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="33" t="str">
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="33" t="str">
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="32"/>
-      <c r="AS12" s="33" t="str">
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="32"/>
-      <c r="AV12" s="33" t="str">
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW12" s="31"/>
-      <c r="AX12" s="32"/>
-      <c r="AY12" s="33" t="str">
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ12" s="31"/>
-      <c r="BA12" s="32"/>
-      <c r="BB12" s="33" t="str">
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="32"/>
+      <c r="BC12" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC12" s="31"/>
-      <c r="BD12" s="32"/>
-      <c r="BE12" s="33" t="str">
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="32"/>
+      <c r="BF12" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF12" s="31"/>
-      <c r="BG12" s="32"/>
-      <c r="BH12" s="33" t="str">
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="32"/>
+      <c r="BI12" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI12" s="31">
+      <c r="BJ12" s="31">
         <v>2</v>
       </c>
-      <c r="BJ12" s="34">
+      <c r="BK12" s="34">
         <v>4.8495370370370368E-3</v>
       </c>
-      <c r="BK12" s="33">
+      <c r="BL12" s="33">
         <f t="shared" si="9"/>
         <v>1.1226851851851853E-3</v>
       </c>
-      <c r="BL12" s="31"/>
-      <c r="BM12" s="32"/>
-      <c r="BN12" s="33" t="str">
+      <c r="BM12" s="31"/>
+      <c r="BN12" s="32"/>
+      <c r="BO12" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO12" s="31"/>
-      <c r="BP12" s="32"/>
-      <c r="BQ12" s="33" t="str">
+      <c r="BP12" s="31"/>
+      <c r="BQ12" s="32"/>
+      <c r="BR12" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR12" s="31"/>
-      <c r="BS12" s="32"/>
-      <c r="BT12" s="33" t="str">
+      <c r="BS12" s="31"/>
+      <c r="BT12" s="32"/>
+      <c r="BU12" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU12" s="31"/>
-      <c r="BV12" s="32"/>
-      <c r="BW12" s="33" t="str">
+      <c r="BV12" s="31"/>
+      <c r="BW12" s="32"/>
+      <c r="BX12" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX12" s="40"/>
-      <c r="BY12" s="55"/>
-      <c r="BZ12" s="33" t="str">
+      <c r="BY12" s="40"/>
+      <c r="BZ12" s="55"/>
+      <c r="CA12" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA12" s="31"/>
-      <c r="CB12" s="69"/>
-      <c r="CC12" s="33" t="str">
+      <c r="CB12" s="31"/>
+      <c r="CC12" s="69"/>
+      <c r="CD12" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD12" s="31"/>
-      <c r="CE12" s="69"/>
-      <c r="CF12" s="33" t="str">
+      <c r="CE12" s="31"/>
+      <c r="CF12" s="69"/>
+      <c r="CG12" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG12" s="31"/>
-      <c r="CH12" s="69"/>
-      <c r="CI12" s="33" t="str">
+      <c r="CH12" s="31"/>
+      <c r="CI12" s="69"/>
+      <c r="CJ12" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ12" s="31"/>
-      <c r="CK12" s="69"/>
-      <c r="CL12" s="33" t="str">
+      <c r="CK12" s="31"/>
+      <c r="CL12" s="69"/>
+      <c r="CM12" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM12" s="31"/>
-      <c r="CN12" s="69"/>
-      <c r="CO12" s="33" t="str">
+      <c r="CN12" s="31"/>
+      <c r="CO12" s="69"/>
+      <c r="CP12" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP12" s="31"/>
-      <c r="CQ12" s="69"/>
-      <c r="CR12" s="33" t="str">
+      <c r="CQ12" s="31"/>
+      <c r="CR12" s="69"/>
+      <c r="CS12" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS12" s="31"/>
-      <c r="CT12" s="69"/>
-      <c r="CU12" s="33" t="str">
+      <c r="CT12" s="31"/>
+      <c r="CU12" s="69"/>
+      <c r="CV12" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV12" s="31"/>
-      <c r="CW12" s="69"/>
-      <c r="CX12" s="33" t="str">
+      <c r="CW12" s="31"/>
+      <c r="CX12" s="69"/>
+      <c r="CY12" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY12" s="31"/>
-      <c r="CZ12" s="69"/>
-      <c r="DA12" s="33" t="str">
+      <c r="CZ12" s="31"/>
+      <c r="DA12" s="69"/>
+      <c r="DB12" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB12" s="31"/>
-      <c r="DC12" s="69"/>
-      <c r="DD12" s="33" t="str">
+      <c r="DC12" s="31"/>
+      <c r="DD12" s="69"/>
+      <c r="DE12" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE12" s="35"/>
+      <c r="DF12" s="35"/>
     </row>
-    <row r="13" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>5</v>
       </c>
-      <c r="E13" s="74" t="str">
+      <c r="F13" s="74" t="str">
         <f t="shared" si="25"/>
         <v>D5</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>3</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>14</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>0.66875000000000007</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>0.74236111111111114</v>
       </c>
-      <c r="J13" s="7">
-        <f>VLOOKUP(E13,LATLON!$A$2:$C$19,2)</f>
+      <c r="K13" s="7">
+        <f>VLOOKUP(F13,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4682649999999997</v>
       </c>
-      <c r="K13" s="7">
-        <f>VLOOKUP(E13,LATLON!$A$2:$C$19,3)</f>
+      <c r="L13" s="7">
+        <f>VLOOKUP(F13,LATLON!$A$2:$C$19,3)</f>
         <v>119.30207900000001</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>25</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="O13" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>3</v>
       </c>
-      <c r="P13" s="6">
+      <c r="Q13" s="6">
         <f t="shared" si="26"/>
         <v>7.3611111111111072E-2</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="R13" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="S13" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="S13" s="5">
+      <c r="T13" s="5">
         <v>0.48</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="U13" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U13" s="8"/>
-      <c r="V13" s="19">
+      <c r="V13" s="8"/>
+      <c r="W13" s="19">
         <v>1.7858796296296296E-2</v>
       </c>
-      <c r="W13" s="20">
+      <c r="X13" s="20">
         <v>1.8703703703703705E-2</v>
       </c>
-      <c r="X13" s="20">
+      <c r="Y13" s="20">
         <v>1.8379629629629628E-2</v>
       </c>
-      <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
-      <c r="AB13" s="20">
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20">
         <f t="shared" si="27"/>
         <v>5.4942129629629625E-2</v>
       </c>
-      <c r="AC13" s="20">
+      <c r="AD13" s="20">
         <v>4.8263888888888887E-3</v>
       </c>
-      <c r="AD13" s="20">
+      <c r="AE13" s="20">
         <v>1.1446759259259261E-2</v>
       </c>
-      <c r="AE13" s="20">
+      <c r="AF13" s="20">
         <f t="shared" si="0"/>
         <v>3.8668981481481478E-2</v>
       </c>
-      <c r="AF13" s="21">
+      <c r="AG13" s="21">
         <v>80</v>
       </c>
-      <c r="AG13" s="21">
+      <c r="AH13" s="21">
         <v>60</v>
       </c>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="29">
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="29">
         <v>2</v>
       </c>
-      <c r="AJ13" s="30">
+      <c r="AK13" s="30">
         <v>0</v>
       </c>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="33" t="str">
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="33" t="str">
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="33" t="str">
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="33" t="str">
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="32"/>
-      <c r="AY13" s="33" t="str">
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ13" s="31"/>
-      <c r="BA13" s="32"/>
-      <c r="BB13" s="33" t="str">
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="32"/>
+      <c r="BC13" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC13" s="31"/>
-      <c r="BD13" s="32"/>
-      <c r="BE13" s="33" t="str">
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="32"/>
+      <c r="BF13" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF13" s="31"/>
-      <c r="BG13" s="34"/>
-      <c r="BH13" s="33" t="str">
+      <c r="BG13" s="31"/>
+      <c r="BH13" s="34"/>
+      <c r="BI13" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI13" s="31"/>
-      <c r="BJ13" s="32"/>
-      <c r="BK13" s="33" t="str">
+      <c r="BJ13" s="31"/>
+      <c r="BK13" s="32"/>
+      <c r="BL13" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL13" s="31"/>
-      <c r="BM13" s="32"/>
-      <c r="BN13" s="33" t="str">
+      <c r="BM13" s="31"/>
+      <c r="BN13" s="32"/>
+      <c r="BO13" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO13" s="31"/>
-      <c r="BP13" s="32"/>
-      <c r="BQ13" s="33" t="str">
+      <c r="BP13" s="31"/>
+      <c r="BQ13" s="32"/>
+      <c r="BR13" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR13" s="31"/>
-      <c r="BS13" s="34"/>
-      <c r="BT13" s="33" t="str">
+      <c r="BS13" s="31"/>
+      <c r="BT13" s="34"/>
+      <c r="BU13" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU13" s="31"/>
-      <c r="BV13" s="32"/>
-      <c r="BW13" s="33" t="str">
+      <c r="BV13" s="31"/>
+      <c r="BW13" s="32"/>
+      <c r="BX13" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX13" s="40"/>
-      <c r="BY13" s="55"/>
-      <c r="BZ13" s="33" t="str">
+      <c r="BY13" s="40"/>
+      <c r="BZ13" s="55"/>
+      <c r="CA13" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA13" s="31"/>
-      <c r="CB13" s="32"/>
-      <c r="CC13" s="33" t="str">
+      <c r="CB13" s="31"/>
+      <c r="CC13" s="32"/>
+      <c r="CD13" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD13" s="31"/>
-      <c r="CE13" s="32"/>
-      <c r="CF13" s="33" t="str">
+      <c r="CE13" s="31"/>
+      <c r="CF13" s="32"/>
+      <c r="CG13" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG13" s="31"/>
-      <c r="CH13" s="32"/>
-      <c r="CI13" s="33" t="str">
+      <c r="CH13" s="31"/>
+      <c r="CI13" s="32"/>
+      <c r="CJ13" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ13" s="31"/>
-      <c r="CK13" s="32"/>
-      <c r="CL13" s="33" t="str">
+      <c r="CK13" s="31"/>
+      <c r="CL13" s="32"/>
+      <c r="CM13" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM13" s="31"/>
-      <c r="CN13" s="34"/>
-      <c r="CO13" s="33" t="str">
+      <c r="CN13" s="31"/>
+      <c r="CO13" s="34"/>
+      <c r="CP13" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP13" s="31"/>
-      <c r="CQ13" s="34"/>
-      <c r="CR13" s="33" t="str">
+      <c r="CQ13" s="31"/>
+      <c r="CR13" s="34"/>
+      <c r="CS13" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS13" s="31"/>
-      <c r="CT13" s="32"/>
-      <c r="CU13" s="33" t="str">
+      <c r="CT13" s="31"/>
+      <c r="CU13" s="32"/>
+      <c r="CV13" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV13" s="31"/>
-      <c r="CW13" s="32"/>
-      <c r="CX13" s="33" t="str">
+      <c r="CW13" s="31"/>
+      <c r="CX13" s="32"/>
+      <c r="CY13" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY13" s="31"/>
-      <c r="CZ13" s="32"/>
-      <c r="DA13" s="33" t="str">
+      <c r="CZ13" s="31"/>
+      <c r="DA13" s="32"/>
+      <c r="DB13" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB13" s="31"/>
-      <c r="DC13" s="32"/>
-      <c r="DD13" s="33" t="str">
+      <c r="DC13" s="31"/>
+      <c r="DD13" s="32"/>
+      <c r="DE13" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE13" s="35"/>
+      <c r="DF13" s="35"/>
     </row>
-    <row r="14" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>5</v>
       </c>
-      <c r="E14" s="74" t="str">
+      <c r="F14" s="74" t="str">
         <f t="shared" si="25"/>
         <v>L5</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>4</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>5</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>0.67083333333333339</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>0.74305555555555547</v>
       </c>
-      <c r="J14" s="7">
-        <f>VLOOKUP(E14,LATLON!$A$2:$C$19,2)</f>
+      <c r="K14" s="7">
+        <f>VLOOKUP(F14,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4682510000000004</v>
       </c>
-      <c r="K14" s="7">
-        <f>VLOOKUP(E14,LATLON!$A$2:$C$19,3)</f>
+      <c r="L14" s="7">
+        <f>VLOOKUP(F14,LATLON!$A$2:$C$19,3)</f>
         <v>119.301957</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <v>40</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>20</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="O14" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>3</v>
       </c>
-      <c r="P14" s="6">
+      <c r="Q14" s="6">
         <f t="shared" si="26"/>
         <v>7.2222222222222077E-2</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="R14" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="S14" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="S14" s="5">
+      <c r="T14" s="5">
         <v>0.48</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="U14" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U14" s="8"/>
-      <c r="V14" s="19">
+      <c r="V14" s="8"/>
+      <c r="W14" s="19">
         <v>2.6469907407407411E-2</v>
       </c>
-      <c r="W14" s="20">
+      <c r="X14" s="20">
         <v>2.7800925925925923E-2</v>
       </c>
-      <c r="X14" s="20">
+      <c r="Y14" s="20">
         <v>1.9907407407407408E-3</v>
       </c>
-      <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
-      <c r="AB14" s="20">
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20">
         <f t="shared" si="27"/>
         <v>5.6261574074074075E-2</v>
       </c>
-      <c r="AC14" s="20">
+      <c r="AD14" s="20">
         <v>4.3518518518518515E-3</v>
       </c>
-      <c r="AD14" s="20">
+      <c r="AE14" s="20">
         <v>8.9351851851851866E-3</v>
       </c>
-      <c r="AE14" s="20">
-        <f t="shared" ref="AE14:AE19" si="28">AB14-AC14-AD14</f>
+      <c r="AF14" s="20">
+        <f t="shared" ref="AF14:AF19" si="28">AC14-AD14-AE14</f>
         <v>4.297453703703704E-2</v>
       </c>
-      <c r="AF14" s="21">
+      <c r="AG14" s="21">
         <v>100</v>
       </c>
-      <c r="AG14" s="21">
+      <c r="AH14" s="21">
         <v>30</v>
       </c>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="29">
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="29">
         <v>4</v>
       </c>
-      <c r="AJ14" s="30">
+      <c r="AK14" s="30">
         <v>2</v>
       </c>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="33" t="str">
-        <f t="shared" ref="AM14:AM19" si="29">IF(AK14=0,"NA",AL14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="33" t="str">
-        <f t="shared" ref="AP14:AP19" si="30">IF(AN14=0,"NA",AO14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AQ14" s="31">
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="33" t="str">
+        <f t="shared" ref="AN14:AN19" si="29">IF(AL14=0,"NA",AM14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="33" t="str">
+        <f t="shared" ref="AQ14:AQ19" si="30">IF(AO14=0,"NA",AP14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AR14" s="31">
         <v>4</v>
       </c>
-      <c r="AR14" s="34">
+      <c r="AS14" s="34">
         <v>1.1643518518518518E-2</v>
       </c>
-      <c r="AS14" s="33">
-        <f t="shared" ref="AS14:AS19" si="31">IF(AQ14=0,"NA",AR14-$AC14)</f>
+      <c r="AT14" s="33">
+        <f t="shared" ref="AT14:AT19" si="31">IF(AR14=0,"NA",AS14-$AD14)</f>
         <v>7.2916666666666668E-3</v>
       </c>
-      <c r="AT14" s="31"/>
-      <c r="AU14" s="32"/>
-      <c r="AV14" s="33" t="str">
-        <f t="shared" ref="AV14:AV19" si="32">IF(AT14=0,"NA",AU14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AW14" s="31"/>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="33" t="str">
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="33" t="str">
+        <f t="shared" ref="AW14:AW19" si="32">IF(AU14=0,"NA",AV14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AX14" s="31"/>
+      <c r="AY14" s="34"/>
+      <c r="AZ14" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ14" s="31"/>
-      <c r="BA14" s="34"/>
-      <c r="BB14" s="33" t="str">
-        <f t="shared" ref="BB14:BB19" si="33">IF(AZ14=0,"NA",BA14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BC14" s="31"/>
-      <c r="BD14" s="32"/>
-      <c r="BE14" s="33" t="str">
-        <f t="shared" ref="BE14:BE19" si="34">IF(BC14=0,"NA",BD14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BF14" s="31"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="33" t="str">
-        <f t="shared" ref="BH14:BH19" si="35">IF(BF14=0,"NA",BG14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BI14" s="31"/>
-      <c r="BJ14" s="34"/>
-      <c r="BK14" s="33" t="str">
-        <f t="shared" ref="BK14:BK19" si="36">IF(BI14=0,"NA",BJ14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BL14" s="31"/>
-      <c r="BM14" s="32"/>
-      <c r="BN14" s="33" t="str">
-        <f t="shared" ref="BN14:BN19" si="37">IF(BL14=0,"NA",BM14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BO14" s="31"/>
-      <c r="BP14" s="32"/>
-      <c r="BQ14" s="33" t="str">
-        <f t="shared" ref="BQ14:BQ19" si="38">IF(BO14=0,"NA",BP14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BR14" s="31"/>
-      <c r="BS14" s="34"/>
-      <c r="BT14" s="33" t="str">
-        <f t="shared" ref="BT14:BT19" si="39">IF(BR14=0,"NA",BS14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BU14" s="31"/>
-      <c r="BV14" s="34"/>
-      <c r="BW14" s="33" t="str">
+      <c r="BA14" s="31"/>
+      <c r="BB14" s="34"/>
+      <c r="BC14" s="33" t="str">
+        <f t="shared" ref="BC14:BC19" si="33">IF(BA14=0,"NA",BB14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BD14" s="31"/>
+      <c r="BE14" s="32"/>
+      <c r="BF14" s="33" t="str">
+        <f t="shared" ref="BF14:BF19" si="34">IF(BD14=0,"NA",BE14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BG14" s="31"/>
+      <c r="BH14" s="34"/>
+      <c r="BI14" s="33" t="str">
+        <f t="shared" ref="BI14:BI19" si="35">IF(BG14=0,"NA",BH14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BJ14" s="31"/>
+      <c r="BK14" s="34"/>
+      <c r="BL14" s="33" t="str">
+        <f t="shared" ref="BL14:BL19" si="36">IF(BJ14=0,"NA",BK14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BM14" s="31"/>
+      <c r="BN14" s="32"/>
+      <c r="BO14" s="33" t="str">
+        <f t="shared" ref="BO14:BO19" si="37">IF(BM14=0,"NA",BN14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BP14" s="31"/>
+      <c r="BQ14" s="32"/>
+      <c r="BR14" s="33" t="str">
+        <f t="shared" ref="BR14:BR19" si="38">IF(BP14=0,"NA",BQ14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BS14" s="31"/>
+      <c r="BT14" s="34"/>
+      <c r="BU14" s="33" t="str">
+        <f t="shared" ref="BU14:BU19" si="39">IF(BS14=0,"NA",BT14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BV14" s="31"/>
+      <c r="BW14" s="34"/>
+      <c r="BX14" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX14" s="40"/>
-      <c r="BY14" s="55"/>
-      <c r="BZ14" s="33" t="str">
+      <c r="BY14" s="40"/>
+      <c r="BZ14" s="55"/>
+      <c r="CA14" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA14" s="31"/>
-      <c r="CB14" s="32"/>
-      <c r="CC14" s="33" t="str">
+      <c r="CB14" s="31"/>
+      <c r="CC14" s="32"/>
+      <c r="CD14" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD14" s="31"/>
-      <c r="CE14" s="32"/>
-      <c r="CF14" s="33" t="str">
+      <c r="CE14" s="31"/>
+      <c r="CF14" s="32"/>
+      <c r="CG14" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG14" s="31"/>
-      <c r="CH14" s="32"/>
-      <c r="CI14" s="33" t="str">
+      <c r="CH14" s="31"/>
+      <c r="CI14" s="32"/>
+      <c r="CJ14" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ14" s="31"/>
-      <c r="CK14" s="32"/>
-      <c r="CL14" s="33" t="str">
+      <c r="CK14" s="31"/>
+      <c r="CL14" s="32"/>
+      <c r="CM14" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM14" s="31"/>
-      <c r="CN14" s="32"/>
-      <c r="CO14" s="33" t="str">
+      <c r="CN14" s="31"/>
+      <c r="CO14" s="32"/>
+      <c r="CP14" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP14" s="31"/>
-      <c r="CQ14" s="32"/>
-      <c r="CR14" s="33" t="str">
+      <c r="CQ14" s="31"/>
+      <c r="CR14" s="32"/>
+      <c r="CS14" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS14" s="31"/>
-      <c r="CT14" s="32"/>
-      <c r="CU14" s="33" t="str">
+      <c r="CT14" s="31"/>
+      <c r="CU14" s="32"/>
+      <c r="CV14" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV14" s="31"/>
-      <c r="CW14" s="32"/>
-      <c r="CX14" s="33" t="str">
+      <c r="CW14" s="31"/>
+      <c r="CX14" s="32"/>
+      <c r="CY14" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY14" s="31"/>
-      <c r="CZ14" s="32"/>
-      <c r="DA14" s="33" t="str">
+      <c r="CZ14" s="31"/>
+      <c r="DA14" s="32"/>
+      <c r="DB14" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB14" s="31">
+      <c r="DC14" s="31">
         <v>4</v>
       </c>
-      <c r="DC14" s="34">
+      <c r="DD14" s="34">
         <v>4.4212962962962956E-3</v>
       </c>
-      <c r="DD14" s="33">
-        <f t="shared" ref="DD14:DD19" si="40">IF(DB14=0,"NA",DC14-$AC14)</f>
+      <c r="DE14" s="33">
+        <f t="shared" ref="DE14:DE19" si="40">IF(DC14=0,"NA",DD14-$AD14)</f>
         <v>6.9444444444444024E-5</v>
       </c>
-      <c r="DE14" s="35"/>
+      <c r="DF14" s="35"/>
     </row>
-    <row r="15" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="74" t="str">
+      <c r="F15" s="74" t="str">
         <f t="shared" si="25"/>
         <v>L4</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>5</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>12</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>0.68055555555555547</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <v>0.73888888888888893</v>
       </c>
-      <c r="J15" s="7">
-        <f>VLOOKUP(E15,LATLON!$A$2:$C$19,2)</f>
+      <c r="K15" s="7">
+        <f>VLOOKUP(F15,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4663769999999996</v>
       </c>
-      <c r="K15" s="7">
-        <f>VLOOKUP(E15,LATLON!$A$2:$C$19,3)</f>
+      <c r="L15" s="7">
+        <f>VLOOKUP(F15,LATLON!$A$2:$C$19,3)</f>
         <v>119.30229</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <v>41</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>35</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="O15" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <v>3</v>
       </c>
-      <c r="P15" s="6">
+      <c r="Q15" s="6">
         <f t="shared" si="26"/>
         <v>5.8333333333333459E-2</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="R15" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="S15" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="S15" s="5">
+      <c r="T15" s="5">
         <v>0.53</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="U15" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U15" s="8"/>
-      <c r="V15" s="19">
+      <c r="V15" s="8"/>
+      <c r="W15" s="19">
         <v>2.1747685185185186E-2</v>
       </c>
-      <c r="W15" s="20">
+      <c r="X15" s="20">
         <v>2.4386574074074074E-2</v>
       </c>
-      <c r="X15" s="20">
+      <c r="Y15" s="20">
         <v>1.2719907407407407E-2</v>
       </c>
-      <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
-      <c r="AB15" s="20">
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20">
         <f t="shared" si="27"/>
         <v>5.8854166666666673E-2</v>
       </c>
-      <c r="AC15" s="20">
+      <c r="AD15" s="20">
         <v>4.0393518518518521E-3</v>
       </c>
-      <c r="AD15" s="20">
+      <c r="AE15" s="20">
         <v>1.2719907407407407E-2</v>
       </c>
-      <c r="AE15" s="20">
+      <c r="AF15" s="20">
         <f t="shared" si="28"/>
         <v>4.2094907407407414E-2</v>
       </c>
-      <c r="AF15" s="21">
-        <v>100</v>
-      </c>
       <c r="AG15" s="21">
         <v>100</v>
       </c>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="29">
+      <c r="AH15" s="21">
+        <v>100</v>
+      </c>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="29">
         <v>5</v>
       </c>
-      <c r="AJ15" s="30">
+      <c r="AK15" s="30">
         <v>4</v>
       </c>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="33" t="str">
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AN15" s="31">
+      <c r="AO15" s="31">
         <v>2</v>
       </c>
-      <c r="AO15" s="34">
+      <c r="AP15" s="34">
         <v>1.9988425925925927E-2</v>
       </c>
-      <c r="AP15" s="33">
+      <c r="AQ15" s="33">
         <f t="shared" si="30"/>
         <v>1.5949074074074074E-2</v>
       </c>
-      <c r="AQ15" s="31">
+      <c r="AR15" s="31">
         <v>2</v>
       </c>
-      <c r="AR15" s="34">
+      <c r="AS15" s="34">
         <v>4.0381944444444443E-2</v>
       </c>
-      <c r="AS15" s="33">
+      <c r="AT15" s="33">
         <f t="shared" si="31"/>
         <v>3.6342592592592593E-2</v>
       </c>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="33" t="str">
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="AW15" s="31"/>
-      <c r="AX15" s="32"/>
-      <c r="AY15" s="33" t="str">
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="32"/>
+      <c r="AZ15" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ15" s="31"/>
-      <c r="BA15" s="32"/>
-      <c r="BB15" s="33" t="str">
+      <c r="BA15" s="31"/>
+      <c r="BB15" s="32"/>
+      <c r="BC15" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BC15" s="31"/>
-      <c r="BD15" s="32"/>
-      <c r="BE15" s="33" t="str">
+      <c r="BD15" s="31"/>
+      <c r="BE15" s="32"/>
+      <c r="BF15" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BF15" s="31"/>
-      <c r="BG15" s="34"/>
-      <c r="BH15" s="33" t="str">
+      <c r="BG15" s="31"/>
+      <c r="BH15" s="34"/>
+      <c r="BI15" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BI15" s="31">
+      <c r="BJ15" s="31">
         <v>2</v>
       </c>
-      <c r="BJ15" s="34">
+      <c r="BK15" s="34">
         <v>4.3749999999999995E-3</v>
       </c>
-      <c r="BK15" s="33">
+      <c r="BL15" s="33">
         <f t="shared" si="36"/>
         <v>3.3564814814814742E-4</v>
       </c>
-      <c r="BL15" s="31"/>
-      <c r="BM15" s="32"/>
-      <c r="BN15" s="33" t="str">
+      <c r="BM15" s="31"/>
+      <c r="BN15" s="32"/>
+      <c r="BO15" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BO15" s="31"/>
-      <c r="BP15" s="32"/>
-      <c r="BQ15" s="33" t="str">
+      <c r="BP15" s="31"/>
+      <c r="BQ15" s="32"/>
+      <c r="BR15" s="33" t="str">
         <f t="shared" si="38"/>
         <v>NA</v>
       </c>
-      <c r="BR15" s="31"/>
-      <c r="BS15" s="34"/>
-      <c r="BT15" s="33" t="str">
+      <c r="BS15" s="31"/>
+      <c r="BT15" s="34"/>
+      <c r="BU15" s="33" t="str">
         <f t="shared" si="39"/>
         <v>NA</v>
       </c>
-      <c r="BU15" s="31"/>
-      <c r="BV15" s="69"/>
-      <c r="BW15" s="33" t="str">
+      <c r="BV15" s="31"/>
+      <c r="BW15" s="69"/>
+      <c r="BX15" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX15" s="40"/>
-      <c r="BY15" s="55"/>
-      <c r="BZ15" s="33" t="str">
+      <c r="BY15" s="40"/>
+      <c r="BZ15" s="55"/>
+      <c r="CA15" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA15" s="31"/>
-      <c r="CB15" s="69"/>
-      <c r="CC15" s="33" t="str">
+      <c r="CB15" s="31"/>
+      <c r="CC15" s="69"/>
+      <c r="CD15" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD15" s="31"/>
-      <c r="CE15" s="69"/>
-      <c r="CF15" s="33" t="str">
+      <c r="CE15" s="31"/>
+      <c r="CF15" s="69"/>
+      <c r="CG15" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG15" s="31"/>
-      <c r="CH15" s="69"/>
-      <c r="CI15" s="33" t="str">
+      <c r="CH15" s="31"/>
+      <c r="CI15" s="69"/>
+      <c r="CJ15" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ15" s="31"/>
-      <c r="CK15" s="32"/>
-      <c r="CL15" s="33" t="str">
+      <c r="CK15" s="31"/>
+      <c r="CL15" s="32"/>
+      <c r="CM15" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM15" s="31"/>
-      <c r="CN15" s="32"/>
-      <c r="CO15" s="33" t="str">
+      <c r="CN15" s="31"/>
+      <c r="CO15" s="32"/>
+      <c r="CP15" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP15" s="31"/>
-      <c r="CQ15" s="32"/>
-      <c r="CR15" s="33" t="str">
+      <c r="CQ15" s="31"/>
+      <c r="CR15" s="32"/>
+      <c r="CS15" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS15" s="31"/>
-      <c r="CT15" s="32"/>
-      <c r="CU15" s="33" t="str">
+      <c r="CT15" s="31"/>
+      <c r="CU15" s="32"/>
+      <c r="CV15" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV15" s="31"/>
-      <c r="CW15" s="32"/>
-      <c r="CX15" s="33" t="str">
+      <c r="CW15" s="31"/>
+      <c r="CX15" s="32"/>
+      <c r="CY15" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY15" s="31"/>
-      <c r="CZ15" s="32"/>
-      <c r="DA15" s="33" t="str">
+      <c r="CZ15" s="31"/>
+      <c r="DA15" s="32"/>
+      <c r="DB15" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB15" s="31">
+      <c r="DC15" s="31">
         <v>2</v>
       </c>
-      <c r="DC15" s="34">
+      <c r="DD15" s="34">
         <v>4.8726851851851856E-3</v>
       </c>
-      <c r="DD15" s="33">
+      <c r="DE15" s="33">
         <f t="shared" si="40"/>
         <v>8.333333333333335E-4</v>
       </c>
-      <c r="DE15" s="35"/>
+      <c r="DF15" s="35"/>
     </row>
-    <row r="16" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="5">
         <v>6</v>
       </c>
-      <c r="E16" s="74" t="str">
+      <c r="F16" s="74" t="str">
         <f t="shared" si="25"/>
         <v>D6</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>6</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>0.68472222222222223</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>0.74097222222222225</v>
       </c>
-      <c r="J16" s="7">
-        <f>VLOOKUP(E16,LATLON!$A$2:$C$19,2)</f>
+      <c r="K16" s="7">
+        <f>VLOOKUP(F16,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4671349999999999</v>
       </c>
-      <c r="K16" s="7">
-        <f>VLOOKUP(E16,LATLON!$A$2:$C$19,3)</f>
+      <c r="L16" s="7">
+        <f>VLOOKUP(F16,LATLON!$A$2:$C$19,3)</f>
         <v>119.302812</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <v>30</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <v>28</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="O16" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>4</v>
       </c>
-      <c r="P16" s="6">
+      <c r="Q16" s="6">
         <f t="shared" si="26"/>
         <v>5.6250000000000022E-2</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="R16" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="S16" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="S16" s="5">
+      <c r="T16" s="5">
         <v>0.53</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="U16" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U16" s="8"/>
-      <c r="V16" s="19">
+      <c r="V16" s="8"/>
+      <c r="W16" s="19">
         <v>1.6863425925925928E-2</v>
       </c>
-      <c r="W16" s="20">
+      <c r="X16" s="20">
         <v>1.486111111111111E-2</v>
       </c>
-      <c r="X16" s="20">
+      <c r="Y16" s="20">
         <v>1.7164351851851851E-2</v>
       </c>
-      <c r="Y16" s="20">
+      <c r="Z16" s="20">
         <v>2.0254629629629629E-2</v>
       </c>
-      <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
-      <c r="AB16" s="20">
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20">
         <f t="shared" si="27"/>
         <v>6.9143518518518521E-2</v>
       </c>
-      <c r="AC16" s="20">
+      <c r="AD16" s="20">
         <v>3.8078703703703707E-3</v>
       </c>
-      <c r="AD16" s="20">
+      <c r="AE16" s="20">
         <v>2.0254629629629629E-2</v>
       </c>
-      <c r="AE16" s="20">
+      <c r="AF16" s="20">
         <f t="shared" si="28"/>
         <v>4.5081018518518527E-2</v>
       </c>
-      <c r="AF16" s="21">
+      <c r="AG16" s="21">
         <v>90</v>
       </c>
-      <c r="AG16" s="21">
+      <c r="AH16" s="21">
         <v>70</v>
       </c>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="29">
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="29">
         <v>2</v>
       </c>
-      <c r="AJ16" s="30">
+      <c r="AK16" s="30">
         <v>0</v>
       </c>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="33" t="str">
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="33" t="str">
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AQ16" s="31"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="33" t="str">
+      <c r="AR16" s="31"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="33" t="str">
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="34"/>
+      <c r="AW16" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="AW16" s="31"/>
-      <c r="AX16" s="34"/>
-      <c r="AY16" s="33" t="str">
+      <c r="AX16" s="31"/>
+      <c r="AY16" s="34"/>
+      <c r="AZ16" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ16" s="31"/>
-      <c r="BA16" s="34"/>
-      <c r="BB16" s="33" t="str">
+      <c r="BA16" s="31"/>
+      <c r="BB16" s="34"/>
+      <c r="BC16" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BC16" s="31"/>
-      <c r="BD16" s="34"/>
-      <c r="BE16" s="33" t="str">
+      <c r="BD16" s="31"/>
+      <c r="BE16" s="34"/>
+      <c r="BF16" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BF16" s="31"/>
-      <c r="BG16" s="34"/>
-      <c r="BH16" s="55" t="str">
+      <c r="BG16" s="31"/>
+      <c r="BH16" s="34"/>
+      <c r="BI16" s="55" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BI16" s="40"/>
-      <c r="BJ16" s="34"/>
-      <c r="BK16" s="33" t="str">
+      <c r="BJ16" s="40"/>
+      <c r="BK16" s="34"/>
+      <c r="BL16" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BL16" s="31"/>
-      <c r="BM16" s="32"/>
-      <c r="BN16" s="33" t="str">
+      <c r="BM16" s="31"/>
+      <c r="BN16" s="32"/>
+      <c r="BO16" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BO16" s="31"/>
-      <c r="BP16" s="32"/>
-      <c r="BQ16" s="33" t="str">
+      <c r="BP16" s="31"/>
+      <c r="BQ16" s="32"/>
+      <c r="BR16" s="33" t="str">
         <f t="shared" si="38"/>
         <v>NA</v>
       </c>
-      <c r="BR16" s="31"/>
-      <c r="BS16" s="55"/>
-      <c r="BT16" s="33" t="str">
+      <c r="BS16" s="31"/>
+      <c r="BT16" s="55"/>
+      <c r="BU16" s="33" t="str">
         <f t="shared" si="39"/>
         <v>NA</v>
       </c>
-      <c r="BU16" s="31"/>
-      <c r="BV16" s="32"/>
-      <c r="BW16" s="33" t="str">
+      <c r="BV16" s="31"/>
+      <c r="BW16" s="32"/>
+      <c r="BX16" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX16" s="40"/>
-      <c r="BY16" s="55"/>
-      <c r="BZ16" s="33" t="str">
+      <c r="BY16" s="40"/>
+      <c r="BZ16" s="55"/>
+      <c r="CA16" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA16" s="31"/>
-      <c r="CB16" s="34"/>
-      <c r="CC16" s="33" t="str">
+      <c r="CB16" s="31"/>
+      <c r="CC16" s="34"/>
+      <c r="CD16" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD16" s="31"/>
-      <c r="CE16" s="34"/>
-      <c r="CF16" s="33" t="str">
+      <c r="CE16" s="31"/>
+      <c r="CF16" s="34"/>
+      <c r="CG16" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG16" s="31"/>
-      <c r="CH16" s="34"/>
-      <c r="CI16" s="33" t="str">
+      <c r="CH16" s="31"/>
+      <c r="CI16" s="34"/>
+      <c r="CJ16" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ16" s="31"/>
-      <c r="CK16" s="34"/>
-      <c r="CL16" s="33" t="str">
+      <c r="CK16" s="31"/>
+      <c r="CL16" s="34"/>
+      <c r="CM16" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM16" s="31"/>
-      <c r="CN16" s="34"/>
-      <c r="CO16" s="33" t="str">
+      <c r="CN16" s="31"/>
+      <c r="CO16" s="34"/>
+      <c r="CP16" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP16" s="31"/>
-      <c r="CQ16" s="34"/>
-      <c r="CR16" s="33" t="str">
+      <c r="CQ16" s="31"/>
+      <c r="CR16" s="34"/>
+      <c r="CS16" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS16" s="31"/>
-      <c r="CT16" s="34"/>
-      <c r="CU16" s="33" t="str">
+      <c r="CT16" s="31"/>
+      <c r="CU16" s="34"/>
+      <c r="CV16" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV16" s="31"/>
-      <c r="CW16" s="34"/>
-      <c r="CX16" s="33" t="str">
+      <c r="CW16" s="31"/>
+      <c r="CX16" s="34"/>
+      <c r="CY16" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY16" s="31"/>
-      <c r="CZ16" s="34"/>
-      <c r="DA16" s="33" t="str">
+      <c r="CZ16" s="31"/>
+      <c r="DA16" s="34"/>
+      <c r="DB16" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB16" s="31"/>
-      <c r="DC16" s="34"/>
-      <c r="DD16" s="33" t="str">
+      <c r="DC16" s="31"/>
+      <c r="DD16" s="34"/>
+      <c r="DE16" s="33" t="str">
         <f t="shared" si="40"/>
         <v>NA</v>
       </c>
-      <c r="DE16" s="35"/>
+      <c r="DF16" s="35"/>
     </row>
-    <row r="17" spans="1:109" x14ac:dyDescent="0.35">
-      <c r="A17" s="89" t="s">
+    <row r="17" spans="1:110" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <v>6</v>
       </c>
-      <c r="E17" s="74" t="str">
+      <c r="F17" s="74" t="str">
         <f t="shared" si="25"/>
         <v>E6</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <v>12</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>0.30902777777777779</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>0.38263888888888892</v>
       </c>
-      <c r="J17" s="7">
-        <f>VLOOKUP(E17,LATLON!$A$2:$C$19,2)</f>
+      <c r="K17" s="7">
+        <f>VLOOKUP(F17,LATLON!$A$2:$C$19,2)</f>
         <v>-5.463902</v>
       </c>
-      <c r="K17" s="7">
-        <f>VLOOKUP(E17,LATLON!$A$2:$C$19,3)</f>
+      <c r="L17" s="7">
+        <f>VLOOKUP(F17,LATLON!$A$2:$C$19,3)</f>
         <v>119.28802</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <v>43</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>42</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="O17" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>3</v>
       </c>
-      <c r="P17" s="6">
+      <c r="Q17" s="6">
         <f t="shared" si="26"/>
         <v>7.3611111111111127E-2</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="R17" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="S17" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="S17" s="5">
+      <c r="T17" s="5">
         <v>0.6</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="U17" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U17" s="8" t="s">
+      <c r="V17" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="V17" s="19">
+      <c r="W17" s="19">
         <v>1.8043981481481484E-2</v>
       </c>
-      <c r="W17" s="20">
+      <c r="X17" s="20">
         <v>1.7858796296296296E-2</v>
       </c>
-      <c r="X17" s="20">
+      <c r="Y17" s="20">
         <v>8.2870370370370372E-3</v>
       </c>
-      <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
-      <c r="AB17" s="20">
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20">
         <f t="shared" si="27"/>
         <v>4.4189814814814821E-2</v>
       </c>
-      <c r="AC17" s="20">
+      <c r="AD17" s="20">
         <v>3.8310185185185183E-3</v>
       </c>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20">
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20">
         <f t="shared" si="28"/>
         <v>4.0358796296296302E-2</v>
       </c>
-      <c r="AF17" s="21">
-        <v>100</v>
-      </c>
       <c r="AG17" s="21">
         <v>100</v>
       </c>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="29">
+      <c r="AH17" s="21">
+        <v>100</v>
+      </c>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="29">
         <v>4</v>
       </c>
-      <c r="AJ17" s="30">
+      <c r="AK17" s="30">
         <v>3</v>
       </c>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="33" t="str">
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="34"/>
-      <c r="AP17" s="33" t="str">
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="34"/>
-      <c r="AS17" s="33" t="str">
+      <c r="AR17" s="31"/>
+      <c r="AS17" s="34"/>
+      <c r="AT17" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="34"/>
-      <c r="AV17" s="33" t="str">
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="34"/>
+      <c r="AW17" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="AW17" s="31"/>
-      <c r="AX17" s="34"/>
-      <c r="AY17" s="33" t="str">
+      <c r="AX17" s="31"/>
+      <c r="AY17" s="34"/>
+      <c r="AZ17" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ17" s="31"/>
-      <c r="BA17" s="34"/>
-      <c r="BB17" s="33" t="str">
+      <c r="BA17" s="31"/>
+      <c r="BB17" s="34"/>
+      <c r="BC17" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BC17" s="31"/>
-      <c r="BD17" s="34"/>
-      <c r="BE17" s="33" t="str">
+      <c r="BD17" s="31"/>
+      <c r="BE17" s="34"/>
+      <c r="BF17" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BF17" s="31"/>
-      <c r="BG17" s="34"/>
-      <c r="BH17" s="33" t="str">
+      <c r="BG17" s="31"/>
+      <c r="BH17" s="34"/>
+      <c r="BI17" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BI17" s="40">
+      <c r="BJ17" s="40">
         <v>3</v>
       </c>
-      <c r="BJ17" s="34">
+      <c r="BK17" s="34">
         <v>3.8541666666666668E-3</v>
       </c>
-      <c r="BK17" s="33">
+      <c r="BL17" s="33">
         <f t="shared" si="36"/>
         <v>2.3148148148148442E-5</v>
       </c>
-      <c r="BL17" s="40"/>
-      <c r="BM17" s="34"/>
-      <c r="BN17" s="33" t="str">
+      <c r="BM17" s="40"/>
+      <c r="BN17" s="34"/>
+      <c r="BO17" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BO17" s="40"/>
-      <c r="BP17" s="34"/>
-      <c r="BQ17" s="33" t="str">
+      <c r="BP17" s="40"/>
+      <c r="BQ17" s="34"/>
+      <c r="BR17" s="33" t="str">
         <f t="shared" si="38"/>
         <v>NA</v>
       </c>
-      <c r="BR17" s="31">
+      <c r="BS17" s="31">
         <v>2</v>
       </c>
-      <c r="BS17" s="34">
+      <c r="BT17" s="34">
         <v>2.4965277777777781E-2</v>
       </c>
-      <c r="BT17" s="33">
+      <c r="BU17" s="33">
         <f t="shared" si="39"/>
         <v>2.1134259259259262E-2</v>
       </c>
-      <c r="BU17" s="31"/>
-      <c r="BV17" s="32"/>
-      <c r="BW17" s="33" t="str">
+      <c r="BV17" s="31"/>
+      <c r="BW17" s="32"/>
+      <c r="BX17" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX17" s="40"/>
-      <c r="BY17" s="55"/>
-      <c r="BZ17" s="33" t="str">
+      <c r="BY17" s="40"/>
+      <c r="BZ17" s="55"/>
+      <c r="CA17" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA17" s="31"/>
-      <c r="CB17" s="34"/>
-      <c r="CC17" s="33" t="str">
+      <c r="CB17" s="31"/>
+      <c r="CC17" s="34"/>
+      <c r="CD17" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD17" s="31"/>
-      <c r="CE17" s="34"/>
-      <c r="CF17" s="33" t="str">
+      <c r="CE17" s="31"/>
+      <c r="CF17" s="34"/>
+      <c r="CG17" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG17" s="31">
+      <c r="CH17" s="31">
         <v>2</v>
       </c>
-      <c r="CH17" s="34">
+      <c r="CI17" s="34">
         <v>6.1805555555555563E-3</v>
       </c>
-      <c r="CI17" s="33">
+      <c r="CJ17" s="33">
         <f t="shared" si="17"/>
         <v>2.349537037037038E-3</v>
       </c>
-      <c r="CJ17" s="31"/>
-      <c r="CK17" s="34"/>
-      <c r="CL17" s="33" t="str">
+      <c r="CK17" s="31"/>
+      <c r="CL17" s="34"/>
+      <c r="CM17" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM17" s="31"/>
-      <c r="CN17" s="34"/>
-      <c r="CO17" s="33" t="str">
+      <c r="CN17" s="31"/>
+      <c r="CO17" s="34"/>
+      <c r="CP17" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP17" s="31"/>
-      <c r="CQ17" s="34"/>
-      <c r="CR17" s="33" t="str">
+      <c r="CQ17" s="31"/>
+      <c r="CR17" s="34"/>
+      <c r="CS17" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS17" s="31"/>
-      <c r="CT17" s="34"/>
-      <c r="CU17" s="33" t="str">
+      <c r="CT17" s="31"/>
+      <c r="CU17" s="34"/>
+      <c r="CV17" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV17" s="31"/>
-      <c r="CW17" s="34"/>
-      <c r="CX17" s="33" t="str">
+      <c r="CW17" s="31"/>
+      <c r="CX17" s="34"/>
+      <c r="CY17" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY17" s="31"/>
-      <c r="CZ17" s="34"/>
-      <c r="DA17" s="33" t="str">
+      <c r="CZ17" s="31"/>
+      <c r="DA17" s="34"/>
+      <c r="DB17" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB17" s="31"/>
-      <c r="DC17" s="34"/>
-      <c r="DD17" s="33" t="str">
+      <c r="DC17" s="31"/>
+      <c r="DD17" s="34"/>
+      <c r="DE17" s="33" t="str">
         <f t="shared" si="40"/>
         <v>NA</v>
       </c>
-      <c r="DE17" s="35"/>
+      <c r="DF17" s="35"/>
     </row>
-    <row r="18" spans="1:109" x14ac:dyDescent="0.35">
-      <c r="A18" s="89" t="s">
+    <row r="18" spans="1:110" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>4</v>
       </c>
-      <c r="E18" s="74" t="str">
+      <c r="F18" s="74" t="str">
         <f t="shared" si="25"/>
         <v>E4</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>2</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>11</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>0.31111111111111112</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>0.38125000000000003</v>
       </c>
-      <c r="J18" s="7">
-        <f>VLOOKUP(E18,LATLON!$A$2:$C$19,2)</f>
+      <c r="K18" s="7">
+        <f>VLOOKUP(F18,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4639509999999998</v>
       </c>
-      <c r="K18" s="7">
-        <f>VLOOKUP(E18,LATLON!$A$2:$C$19,3)</f>
+      <c r="L18" s="7">
+        <f>VLOOKUP(F18,LATLON!$A$2:$C$19,3)</f>
         <v>119.287291</v>
-      </c>
-      <c r="L18" s="5">
-        <v>70</v>
       </c>
       <c r="M18" s="5">
         <v>70</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="5">
+        <v>70</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O18" s="5">
+      <c r="P18" s="5">
         <v>4</v>
       </c>
-      <c r="P18" s="6">
+      <c r="Q18" s="6">
         <f t="shared" si="26"/>
         <v>7.0138888888888917E-2</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="R18" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="S18" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="S18" s="5">
+      <c r="T18" s="5">
         <v>0.6</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="U18" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U18" s="8" t="s">
+      <c r="V18" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="V18" s="19">
-        <v>1.7858796296296296E-2</v>
-      </c>
-      <c r="W18" s="20">
+      <c r="W18" s="19">
         <v>1.7858796296296296E-2</v>
       </c>
       <c r="X18" s="20">
         <v>1.7858796296296296E-2</v>
       </c>
       <c r="Y18" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="Z18" s="20">
         <v>6.7592592592592591E-3</v>
       </c>
-      <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
-      <c r="AB18" s="20">
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20">
         <f t="shared" si="27"/>
         <v>6.0335648148148145E-2</v>
       </c>
-      <c r="AC18" s="20">
+      <c r="AD18" s="20">
         <v>3.8194444444444443E-3</v>
       </c>
-      <c r="AD18" s="20">
+      <c r="AE18" s="20">
         <v>1.4201388888888888E-2</v>
       </c>
-      <c r="AE18" s="20">
+      <c r="AF18" s="20">
         <f t="shared" si="28"/>
         <v>4.2314814814814812E-2</v>
       </c>
-      <c r="AF18" s="21">
-        <v>100</v>
-      </c>
       <c r="AG18" s="21">
         <v>100</v>
       </c>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="29">
+      <c r="AH18" s="21">
+        <v>100</v>
+      </c>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="29">
         <v>3</v>
       </c>
-      <c r="AJ18" s="30">
+      <c r="AK18" s="30">
         <v>2</v>
       </c>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="33" t="str">
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="33" t="str">
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="34"/>
-      <c r="AS18" s="33" t="str">
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="34"/>
+      <c r="AT18" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="33" t="str">
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="34"/>
+      <c r="AW18" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="34"/>
-      <c r="AY18" s="33" t="str">
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="34"/>
+      <c r="AZ18" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="34"/>
-      <c r="BB18" s="33" t="str">
+      <c r="BA18" s="31"/>
+      <c r="BB18" s="34"/>
+      <c r="BC18" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BC18" s="31"/>
-      <c r="BD18" s="34"/>
-      <c r="BE18" s="33" t="str">
+      <c r="BD18" s="31"/>
+      <c r="BE18" s="34"/>
+      <c r="BF18" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BF18" s="31"/>
-      <c r="BG18" s="34"/>
-      <c r="BH18" s="33" t="str">
+      <c r="BG18" s="31"/>
+      <c r="BH18" s="34"/>
+      <c r="BI18" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BI18" s="31">
+      <c r="BJ18" s="31">
         <v>7</v>
       </c>
-      <c r="BJ18" s="34">
+      <c r="BK18" s="34">
         <v>1.7048611111111112E-2</v>
       </c>
-      <c r="BK18" s="33">
+      <c r="BL18" s="33">
         <f t="shared" si="36"/>
         <v>1.3229166666666667E-2</v>
       </c>
-      <c r="BL18" s="31"/>
-      <c r="BM18" s="34"/>
-      <c r="BN18" s="33" t="str">
+      <c r="BM18" s="31"/>
+      <c r="BN18" s="34"/>
+      <c r="BO18" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BO18" s="31"/>
-      <c r="BP18" s="34"/>
-      <c r="BQ18" s="33" t="str">
+      <c r="BP18" s="31"/>
+      <c r="BQ18" s="34"/>
+      <c r="BR18" s="33" t="str">
         <f t="shared" si="38"/>
         <v>NA</v>
       </c>
-      <c r="BR18" s="31">
+      <c r="BS18" s="31">
         <v>2</v>
       </c>
-      <c r="BS18" s="34">
+      <c r="BT18" s="34">
         <v>2.3391203703703702E-2</v>
       </c>
-      <c r="BT18" s="33">
+      <c r="BU18" s="33">
         <f t="shared" si="39"/>
         <v>1.9571759259259257E-2</v>
       </c>
-      <c r="BU18" s="31"/>
-      <c r="BV18" s="32"/>
-      <c r="BW18" s="33" t="str">
+      <c r="BV18" s="31"/>
+      <c r="BW18" s="32"/>
+      <c r="BX18" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX18" s="40"/>
-      <c r="BY18" s="55"/>
-      <c r="BZ18" s="33" t="str">
+      <c r="BY18" s="40"/>
+      <c r="BZ18" s="55"/>
+      <c r="CA18" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA18" s="31"/>
-      <c r="CB18" s="34"/>
-      <c r="CC18" s="33" t="str">
+      <c r="CB18" s="31"/>
+      <c r="CC18" s="34"/>
+      <c r="CD18" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD18" s="31"/>
-      <c r="CE18" s="34"/>
-      <c r="CF18" s="33" t="str">
+      <c r="CE18" s="31"/>
+      <c r="CF18" s="34"/>
+      <c r="CG18" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG18" s="31"/>
-      <c r="CH18" s="34"/>
-      <c r="CI18" s="33" t="str">
+      <c r="CH18" s="31"/>
+      <c r="CI18" s="34"/>
+      <c r="CJ18" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ18" s="31"/>
-      <c r="CK18" s="34"/>
-      <c r="CL18" s="33" t="str">
+      <c r="CK18" s="31"/>
+      <c r="CL18" s="34"/>
+      <c r="CM18" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM18" s="31"/>
-      <c r="CN18" s="34"/>
-      <c r="CO18" s="33" t="str">
+      <c r="CN18" s="31"/>
+      <c r="CO18" s="34"/>
+      <c r="CP18" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP18" s="31"/>
-      <c r="CQ18" s="34"/>
-      <c r="CR18" s="33" t="str">
+      <c r="CQ18" s="31"/>
+      <c r="CR18" s="34"/>
+      <c r="CS18" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS18" s="31"/>
-      <c r="CT18" s="34"/>
-      <c r="CU18" s="33" t="str">
+      <c r="CT18" s="31"/>
+      <c r="CU18" s="34"/>
+      <c r="CV18" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV18" s="31"/>
-      <c r="CW18" s="34"/>
-      <c r="CX18" s="33" t="str">
+      <c r="CW18" s="31"/>
+      <c r="CX18" s="34"/>
+      <c r="CY18" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY18" s="31"/>
-      <c r="CZ18" s="34"/>
-      <c r="DA18" s="33" t="str">
+      <c r="CZ18" s="31"/>
+      <c r="DA18" s="34"/>
+      <c r="DB18" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB18" s="31"/>
-      <c r="DC18" s="34"/>
-      <c r="DD18" s="33" t="str">
+      <c r="DC18" s="31"/>
+      <c r="DD18" s="34"/>
+      <c r="DE18" s="33" t="str">
         <f t="shared" si="40"/>
         <v>NA</v>
       </c>
-      <c r="DE18" s="35"/>
+      <c r="DF18" s="35"/>
     </row>
-    <row r="19" spans="1:109" x14ac:dyDescent="0.35">
-      <c r="A19" s="89" t="s">
+    <row r="19" spans="1:110" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>5</v>
       </c>
-      <c r="E19" s="74" t="str">
+      <c r="F19" s="74" t="str">
         <f t="shared" si="25"/>
         <v>E5</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>3</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <v>0.32083333333333336</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <v>0.37291666666666662</v>
       </c>
-      <c r="J19" s="7">
-        <f>VLOOKUP(E19,LATLON!$A$2:$C$19,2)</f>
+      <c r="K19" s="7">
+        <f>VLOOKUP(F19,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4620889999999997</v>
       </c>
-      <c r="K19" s="7">
-        <f>VLOOKUP(E19,LATLON!$A$2:$C$19,3)</f>
+      <c r="L19" s="7">
+        <f>VLOOKUP(F19,LATLON!$A$2:$C$19,3)</f>
         <v>119.286874</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <v>58</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <v>52</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="O19" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O19" s="5">
+      <c r="P19" s="5">
         <v>4</v>
       </c>
-      <c r="P19" s="6">
+      <c r="Q19" s="6">
         <f t="shared" si="26"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="R19" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="S19" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="S19" s="5">
+      <c r="T19" s="5">
         <v>0.6</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="U19" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U19" s="8" t="s">
+      <c r="V19" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="V19" s="19">
-        <v>1.486111111111111E-2</v>
-      </c>
-      <c r="W19" s="20">
+      <c r="W19" s="19">
         <v>1.486111111111111E-2</v>
       </c>
       <c r="X19" s="20">
         <v>1.486111111111111E-2</v>
       </c>
       <c r="Y19" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="Z19" s="20">
         <v>1.1770833333333333E-2</v>
       </c>
-      <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
-      <c r="AB19" s="20">
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20">
         <f t="shared" si="27"/>
         <v>5.6354166666666664E-2</v>
       </c>
-      <c r="AC19" s="20">
+      <c r="AD19" s="20">
         <v>3.9351851851851857E-3</v>
       </c>
-      <c r="AD19" s="20">
+      <c r="AE19" s="20">
         <v>1.1076388888888887E-2</v>
       </c>
-      <c r="AE19" s="20">
+      <c r="AF19" s="20">
         <f t="shared" si="28"/>
         <v>4.1342592592592591E-2</v>
       </c>
-      <c r="AF19" s="21">
+      <c r="AG19" s="21">
         <v>70</v>
       </c>
-      <c r="AG19" s="21">
+      <c r="AH19" s="21">
         <v>100</v>
       </c>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="29">
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="29">
         <v>3</v>
       </c>
-      <c r="AJ19" s="30">
+      <c r="AK19" s="30">
         <v>1</v>
       </c>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="33" t="str">
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="33" t="str">
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="34"/>
+      <c r="AQ19" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="33" t="str">
+      <c r="AR19" s="31"/>
+      <c r="AS19" s="34"/>
+      <c r="AT19" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="33" t="str">
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="34"/>
+      <c r="AW19" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="AW19" s="31"/>
-      <c r="AX19" s="34"/>
-      <c r="AY19" s="33" t="str">
+      <c r="AX19" s="31"/>
+      <c r="AY19" s="34"/>
+      <c r="AZ19" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ19" s="31"/>
-      <c r="BA19" s="34"/>
-      <c r="BB19" s="33" t="str">
+      <c r="BA19" s="31"/>
+      <c r="BB19" s="34"/>
+      <c r="BC19" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BC19" s="31"/>
-      <c r="BD19" s="34"/>
-      <c r="BE19" s="33" t="str">
+      <c r="BD19" s="31"/>
+      <c r="BE19" s="34"/>
+      <c r="BF19" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BF19" s="31"/>
-      <c r="BG19" s="34"/>
-      <c r="BH19" s="33" t="str">
+      <c r="BG19" s="31"/>
+      <c r="BH19" s="34"/>
+      <c r="BI19" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BI19" s="31">
+      <c r="BJ19" s="31">
         <v>27</v>
       </c>
-      <c r="BJ19" s="34">
+      <c r="BK19" s="34">
         <v>4.2476851851851851E-3</v>
       </c>
-      <c r="BK19" s="33">
+      <c r="BL19" s="33">
         <f t="shared" si="36"/>
         <v>3.1249999999999941E-4</v>
       </c>
-      <c r="BL19" s="31"/>
-      <c r="BM19" s="34"/>
-      <c r="BN19" s="33" t="str">
+      <c r="BM19" s="31"/>
+      <c r="BN19" s="34"/>
+      <c r="BO19" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BO19" s="31"/>
-      <c r="BP19" s="34"/>
-      <c r="BQ19" s="33" t="str">
+      <c r="BP19" s="31"/>
+      <c r="BQ19" s="34"/>
+      <c r="BR19" s="33" t="str">
         <f t="shared" si="38"/>
         <v>NA</v>
       </c>
-      <c r="BR19" s="31"/>
-      <c r="BS19" s="32"/>
-      <c r="BT19" s="33" t="str">
+      <c r="BS19" s="31"/>
+      <c r="BT19" s="32"/>
+      <c r="BU19" s="33" t="str">
         <f t="shared" si="39"/>
         <v>NA</v>
       </c>
-      <c r="BU19" s="31"/>
-      <c r="BV19" s="32"/>
-      <c r="BW19" s="33" t="str">
+      <c r="BV19" s="31"/>
+      <c r="BW19" s="32"/>
+      <c r="BX19" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX19" s="40"/>
-      <c r="BY19" s="55"/>
-      <c r="BZ19" s="33" t="str">
+      <c r="BY19" s="40"/>
+      <c r="BZ19" s="55"/>
+      <c r="CA19" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA19" s="31"/>
-      <c r="CB19" s="34"/>
-      <c r="CC19" s="33" t="str">
+      <c r="CB19" s="31"/>
+      <c r="CC19" s="34"/>
+      <c r="CD19" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD19" s="31"/>
-      <c r="CE19" s="34"/>
-      <c r="CF19" s="33" t="str">
+      <c r="CE19" s="31"/>
+      <c r="CF19" s="34"/>
+      <c r="CG19" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG19" s="31"/>
-      <c r="CH19" s="34"/>
-      <c r="CI19" s="33" t="str">
+      <c r="CH19" s="31"/>
+      <c r="CI19" s="34"/>
+      <c r="CJ19" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ19" s="31"/>
-      <c r="CK19" s="34"/>
-      <c r="CL19" s="33" t="str">
+      <c r="CK19" s="31"/>
+      <c r="CL19" s="34"/>
+      <c r="CM19" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM19" s="31"/>
-      <c r="CN19" s="34"/>
-      <c r="CO19" s="33" t="str">
+      <c r="CN19" s="31"/>
+      <c r="CO19" s="34"/>
+      <c r="CP19" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP19" s="31"/>
-      <c r="CQ19" s="34"/>
-      <c r="CR19" s="33" t="str">
+      <c r="CQ19" s="31"/>
+      <c r="CR19" s="34"/>
+      <c r="CS19" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS19" s="31"/>
-      <c r="CT19" s="34"/>
-      <c r="CU19" s="33" t="str">
+      <c r="CT19" s="31"/>
+      <c r="CU19" s="34"/>
+      <c r="CV19" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV19" s="31"/>
-      <c r="CW19" s="34"/>
-      <c r="CX19" s="33" t="str">
+      <c r="CW19" s="31"/>
+      <c r="CX19" s="34"/>
+      <c r="CY19" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY19" s="31"/>
-      <c r="CZ19" s="34"/>
-      <c r="DA19" s="33" t="str">
+      <c r="CZ19" s="31"/>
+      <c r="DA19" s="34"/>
+      <c r="DB19" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB19" s="31"/>
-      <c r="DC19" s="34"/>
-      <c r="DD19" s="33" t="str">
+      <c r="DC19" s="31"/>
+      <c r="DD19" s="34"/>
+      <c r="DE19" s="33" t="str">
         <f t="shared" si="40"/>
         <v>NA</v>
       </c>
-      <c r="DE19" s="35"/>
+      <c r="DF19" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/URUVS/Datasheets/URUV/05.2024/May_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/05.2024/May_RecordingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\05.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3A7795-B0A4-4962-9675-2E55E28FBE11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C8EF8-E944-4AFB-81D5-1FCD9FF5B497}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="202">
   <si>
     <t>DATE</t>
   </si>
@@ -618,12 +618,6 @@
   </si>
   <si>
     <t>T1_SANDFISH</t>
-  </si>
-  <si>
-    <t>31/05/2024</t>
-  </si>
-  <si>
-    <t>REAL DATE 01/06/2024. CHANGED FOR ANALYSIS</t>
   </si>
   <si>
     <t>TOMPOTANA</t>
@@ -1289,7 +1283,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="V16" sqref="V16:V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1319,7 +1313,7 @@
   <sheetData>
     <row r="1" spans="1:110" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1565,13 +1559,13 @@
         <v>140</v>
       </c>
       <c r="CE1" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF1" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="CG1" s="58" t="s">
         <v>199</v>
-      </c>
-      <c r="CF1" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG1" s="58" t="s">
-        <v>201</v>
       </c>
       <c r="CH1" s="81" t="s">
         <v>123</v>
@@ -1651,13 +1645,13 @@
     </row>
     <row r="2" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>148</v>
@@ -1935,13 +1929,13 @@
     </row>
     <row r="3" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>153</v>
@@ -2203,13 +2197,13 @@
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>153</v>
@@ -2471,13 +2465,13 @@
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>148</v>
@@ -2735,13 +2729,13 @@
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>153</v>
@@ -3015,13 +3009,13 @@
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>163</v>
@@ -3289,13 +3283,13 @@
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>163</v>
@@ -3571,13 +3565,13 @@
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>148</v>
@@ -3835,13 +3829,13 @@
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>163</v>
@@ -4105,13 +4099,13 @@
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>163</v>
@@ -4367,13 +4361,13 @@
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>148</v>
@@ -4625,13 +4619,13 @@
     </row>
     <row r="13" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>148</v>
@@ -4879,13 +4873,13 @@
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>163</v>
@@ -5141,13 +5135,13 @@
     </row>
     <row r="15" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>163</v>
@@ -5411,13 +5405,13 @@
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>148</v>
@@ -5667,13 +5661,13 @@
     </row>
     <row r="17" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" s="89" t="s">
-        <v>195</v>
+        <v>201</v>
+      </c>
+      <c r="B17" s="89">
+        <v>45297</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>153</v>
@@ -5733,9 +5727,7 @@
       <c r="U17" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="V17" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="V17" s="8"/>
       <c r="W17" s="19">
         <v>1.8043981481481484E-2</v>
       </c>
@@ -5933,13 +5925,13 @@
     </row>
     <row r="18" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="89" t="s">
-        <v>195</v>
+        <v>201</v>
+      </c>
+      <c r="B18" s="89">
+        <v>45297</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>153</v>
@@ -5999,9 +5991,7 @@
       <c r="U18" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="V18" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="V18" s="8"/>
       <c r="W18" s="19">
         <v>1.7858796296296296E-2</v>
       </c>
@@ -6199,13 +6189,13 @@
     </row>
     <row r="19" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" s="89" t="s">
-        <v>195</v>
+        <v>201</v>
+      </c>
+      <c r="B19" s="89">
+        <v>45297</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>153</v>
@@ -6265,9 +6255,7 @@
       <c r="U19" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="V19" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="V19" s="8"/>
       <c r="W19" s="19">
         <v>1.486111111111111E-2</v>
       </c>
